--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T638"/>
+  <dimension ref="A1:T640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>110</v>
+        <v>1050</v>
       </c>
       <c r="N630" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O630" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P630" t="n">
-        <v>15455</v>
+        <v>20429</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>773</v>
+        <v>1021</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1720</v>
+        <v>1000</v>
       </c>
       <c r="N631" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O631" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P631" t="n">
-        <v>15488</v>
+        <v>21450</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>774</v>
+        <v>1072</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>1080</v>
+        <v>110</v>
       </c>
       <c r="N632" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O632" t="n">
         <v>16000</v>
       </c>
-      <c r="O632" t="n">
-        <v>17000</v>
-      </c>
       <c r="P632" t="n">
-        <v>16556</v>
+        <v>15455</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>828</v>
+        <v>773</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>360</v>
+        <v>1720</v>
       </c>
       <c r="N633" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O633" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P633" t="n">
-        <v>12556</v>
+        <v>15488</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>628</v>
+        <v>774</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>320</v>
+        <v>1080</v>
       </c>
       <c r="N634" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O634" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P634" t="n">
-        <v>12562</v>
+        <v>16556</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>628</v>
+        <v>828</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N635" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O635" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P635" t="n">
-        <v>15583</v>
+        <v>12556</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>779</v>
+        <v>628</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="N636" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P636" t="n">
-        <v>17556</v>
+        <v>12562</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>878</v>
+        <v>628</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="N637" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O637" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P637" t="n">
-        <v>19000</v>
+        <v>15583</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>950</v>
+        <v>779</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,68 +51367,228 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E638" t="n">
+        <v>13</v>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G638" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M638" t="n">
+        <v>540</v>
+      </c>
+      <c r="N638" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O638" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P638" t="n">
+        <v>17556</v>
+      </c>
+      <c r="Q638" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S638" t="n">
+        <v>878</v>
+      </c>
+      <c r="T638" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>9</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E638" t="n">
-        <v>13</v>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G638" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I638" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J638" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L638" t="inlineStr">
+      <c r="E639" t="n">
+        <v>13</v>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G639" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M639" t="n">
+        <v>280</v>
+      </c>
+      <c r="N639" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O639" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P639" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q639" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S639" t="n">
+        <v>950</v>
+      </c>
+      <c r="T639" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>9</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M638" t="n">
+      <c r="M640" t="n">
         <v>400</v>
       </c>
-      <c r="N638" t="n">
+      <c r="N640" t="n">
         <v>20000</v>
       </c>
-      <c r="O638" t="n">
+      <c r="O640" t="n">
         <v>20000</v>
       </c>
-      <c r="P638" t="n">
+      <c r="P640" t="n">
         <v>20000</v>
       </c>
-      <c r="Q638" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R638" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S638" t="n">
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
         <v>1000</v>
       </c>
-      <c r="T638" t="n">
+      <c r="T640" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T640"/>
+  <dimension ref="A1:T644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="N581" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O581" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P581" t="n">
-        <v>14556</v>
+        <v>19444</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>728</v>
+        <v>972</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="N582" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O582" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P582" t="n">
-        <v>15487</v>
+        <v>18000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>774</v>
+        <v>900</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1990</v>
+        <v>550</v>
       </c>
       <c r="N583" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O583" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P583" t="n">
-        <v>16573</v>
+        <v>19000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>829</v>
+        <v>950</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="N584" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O584" t="n">
         <v>20000</v>
       </c>
       <c r="P584" t="n">
-        <v>19182</v>
+        <v>20000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="N585" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O585" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P585" t="n">
-        <v>13560</v>
+        <v>14556</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>640</v>
+        <v>780</v>
       </c>
       <c r="N586" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O586" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P586" t="n">
-        <v>14562</v>
+        <v>15487</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>250</v>
+        <v>1990</v>
       </c>
       <c r="N587" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O587" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P587" t="n">
-        <v>14400</v>
+        <v>16573</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>720</v>
+        <v>829</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="N588" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O588" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P588" t="n">
-        <v>7708</v>
+        <v>19182</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>385</v>
+        <v>959</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O589" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>9196</v>
+        <v>13560</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>460</v>
+        <v>678</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O590" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>11576</v>
+        <v>14562</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>579</v>
+        <v>728</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N591" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O591" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P591" t="n">
-        <v>20600</v>
+        <v>14400</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>1030</v>
+        <v>720</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47724,16 +47724,16 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="N592" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O592" t="n">
         <v>8000</v>
       </c>
-      <c r="O592" t="n">
-        <v>9000</v>
-      </c>
       <c r="P592" t="n">
-        <v>8560</v>
+        <v>7708</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>740</v>
+        <v>460</v>
       </c>
       <c r="N593" t="n">
         <v>9000</v>
       </c>
       <c r="O593" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P593" t="n">
-        <v>9486</v>
+        <v>9196</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,11 +47880,11 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="N594" t="n">
         <v>11000</v>
@@ -47893,7 +47893,7 @@
         <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>11560</v>
+        <v>11576</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="N595" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O595" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P595" t="n">
-        <v>12564</v>
+        <v>20600</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>628</v>
+        <v>1030</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N596" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O596" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P596" t="n">
-        <v>19000</v>
+        <v>8560</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>950</v>
+        <v>428</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="N597" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O597" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>14300</v>
+        <v>9486</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>715</v>
+        <v>474</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="N598" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O598" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>15273</v>
+        <v>11560</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>764</v>
+        <v>578</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="N599" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P599" t="n">
-        <v>15000</v>
+        <v>12564</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>750</v>
+        <v>628</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N600" t="n">
         <v>19000</v>
       </c>
       <c r="O600" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P600" t="n">
-        <v>19960</v>
+        <v>19000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>998</v>
+        <v>950</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="N601" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O601" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>8452</v>
+        <v>14300</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>423</v>
+        <v>715</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1930</v>
+        <v>1650</v>
       </c>
       <c r="N602" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O602" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P602" t="n">
-        <v>9813</v>
+        <v>15273</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>491</v>
+        <v>764</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>3480</v>
+        <v>300</v>
       </c>
       <c r="N603" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O603" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P603" t="n">
-        <v>11684</v>
+        <v>15000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>584</v>
+        <v>750</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>5040</v>
+        <v>1000</v>
       </c>
       <c r="N604" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O604" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P604" t="n">
-        <v>13833</v>
+        <v>19960</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="N605" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P605" t="n">
-        <v>15800</v>
+        <v>8452</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>790</v>
+        <v>423</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>630</v>
+        <v>1930</v>
       </c>
       <c r="N606" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O606" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P606" t="n">
-        <v>14278</v>
+        <v>9813</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>714</v>
+        <v>491</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>780</v>
+        <v>3480</v>
       </c>
       <c r="N607" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O607" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P607" t="n">
-        <v>14513</v>
+        <v>11684</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>726</v>
+        <v>584</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>180</v>
+        <v>5040</v>
       </c>
       <c r="N608" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O608" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P608" t="n">
-        <v>14000</v>
+        <v>13833</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="N609" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O609" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P609" t="n">
-        <v>12510</v>
+        <v>15800</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>626</v>
+        <v>790</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="N610" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O610" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="P610" t="n">
-        <v>12667</v>
+        <v>14278</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,7 +49244,7 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1240</v>
+        <v>780</v>
       </c>
       <c r="N611" t="n">
         <v>14000</v>
@@ -49253,7 +49253,7 @@
         <v>15000</v>
       </c>
       <c r="P611" t="n">
-        <v>14677</v>
+        <v>14513</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N612" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O612" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P612" t="n">
-        <v>19455</v>
+        <v>14000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>973</v>
+        <v>700</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>680</v>
+        <v>980</v>
       </c>
       <c r="N613" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O613" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P613" t="n">
-        <v>5206</v>
+        <v>12510</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>260</v>
+        <v>626</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O614" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P614" t="n">
-        <v>5328</v>
+        <v>12667</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>266</v>
+        <v>633</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1080</v>
+        <v>1240</v>
       </c>
       <c r="N615" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P615" t="n">
-        <v>9778</v>
+        <v>14677</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>489</v>
+        <v>734</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O616" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P616" t="n">
-        <v>10583</v>
+        <v>19455</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>529</v>
+        <v>973</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="N617" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O617" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P617" t="n">
-        <v>10556</v>
+        <v>5206</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>528</v>
+        <v>260</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="N618" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O618" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P618" t="n">
-        <v>11577</v>
+        <v>5328</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>579</v>
+        <v>266</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="N619" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O619" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>12738</v>
+        <v>9778</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>637</v>
+        <v>489</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1640</v>
+        <v>960</v>
       </c>
       <c r="N620" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O620" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P620" t="n">
-        <v>13634</v>
+        <v>10583</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>682</v>
+        <v>529</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>780</v>
+        <v>630</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O621" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P621" t="n">
-        <v>9256</v>
+        <v>10556</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="N622" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O622" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P622" t="n">
-        <v>9562</v>
+        <v>11577</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="N623" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O623" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P623" t="n">
-        <v>10538</v>
+        <v>12738</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>527</v>
+        <v>637</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50287,13 +50287,13 @@
         <v>1640</v>
       </c>
       <c r="N624" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O624" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P624" t="n">
-        <v>11537</v>
+        <v>13634</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>577</v>
+        <v>682</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1420</v>
+        <v>780</v>
       </c>
       <c r="N625" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O625" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P625" t="n">
-        <v>12577</v>
+        <v>9256</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>629</v>
+        <v>463</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1480</v>
+        <v>640</v>
       </c>
       <c r="N626" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P626" t="n">
-        <v>13270</v>
+        <v>9562</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>664</v>
+        <v>478</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,11 +50520,11 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>400</v>
+        <v>1040</v>
       </c>
       <c r="N627" t="n">
         <v>10000</v>
@@ -50533,7 +50533,7 @@
         <v>11000</v>
       </c>
       <c r="P627" t="n">
-        <v>10550</v>
+        <v>10538</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,11 +50600,11 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>660</v>
+        <v>1640</v>
       </c>
       <c r="N628" t="n">
         <v>11000</v>
@@ -50613,7 +50613,7 @@
         <v>12000</v>
       </c>
       <c r="P628" t="n">
-        <v>11576</v>
+        <v>11537</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,11 +50680,11 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>1440</v>
+        <v>1420</v>
       </c>
       <c r="N629" t="n">
         <v>12000</v>
@@ -50693,7 +50693,7 @@
         <v>13000</v>
       </c>
       <c r="P629" t="n">
-        <v>12590</v>
+        <v>12577</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1050</v>
+        <v>1480</v>
       </c>
       <c r="N630" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O630" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P630" t="n">
-        <v>20429</v>
+        <v>13270</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1021</v>
+        <v>664</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N631" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O631" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P631" t="n">
-        <v>21450</v>
+        <v>10550</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1072</v>
+        <v>528</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>110</v>
+        <v>660</v>
       </c>
       <c r="N632" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O632" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P632" t="n">
-        <v>15455</v>
+        <v>11576</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>773</v>
+        <v>579</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1720</v>
+        <v>1440</v>
       </c>
       <c r="N633" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O633" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P633" t="n">
-        <v>15488</v>
+        <v>12590</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>774</v>
+        <v>630</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="N634" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O634" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P634" t="n">
-        <v>16556</v>
+        <v>20429</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>828</v>
+        <v>1021</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O635" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P635" t="n">
-        <v>12556</v>
+        <v>21450</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>628</v>
+        <v>1072</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N636" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O636" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P636" t="n">
-        <v>12562</v>
+        <v>15455</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>628</v>
+        <v>773</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,11 +51320,11 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>480</v>
+        <v>1720</v>
       </c>
       <c r="N637" t="n">
         <v>15000</v>
@@ -51333,7 +51333,7 @@
         <v>16000</v>
       </c>
       <c r="P637" t="n">
-        <v>15583</v>
+        <v>15488</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="N638" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O638" t="n">
         <v>17000</v>
       </c>
-      <c r="O638" t="n">
-        <v>18000</v>
-      </c>
       <c r="P638" t="n">
-        <v>17556</v>
+        <v>16556</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>878</v>
+        <v>828</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N639" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O639" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P639" t="n">
-        <v>19000</v>
+        <v>12556</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>950</v>
+        <v>628</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,68 +51527,388 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G640" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M640" t="n">
+        <v>320</v>
+      </c>
+      <c r="N640" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O640" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P640" t="n">
+        <v>12562</v>
+      </c>
+      <c r="Q640" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S640" t="n">
+        <v>628</v>
+      </c>
+      <c r="T640" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>9</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E641" t="n">
+        <v>13</v>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G641" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M641" t="n">
+        <v>480</v>
+      </c>
+      <c r="N641" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O641" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P641" t="n">
+        <v>15583</v>
+      </c>
+      <c r="Q641" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S641" t="n">
+        <v>779</v>
+      </c>
+      <c r="T641" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>9</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E642" t="n">
+        <v>13</v>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G642" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M642" t="n">
+        <v>540</v>
+      </c>
+      <c r="N642" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O642" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P642" t="n">
+        <v>17556</v>
+      </c>
+      <c r="Q642" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S642" t="n">
+        <v>878</v>
+      </c>
+      <c r="T642" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>9</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E640" t="n">
-        <v>13</v>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G640" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I640" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J640" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L640" t="inlineStr">
+      <c r="E643" t="n">
+        <v>13</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G643" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M643" t="n">
+        <v>280</v>
+      </c>
+      <c r="N643" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O643" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P643" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
+        <v>950</v>
+      </c>
+      <c r="T643" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>9</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E644" t="n">
+        <v>13</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G644" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M640" t="n">
+      <c r="M644" t="n">
         <v>400</v>
       </c>
-      <c r="N640" t="n">
+      <c r="N644" t="n">
         <v>20000</v>
       </c>
-      <c r="O640" t="n">
+      <c r="O644" t="n">
         <v>20000</v>
       </c>
-      <c r="P640" t="n">
+      <c r="P644" t="n">
         <v>20000</v>
       </c>
-      <c r="Q640" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R640" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S640" t="n">
+      <c r="Q644" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R644" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S644" t="n">
         <v>1000</v>
       </c>
-      <c r="T640" t="n">
+      <c r="T644" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T663"/>
+  <dimension ref="A1:T665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="N447" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O447" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P447" t="n">
-        <v>8441</v>
+        <v>13000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="T447" t="n">
         <v>20</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>640</v>
+        <v>950</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O448" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>9281</v>
+        <v>14000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>464</v>
+        <v>700</v>
       </c>
       <c r="T448" t="n">
         <v>20</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O449" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P449" t="n">
-        <v>10560</v>
+        <v>8441</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="T449" t="n">
         <v>20</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>1080</v>
+        <v>640</v>
       </c>
       <c r="N450" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P450" t="n">
-        <v>11556</v>
+        <v>9281</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>578</v>
+        <v>464</v>
       </c>
       <c r="T450" t="n">
         <v>20</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="N451" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P451" t="n">
-        <v>14500</v>
+        <v>10560</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>725</v>
+        <v>528</v>
       </c>
       <c r="T451" t="n">
         <v>20</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="N452" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O452" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>19500</v>
+        <v>11556</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>975</v>
+        <v>578</v>
       </c>
       <c r="T452" t="n">
         <v>20</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>220</v>
+        <v>1080</v>
       </c>
       <c r="N453" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P453" t="n">
-        <v>19455</v>
+        <v>14500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>973</v>
+        <v>725</v>
       </c>
       <c r="T453" t="n">
         <v>20</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="N454" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O454" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P454" t="n">
-        <v>8562</v>
+        <v>19500</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>428</v>
+        <v>975</v>
       </c>
       <c r="T454" t="n">
         <v>20</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="N455" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P455" t="n">
-        <v>9792</v>
+        <v>19455</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>490</v>
+        <v>973</v>
       </c>
       <c r="T455" t="n">
         <v>20</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="N456" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O456" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P456" t="n">
-        <v>12487</v>
+        <v>8562</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>624</v>
+        <v>428</v>
       </c>
       <c r="T456" t="n">
         <v>20</v>
@@ -36920,20 +36920,20 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>1620</v>
+        <v>480</v>
       </c>
       <c r="N457" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O457" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P457" t="n">
-        <v>13438</v>
+        <v>9792</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>672</v>
+        <v>490</v>
       </c>
       <c r="T457" t="n">
         <v>20</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>30</v>
+        <v>780</v>
       </c>
       <c r="N458" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P458" t="n">
-        <v>17000</v>
+        <v>12487</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>850</v>
+        <v>624</v>
       </c>
       <c r="T458" t="n">
         <v>20</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>500</v>
+        <v>1620</v>
       </c>
       <c r="N459" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O459" t="n">
         <v>14000</v>
       </c>
-      <c r="O459" t="n">
-        <v>15000</v>
-      </c>
       <c r="P459" t="n">
-        <v>14560</v>
+        <v>13438</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="T459" t="n">
         <v>20</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="N460" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O460" t="n">
         <v>17000</v>
       </c>
       <c r="P460" t="n">
-        <v>16604</v>
+        <v>17000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="T460" t="n">
         <v>20</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="N461" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O461" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P461" t="n">
-        <v>20857</v>
+        <v>14560</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1043</v>
+        <v>728</v>
       </c>
       <c r="T461" t="n">
         <v>20</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>380</v>
+        <v>960</v>
       </c>
       <c r="N462" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O462" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P462" t="n">
-        <v>9737</v>
+        <v>16604</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>487</v>
+        <v>830</v>
       </c>
       <c r="T462" t="n">
         <v>20</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>640</v>
+        <v>140</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O463" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P463" t="n">
-        <v>10406</v>
+        <v>20857</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>520</v>
+        <v>1043</v>
       </c>
       <c r="T463" t="n">
         <v>20</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M464" t="n">
         <v>380</v>
       </c>
       <c r="N464" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O464" t="n">
         <v>10000</v>
       </c>
-      <c r="O464" t="n">
-        <v>11000</v>
-      </c>
       <c r="P464" t="n">
-        <v>10526</v>
+        <v>9737</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="T464" t="n">
         <v>20</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="N465" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O465" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P465" t="n">
-        <v>12548</v>
+        <v>10406</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>627</v>
+        <v>520</v>
       </c>
       <c r="T465" t="n">
         <v>20</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37640,11 +37640,11 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="N466" t="n">
         <v>10000</v>
@@ -37653,7 +37653,7 @@
         <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>10562</v>
+        <v>10526</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="T466" t="n">
         <v>20</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>380</v>
+        <v>620</v>
       </c>
       <c r="N467" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P467" t="n">
-        <v>11526</v>
+        <v>12548</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="N468" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P468" t="n">
-        <v>13177</v>
+        <v>10562</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>659</v>
+        <v>528</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>1030</v>
+        <v>380</v>
       </c>
       <c r="N469" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O469" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>14456</v>
+        <v>11526</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>723</v>
+        <v>576</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N470" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O470" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="P470" t="n">
-        <v>8295</v>
+        <v>13177</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>415</v>
+        <v>659</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>900</v>
+        <v>1030</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O471" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P471" t="n">
-        <v>9278</v>
+        <v>14456</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>464</v>
+        <v>723</v>
       </c>
       <c r="T471" t="n">
         <v>20</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="N472" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O472" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="P472" t="n">
-        <v>11306</v>
+        <v>8295</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>565</v>
+        <v>415</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>1180</v>
+        <v>900</v>
       </c>
       <c r="N473" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O473" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P473" t="n">
-        <v>12153</v>
+        <v>9278</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>608</v>
+        <v>464</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>25</v>
+        <v>720</v>
       </c>
       <c r="N474" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O474" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="P474" t="n">
-        <v>16000</v>
+        <v>11306</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>800</v>
+        <v>565</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>820</v>
+        <v>1180</v>
       </c>
       <c r="N475" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O475" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>14512</v>
+        <v>12153</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>726</v>
+        <v>608</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>1800</v>
+        <v>25</v>
       </c>
       <c r="N476" t="n">
         <v>16000</v>
       </c>
       <c r="O476" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P476" t="n">
-        <v>16328</v>
+        <v>16000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>480</v>
+        <v>820</v>
       </c>
       <c r="N477" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P477" t="n">
-        <v>11583</v>
+        <v>14512</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>579</v>
+        <v>726</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>550</v>
+        <v>1800</v>
       </c>
       <c r="N478" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O478" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="P478" t="n">
-        <v>13273</v>
+        <v>16328</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>664</v>
+        <v>816</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>1860</v>
+        <v>480</v>
       </c>
       <c r="N479" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O479" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>13672</v>
+        <v>11583</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>684</v>
+        <v>579</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N480" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O480" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="P480" t="n">
-        <v>20467</v>
+        <v>13273</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1023</v>
+        <v>664</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>1070</v>
+        <v>1860</v>
       </c>
       <c r="N481" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O481" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P481" t="n">
-        <v>22486</v>
+        <v>13672</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1124</v>
+        <v>684</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="N482" t="n">
         <v>20000</v>
       </c>
       <c r="O482" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P482" t="n">
-        <v>20000</v>
+        <v>20467</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>400</v>
+        <v>1070</v>
       </c>
       <c r="N483" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P483" t="n">
-        <v>11550</v>
+        <v>22486</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>578</v>
+        <v>1124</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>760</v>
+        <v>50</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O484" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P484" t="n">
-        <v>13632</v>
+        <v>20000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>682</v>
+        <v>1000</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O485" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>10583</v>
+        <v>11550</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>529</v>
+        <v>578</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,11 +39240,11 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>580</v>
+        <v>760</v>
       </c>
       <c r="N486" t="n">
         <v>13000</v>
@@ -39253,7 +39253,7 @@
         <v>14000</v>
       </c>
       <c r="P486" t="n">
-        <v>13483</v>
+        <v>13632</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>760</v>
+        <v>480</v>
       </c>
       <c r="N487" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O487" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P487" t="n">
-        <v>14526</v>
+        <v>10583</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>726</v>
+        <v>529</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="N488" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P488" t="n">
-        <v>9464</v>
+        <v>13483</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>473</v>
+        <v>674</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="N489" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O489" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P489" t="n">
-        <v>10227</v>
+        <v>14526</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>511</v>
+        <v>726</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P490" t="n">
-        <v>12588</v>
+        <v>9464</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>629</v>
+        <v>473</v>
       </c>
       <c r="T490" t="n">
         <v>20</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>1640</v>
+        <v>440</v>
       </c>
       <c r="N491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P491" t="n">
-        <v>13622</v>
+        <v>10227</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>681</v>
+        <v>511</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N492" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P492" t="n">
-        <v>9364</v>
+        <v>12588</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>468</v>
+        <v>629</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>1080</v>
+        <v>1640</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O493" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P493" t="n">
-        <v>12546</v>
+        <v>13622</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>627</v>
+        <v>681</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N494" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O494" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>14000</v>
+        <v>9364</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>700</v>
+        <v>468</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>40</v>
+        <v>1080</v>
       </c>
       <c r="N495" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P495" t="n">
-        <v>16000</v>
+        <v>12546</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="N496" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O496" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P496" t="n">
-        <v>9706</v>
+        <v>14000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>485</v>
+        <v>700</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>1040</v>
+        <v>40</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O497" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P497" t="n">
-        <v>10462</v>
+        <v>16000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>523</v>
+        <v>800</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>1760</v>
+        <v>680</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>12500</v>
+        <v>9706</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>625</v>
+        <v>485</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>420</v>
+        <v>1040</v>
       </c>
       <c r="N499" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P499" t="n">
-        <v>19571</v>
+        <v>10462</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>979</v>
+        <v>523</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>830</v>
+        <v>1760</v>
       </c>
       <c r="N500" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O500" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>8542</v>
+        <v>12500</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>427</v>
+        <v>625</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N501" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P501" t="n">
-        <v>8725</v>
+        <v>19571</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>436</v>
+        <v>979</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>620</v>
+        <v>830</v>
       </c>
       <c r="N502" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>9823</v>
+        <v>8542</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P503" t="n">
-        <v>10429</v>
+        <v>8725</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>521</v>
+        <v>436</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="N504" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O504" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>19600</v>
+        <v>9823</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>980</v>
+        <v>491</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,11 +40760,11 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>580</v>
+        <v>840</v>
       </c>
       <c r="N505" t="n">
         <v>10000</v>
@@ -40773,7 +40773,7 @@
         <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>10517</v>
+        <v>10429</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="N506" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O506" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P506" t="n">
-        <v>11517</v>
+        <v>19600</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>576</v>
+        <v>980</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="N507" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O507" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P507" t="n">
-        <v>13487</v>
+        <v>10517</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>674</v>
+        <v>526</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="N508" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O508" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>14583</v>
+        <v>11517</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>729</v>
+        <v>576</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>200</v>
+        <v>780</v>
       </c>
       <c r="N509" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O509" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P509" t="n">
-        <v>17600</v>
+        <v>13487</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>880</v>
+        <v>674</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N510" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O510" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P510" t="n">
-        <v>10375</v>
+        <v>14583</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>519</v>
+        <v>729</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>1360</v>
+        <v>200</v>
       </c>
       <c r="N511" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O511" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P511" t="n">
-        <v>12676</v>
+        <v>17600</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>634</v>
+        <v>880</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N512" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O512" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P512" t="n">
-        <v>14000</v>
+        <v>10375</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>700</v>
+        <v>519</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>880</v>
+        <v>1360</v>
       </c>
       <c r="N513" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O513" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P513" t="n">
-        <v>11545</v>
+        <v>12676</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>620</v>
+        <v>120</v>
       </c>
       <c r="N514" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O514" t="n">
         <v>14000</v>
       </c>
       <c r="P514" t="n">
-        <v>13645</v>
+        <v>14000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>1040</v>
+        <v>880</v>
       </c>
       <c r="N515" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O515" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P515" t="n">
-        <v>14538</v>
+        <v>11545</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>727</v>
+        <v>577</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>280</v>
+        <v>620</v>
       </c>
       <c r="N516" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O516" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P516" t="n">
-        <v>12571</v>
+        <v>13645</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>500</v>
+        <v>1040</v>
       </c>
       <c r="N517" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O517" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P517" t="n">
-        <v>13440</v>
+        <v>14538</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>1860</v>
+        <v>280</v>
       </c>
       <c r="N518" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O518" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P518" t="n">
-        <v>16527</v>
+        <v>12571</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>826</v>
+        <v>629</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>1680</v>
+        <v>500</v>
       </c>
       <c r="N519" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O519" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P519" t="n">
-        <v>9500</v>
+        <v>13440</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>475</v>
+        <v>672</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>1200</v>
+        <v>1860</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O520" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P520" t="n">
-        <v>10500</v>
+        <v>16527</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>525</v>
+        <v>826</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,20 +42040,20 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>480</v>
+        <v>1680</v>
       </c>
       <c r="N521" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O521" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>7708</v>
+        <v>9500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>385</v>
+        <v>475</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="N522" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P522" t="n">
-        <v>9196</v>
+        <v>10500</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="N523" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O523" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>11576</v>
+        <v>7708</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="N524" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P524" t="n">
-        <v>8000</v>
+        <v>9196</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>1160</v>
+        <v>590</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P525" t="n">
-        <v>9586</v>
+        <v>11576</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>479</v>
+        <v>579</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="N526" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>562</v>
+        <v>400</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>2200</v>
+        <v>1160</v>
       </c>
       <c r="N527" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O527" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>11582</v>
+        <v>9586</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>579</v>
+        <v>479</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="N528" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O528" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="P528" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="N529" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O529" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>8545</v>
+        <v>11582</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>427</v>
+        <v>579</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="N530" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P530" t="n">
-        <v>9538</v>
+        <v>15000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>477</v>
+        <v>750</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O531" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P531" t="n">
-        <v>10588</v>
+        <v>8545</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>529</v>
+        <v>427</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>216</v>
+        <v>520</v>
       </c>
       <c r="N532" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>14500</v>
+        <v>9538</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>725</v>
+        <v>477</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N533" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O533" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P533" t="n">
-        <v>16500</v>
+        <v>10588</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>825</v>
+        <v>529</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>2320</v>
+        <v>216</v>
       </c>
       <c r="N534" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O534" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P534" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="N535" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O535" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P535" t="n">
-        <v>14589</v>
+        <v>16500</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>729</v>
+        <v>825</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>2000</v>
+        <v>2320</v>
       </c>
       <c r="N536" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O536" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P536" t="n">
-        <v>16520</v>
+        <v>17500</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>826</v>
+        <v>875</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>320</v>
+        <v>1120</v>
       </c>
       <c r="N537" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O537" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P537" t="n">
-        <v>19438</v>
+        <v>14589</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>972</v>
+        <v>729</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>1080</v>
+        <v>2000</v>
       </c>
       <c r="N538" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P538" t="n">
-        <v>7444</v>
+        <v>16520</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>372</v>
+        <v>826</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>1400</v>
+        <v>320</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O539" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P539" t="n">
-        <v>10514</v>
+        <v>19438</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>526</v>
+        <v>972</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="N540" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O540" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>11583</v>
+        <v>7444</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>579</v>
+        <v>372</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="N541" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O541" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P541" t="n">
-        <v>13550</v>
+        <v>10514</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>678</v>
+        <v>526</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>440</v>
+        <v>960</v>
       </c>
       <c r="N542" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>9591</v>
+        <v>11583</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>480</v>
+        <v>579</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>1040</v>
+        <v>400</v>
       </c>
       <c r="N543" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O543" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P543" t="n">
-        <v>11538</v>
+        <v>13550</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>577</v>
+        <v>678</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1040</v>
+        <v>440</v>
       </c>
       <c r="N544" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>12538</v>
+        <v>9591</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>627</v>
+        <v>480</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>600</v>
+        <v>1040</v>
       </c>
       <c r="N545" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O545" t="n">
         <v>12000</v>
       </c>
-      <c r="O545" t="n">
-        <v>13000</v>
-      </c>
       <c r="P545" t="n">
-        <v>12533</v>
+        <v>11538</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>580</v>
+        <v>1040</v>
       </c>
       <c r="N546" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O546" t="n">
         <v>13000</v>
       </c>
-      <c r="O546" t="n">
-        <v>14000</v>
-      </c>
       <c r="P546" t="n">
-        <v>13655</v>
+        <v>12538</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>683</v>
+        <v>627</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="N547" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O547" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P547" t="n">
-        <v>16576</v>
+        <v>12533</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>829</v>
+        <v>627</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="N548" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O548" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="P548" t="n">
-        <v>5233</v>
+        <v>13655</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>262</v>
+        <v>683</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>980</v>
+        <v>660</v>
       </c>
       <c r="N549" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O549" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="P549" t="n">
-        <v>7255</v>
+        <v>16576</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>363</v>
+        <v>829</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1240</v>
+        <v>750</v>
       </c>
       <c r="N550" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O550" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P550" t="n">
-        <v>7548</v>
+        <v>5233</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="N551" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P551" t="n">
-        <v>9812</v>
+        <v>7255</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>1140</v>
+        <v>1240</v>
       </c>
       <c r="N552" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O552" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P552" t="n">
-        <v>11509</v>
+        <v>7548</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>575</v>
+        <v>377</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1640</v>
+        <v>480</v>
       </c>
       <c r="N553" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O553" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>12671</v>
+        <v>9812</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>634</v>
+        <v>491</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>630</v>
+        <v>1140</v>
       </c>
       <c r="N554" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O554" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P554" t="n">
-        <v>10556</v>
+        <v>11509</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>520</v>
+        <v>1640</v>
       </c>
       <c r="N555" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O555" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P555" t="n">
-        <v>11577</v>
+        <v>12671</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="N556" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O556" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P556" t="n">
-        <v>12738</v>
+        <v>10556</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>637</v>
+        <v>528</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1640</v>
+        <v>520</v>
       </c>
       <c r="N557" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O557" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P557" t="n">
-        <v>13634</v>
+        <v>11577</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>682</v>
+        <v>579</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N558" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O558" t="n">
         <v>13000</v>
       </c>
-      <c r="O558" t="n">
-        <v>14000</v>
-      </c>
       <c r="P558" t="n">
-        <v>13406</v>
+        <v>12738</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>640</v>
+        <v>1640</v>
       </c>
       <c r="N559" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O559" t="n">
         <v>14000</v>
       </c>
-      <c r="O559" t="n">
-        <v>15000</v>
-      </c>
       <c r="P559" t="n">
-        <v>14562</v>
+        <v>13634</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>728</v>
+        <v>682</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>850</v>
+        <v>640</v>
       </c>
       <c r="N560" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O560" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P560" t="n">
-        <v>16529</v>
+        <v>13406</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>826</v>
+        <v>670</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="N561" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O561" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P561" t="n">
-        <v>21500</v>
+        <v>14562</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1075</v>
+        <v>728</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>240</v>
+        <v>850</v>
       </c>
       <c r="N562" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O562" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P562" t="n">
-        <v>13000</v>
+        <v>16529</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>650</v>
+        <v>826</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1560</v>
+        <v>800</v>
       </c>
       <c r="N563" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O563" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P563" t="n">
-        <v>15923</v>
+        <v>21500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>796</v>
+        <v>1075</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="N564" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O564" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P564" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1180</v>
+        <v>1560</v>
       </c>
       <c r="N565" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O565" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P565" t="n">
-        <v>12619</v>
+        <v>15923</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>631</v>
+        <v>796</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="N566" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O566" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P566" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>50</v>
+        <v>1180</v>
       </c>
       <c r="N567" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O567" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P567" t="n">
-        <v>17000</v>
+        <v>12619</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>850</v>
+        <v>631</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="N568" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O568" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P568" t="n">
-        <v>13517</v>
+        <v>15000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>676</v>
+        <v>750</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="N569" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O569" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P569" t="n">
-        <v>14562</v>
+        <v>17000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>728</v>
+        <v>850</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="N570" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O570" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P570" t="n">
-        <v>19000</v>
+        <v>13517</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>950</v>
+        <v>676</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="N571" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O571" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P571" t="n">
-        <v>11548</v>
+        <v>14562</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>577</v>
+        <v>728</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>680</v>
+        <v>80</v>
       </c>
       <c r="N572" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O572" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P572" t="n">
-        <v>12412</v>
+        <v>19000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>621</v>
+        <v>950</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>1680</v>
+        <v>620</v>
       </c>
       <c r="N573" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O573" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P573" t="n">
-        <v>13631</v>
+        <v>11548</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>682</v>
+        <v>577</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N574" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P574" t="n">
-        <v>19182</v>
+        <v>12412</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>959</v>
+        <v>621</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,11 +46360,11 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>500</v>
+        <v>1680</v>
       </c>
       <c r="N575" t="n">
         <v>13000</v>
@@ -46373,7 +46373,7 @@
         <v>14000</v>
       </c>
       <c r="P575" t="n">
-        <v>13560</v>
+        <v>13631</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="N576" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O576" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P576" t="n">
-        <v>14562</v>
+        <v>19182</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>728</v>
+        <v>959</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N577" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O577" t="n">
         <v>14000</v>
       </c>
-      <c r="O577" t="n">
-        <v>15000</v>
-      </c>
       <c r="P577" t="n">
-        <v>14400</v>
+        <v>13560</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="N578" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O578" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P578" t="n">
-        <v>12550</v>
+        <v>14562</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>628</v>
+        <v>728</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>1420</v>
+        <v>250</v>
       </c>
       <c r="N579" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P579" t="n">
-        <v>13599</v>
+        <v>14400</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="N580" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O580" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P580" t="n">
-        <v>9412</v>
+        <v>12550</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>471</v>
+        <v>628</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>880</v>
+        <v>1420</v>
       </c>
       <c r="N581" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O581" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P581" t="n">
-        <v>11545</v>
+        <v>13599</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>577</v>
+        <v>680</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="N582" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O582" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P582" t="n">
-        <v>12455</v>
+        <v>9412</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>623</v>
+        <v>471</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="N583" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>8500</v>
+        <v>11545</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>425</v>
+        <v>577</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="N584" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O584" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P584" t="n">
-        <v>9750</v>
+        <v>12455</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>488</v>
+        <v>623</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>1520</v>
+        <v>800</v>
       </c>
       <c r="N585" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P585" t="n">
-        <v>14684</v>
+        <v>8500</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>734</v>
+        <v>425</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>680</v>
+        <v>1120</v>
       </c>
       <c r="N586" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O586" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="P586" t="n">
-        <v>16206</v>
+        <v>9750</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>810</v>
+        <v>488</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>1040</v>
+        <v>1520</v>
       </c>
       <c r="N587" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O587" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P587" t="n">
-        <v>16538</v>
+        <v>14684</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>827</v>
+        <v>734</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="N588" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="O588" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="P588" t="n">
-        <v>8824</v>
+        <v>16206</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>441</v>
+        <v>810</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>460</v>
+        <v>1040</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O589" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P589" t="n">
-        <v>9609</v>
+        <v>16538</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>480</v>
+        <v>827</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>780</v>
+        <v>340</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O590" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="P590" t="n">
-        <v>11256</v>
+        <v>8824</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>563</v>
+        <v>441</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>1370</v>
+        <v>460</v>
       </c>
       <c r="N591" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P591" t="n">
-        <v>11423</v>
+        <v>9609</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>571</v>
+        <v>480</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="N592" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O592" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P592" t="n">
-        <v>13000</v>
+        <v>11256</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>324</v>
+        <v>1370</v>
       </c>
       <c r="N593" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O593" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P593" t="n">
-        <v>21500</v>
+        <v>11423</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1075</v>
+        <v>571</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N594" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O594" t="n">
         <v>13000</v>
       </c>
       <c r="P594" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>1920</v>
+        <v>324</v>
       </c>
       <c r="N595" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O595" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P595" t="n">
-        <v>14875</v>
+        <v>21500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>744</v>
+        <v>1075</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="N596" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O596" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P596" t="n">
-        <v>18571</v>
+        <v>12500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>929</v>
+        <v>625</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>340</v>
+        <v>1920</v>
       </c>
       <c r="N597" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O597" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P597" t="n">
-        <v>8294</v>
+        <v>14875</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>415</v>
+        <v>744</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="N598" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O598" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P598" t="n">
-        <v>9591</v>
+        <v>18571</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>480</v>
+        <v>929</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>860</v>
+        <v>340</v>
       </c>
       <c r="N599" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O599" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P599" t="n">
-        <v>10558</v>
+        <v>8294</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>528</v>
+        <v>415</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>820</v>
+        <v>440</v>
       </c>
       <c r="N600" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O600" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P600" t="n">
-        <v>12512</v>
+        <v>9591</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>626</v>
+        <v>480</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>300</v>
+        <v>860</v>
       </c>
       <c r="N601" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P601" t="n">
-        <v>14000</v>
+        <v>10558</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>700</v>
+        <v>528</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>140</v>
+        <v>820</v>
       </c>
       <c r="N602" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O602" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P602" t="n">
-        <v>14571</v>
+        <v>12512</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>729</v>
+        <v>626</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O603" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P603" t="n">
-        <v>9556</v>
+        <v>14000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1530</v>
+        <v>140</v>
       </c>
       <c r="N604" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O604" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P604" t="n">
-        <v>11686</v>
+        <v>14571</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>584</v>
+        <v>729</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>1500</v>
+        <v>630</v>
       </c>
       <c r="N605" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O605" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P605" t="n">
-        <v>12613</v>
+        <v>9556</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>631</v>
+        <v>478</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>980</v>
+        <v>1530</v>
       </c>
       <c r="N606" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O606" t="n">
         <v>12000</v>
       </c>
-      <c r="O606" t="n">
-        <v>13000</v>
-      </c>
       <c r="P606" t="n">
-        <v>12510</v>
+        <v>11686</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,11 +48920,11 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="N607" t="n">
         <v>12000</v>
@@ -48933,7 +48933,7 @@
         <v>13000</v>
       </c>
       <c r="P607" t="n">
-        <v>12667</v>
+        <v>12613</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1240</v>
+        <v>980</v>
       </c>
       <c r="N608" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O608" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>14677</v>
+        <v>12510</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>734</v>
+        <v>626</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="N609" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P609" t="n">
-        <v>20500</v>
+        <v>12667</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1025</v>
+        <v>633</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>400</v>
+        <v>1240</v>
       </c>
       <c r="N610" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O610" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P610" t="n">
-        <v>6500</v>
+        <v>14677</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>325</v>
+        <v>734</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1120</v>
+        <v>324</v>
       </c>
       <c r="N611" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O611" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P611" t="n">
-        <v>8500</v>
+        <v>20500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N612" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O612" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P612" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N613" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P613" t="n">
-        <v>10533</v>
+        <v>8500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="N614" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O614" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P614" t="n">
-        <v>13259</v>
+        <v>10500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>663</v>
+        <v>525</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1280</v>
+        <v>600</v>
       </c>
       <c r="N615" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O615" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P615" t="n">
-        <v>16547</v>
+        <v>10533</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>827</v>
+        <v>527</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>760</v>
+        <v>1120</v>
       </c>
       <c r="N616" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O616" t="n">
         <v>14000</v>
       </c>
-      <c r="O616" t="n">
-        <v>15000</v>
-      </c>
       <c r="P616" t="n">
-        <v>14632</v>
+        <v>13259</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>732</v>
+        <v>663</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,11 +49720,11 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1720</v>
+        <v>1280</v>
       </c>
       <c r="N617" t="n">
         <v>16000</v>
@@ -49733,7 +49733,7 @@
         <v>17000</v>
       </c>
       <c r="P617" t="n">
-        <v>16442</v>
+        <v>16547</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="N618" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O618" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P618" t="n">
-        <v>17600</v>
+        <v>14632</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>880</v>
+        <v>732</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>400</v>
+        <v>1720</v>
       </c>
       <c r="N619" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O619" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P619" t="n">
-        <v>19700</v>
+        <v>16442</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>985</v>
+        <v>822</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N620" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O620" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P620" t="n">
-        <v>12000</v>
+        <v>17600</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>930</v>
+        <v>400</v>
       </c>
       <c r="N621" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O621" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P621" t="n">
-        <v>13516</v>
+        <v>19700</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>676</v>
+        <v>985</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="N622" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O622" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P622" t="n">
-        <v>14600</v>
+        <v>12000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>730</v>
+        <v>600</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>220</v>
+        <v>930</v>
       </c>
       <c r="N623" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O623" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P623" t="n">
-        <v>15000</v>
+        <v>13516</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>660</v>
+        <v>1300</v>
       </c>
       <c r="N624" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O624" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P624" t="n">
-        <v>9576</v>
+        <v>14600</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>479</v>
+        <v>730</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1040</v>
+        <v>220</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O625" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P625" t="n">
-        <v>10538</v>
+        <v>15000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>527</v>
+        <v>750</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1560</v>
+        <v>660</v>
       </c>
       <c r="N626" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P626" t="n">
-        <v>11577</v>
+        <v>9576</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>579</v>
+        <v>479</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>580</v>
+        <v>1040</v>
       </c>
       <c r="N627" t="n">
         <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P627" t="n">
-        <v>10259</v>
+        <v>10538</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>600</v>
+        <v>1560</v>
       </c>
       <c r="N628" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O628" t="n">
         <v>12000</v>
       </c>
-      <c r="O628" t="n">
-        <v>13000</v>
-      </c>
       <c r="P628" t="n">
-        <v>12333</v>
+        <v>11577</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>1620</v>
+        <v>580</v>
       </c>
       <c r="N629" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P629" t="n">
-        <v>14617</v>
+        <v>10259</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>731</v>
+        <v>513</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,25 +50755,25 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="N630" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P630" t="n">
-        <v>16000</v>
+        <v>12333</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>800</v>
+        <v>617</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>380</v>
+        <v>1620</v>
       </c>
       <c r="N631" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O631" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P631" t="n">
-        <v>8342</v>
+        <v>14617</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>417</v>
+        <v>731</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N632" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O632" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P632" t="n">
-        <v>9571</v>
+        <v>16000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>479</v>
+        <v>800</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>780</v>
+        <v>380</v>
       </c>
       <c r="N633" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O633" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P633" t="n">
-        <v>10744</v>
+        <v>8342</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1790</v>
+        <v>280</v>
       </c>
       <c r="N634" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P634" t="n">
-        <v>11620</v>
+        <v>9571</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1260</v>
+        <v>780</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O635" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P635" t="n">
-        <v>12460</v>
+        <v>10744</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>600</v>
+        <v>1790</v>
       </c>
       <c r="N636" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O636" t="n">
         <v>12000</v>
       </c>
-      <c r="O636" t="n">
-        <v>12500</v>
-      </c>
       <c r="P636" t="n">
-        <v>12167</v>
+        <v>11620</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1640</v>
+        <v>1260</v>
       </c>
       <c r="N637" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O637" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P637" t="n">
-        <v>14707</v>
+        <v>12460</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>735</v>
+        <v>623</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="N638" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O638" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P638" t="n">
-        <v>13500</v>
+        <v>12167</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>400</v>
+        <v>1640</v>
       </c>
       <c r="N639" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O639" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>7500</v>
+        <v>14707</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>375</v>
+        <v>735</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>1440</v>
+        <v>216</v>
       </c>
       <c r="N640" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O640" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P640" t="n">
-        <v>8722</v>
+        <v>13500</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>436</v>
+        <v>675</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="N641" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O641" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>220</v>
+        <v>1440</v>
       </c>
       <c r="N642" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O642" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="P642" t="n">
-        <v>19455</v>
+        <v>8722</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>973</v>
+        <v>436</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>680</v>
+        <v>1120</v>
       </c>
       <c r="N643" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O643" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="P643" t="n">
-        <v>5206</v>
+        <v>10500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>260</v>
+        <v>525</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="N644" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O644" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="P644" t="n">
-        <v>5328</v>
+        <v>19455</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>266</v>
+        <v>973</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1080</v>
+        <v>680</v>
       </c>
       <c r="N645" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P645" t="n">
-        <v>9778</v>
+        <v>5206</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>489</v>
+        <v>260</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="N646" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O646" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P646" t="n">
-        <v>10583</v>
+        <v>5328</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>529</v>
+        <v>266</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>120</v>
+        <v>1080</v>
       </c>
       <c r="N647" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="O647" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P647" t="n">
-        <v>17000</v>
+        <v>9778</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>850</v>
+        <v>489</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="N648" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O648" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P648" t="n">
-        <v>7412</v>
+        <v>10583</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="N649" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O649" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P649" t="n">
-        <v>11679</v>
+        <v>17000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>584</v>
+        <v>850</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N650" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O650" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P650" t="n">
-        <v>12583</v>
+        <v>7412</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>629</v>
+        <v>371</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="N651" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O651" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P651" t="n">
-        <v>13471</v>
+        <v>11679</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>324</v>
+        <v>960</v>
       </c>
       <c r="N652" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O652" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P652" t="n">
-        <v>21000</v>
+        <v>12583</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1050</v>
+        <v>629</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="N653" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O653" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P653" t="n">
-        <v>9500</v>
+        <v>13471</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>475</v>
+        <v>674</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>1600</v>
+        <v>324</v>
       </c>
       <c r="N654" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O654" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P654" t="n">
-        <v>10950</v>
+        <v>21000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>548</v>
+        <v>1050</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N655" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>21450</v>
+        <v>9500</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1072</v>
+        <v>475</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>420</v>
+        <v>1600</v>
       </c>
       <c r="N656" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O656" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P656" t="n">
-        <v>9571</v>
+        <v>10950</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O657" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P657" t="n">
-        <v>10393</v>
+        <v>21450</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>520</v>
+        <v>1072</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="N658" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>13548</v>
+        <v>9571</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>677</v>
+        <v>479</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>830</v>
+        <v>560</v>
       </c>
       <c r="N659" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O659" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>14458</v>
+        <v>10393</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="N660" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O660" t="n">
         <v>14000</v>
       </c>
-      <c r="O660" t="n">
-        <v>15000</v>
-      </c>
       <c r="P660" t="n">
-        <v>14455</v>
+        <v>13548</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>723</v>
+        <v>677</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>185</v>
+        <v>830</v>
       </c>
       <c r="N661" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O661" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P661" t="n">
-        <v>10541</v>
+        <v>14458</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>527</v>
+        <v>723</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53315,16 +53315,16 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="N662" t="n">
         <v>14000</v>
@@ -53333,7 +53333,7 @@
         <v>15000</v>
       </c>
       <c r="P662" t="n">
-        <v>14533</v>
+        <v>14455</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53400,35 +53400,195 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M663" t="n">
+        <v>185</v>
+      </c>
+      <c r="N663" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O663" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P663" t="n">
+        <v>10541</v>
+      </c>
+      <c r="Q663" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R663" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S663" t="n">
+        <v>527</v>
+      </c>
+      <c r="T663" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>9</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E664" t="n">
+        <v>13</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G664" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M664" t="n">
+        <v>600</v>
+      </c>
+      <c r="N664" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O664" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P664" t="n">
+        <v>14533</v>
+      </c>
+      <c r="Q664" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R664" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S664" t="n">
+        <v>727</v>
+      </c>
+      <c r="T664" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>9</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E665" t="n">
+        <v>13</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M663" t="n">
+      <c r="M665" t="n">
         <v>680</v>
       </c>
-      <c r="N663" t="n">
+      <c r="N665" t="n">
         <v>16000</v>
       </c>
-      <c r="O663" t="n">
+      <c r="O665" t="n">
         <v>17000</v>
       </c>
-      <c r="P663" t="n">
+      <c r="P665" t="n">
         <v>16588</v>
       </c>
-      <c r="Q663" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R663" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S663" t="n">
+      <c r="Q665" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R665" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S665" t="n">
         <v>829</v>
       </c>
-      <c r="T663" t="n">
+      <c r="T665" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T665"/>
+  <dimension ref="A1:T669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="N611" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O611" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P611" t="n">
-        <v>20500</v>
+        <v>18455</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1025</v>
+        <v>923</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N612" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O612" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P612" t="n">
-        <v>6500</v>
+        <v>10562</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>1120</v>
+        <v>1180</v>
       </c>
       <c r="N613" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O613" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P613" t="n">
-        <v>8500</v>
+        <v>12492</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>1040</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O614" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P614" t="n">
-        <v>10500</v>
+        <v>13538</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="N615" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O615" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P615" t="n">
-        <v>10533</v>
+        <v>20500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>527</v>
+        <v>1025</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="N616" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P616" t="n">
-        <v>13259</v>
+        <v>6500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>663</v>
+        <v>325</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="N617" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O617" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P617" t="n">
-        <v>16547</v>
+        <v>8500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="N618" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O618" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P618" t="n">
-        <v>14632</v>
+        <v>10500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>732</v>
+        <v>525</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1720</v>
+        <v>600</v>
       </c>
       <c r="N619" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P619" t="n">
-        <v>16442</v>
+        <v>10533</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>822</v>
+        <v>527</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="N620" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="O620" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P620" t="n">
-        <v>17600</v>
+        <v>13259</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>880</v>
+        <v>663</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>400</v>
+        <v>1280</v>
       </c>
       <c r="N621" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O621" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P621" t="n">
-        <v>19700</v>
+        <v>16547</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>985</v>
+        <v>827</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="N622" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O622" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P622" t="n">
-        <v>12000</v>
+        <v>14632</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>600</v>
+        <v>732</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>930</v>
+        <v>1720</v>
       </c>
       <c r="N623" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O623" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P623" t="n">
-        <v>13516</v>
+        <v>16442</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>676</v>
+        <v>822</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N624" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O624" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P624" t="n">
-        <v>14600</v>
+        <v>17600</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>730</v>
+        <v>880</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N625" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O625" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P625" t="n">
-        <v>15000</v>
+        <v>19700</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="N626" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O626" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P626" t="n">
-        <v>9576</v>
+        <v>12000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>479</v>
+        <v>600</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="N627" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O627" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>10538</v>
+        <v>13516</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>527</v>
+        <v>676</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="N628" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O628" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P628" t="n">
-        <v>11577</v>
+        <v>14600</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>579</v>
+        <v>730</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="N629" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O629" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P629" t="n">
-        <v>10259</v>
+        <v>15000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>513</v>
+        <v>750</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="N630" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O630" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P630" t="n">
-        <v>12333</v>
+        <v>9576</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1620</v>
+        <v>1040</v>
       </c>
       <c r="N631" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O631" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P631" t="n">
-        <v>14617</v>
+        <v>10538</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>731</v>
+        <v>527</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>60</v>
+        <v>1560</v>
       </c>
       <c r="N632" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O632" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P632" t="n">
-        <v>16000</v>
+        <v>11577</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O633" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="P633" t="n">
-        <v>8342</v>
+        <v>10259</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N634" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O634" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P634" t="n">
-        <v>9571</v>
+        <v>12333</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>479</v>
+        <v>617</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>780</v>
+        <v>1620</v>
       </c>
       <c r="N635" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O635" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P635" t="n">
-        <v>10744</v>
+        <v>14617</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1790</v>
+        <v>60</v>
       </c>
       <c r="N636" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O636" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P636" t="n">
-        <v>11620</v>
+        <v>16000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1260</v>
+        <v>380</v>
       </c>
       <c r="N637" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O637" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P637" t="n">
-        <v>12460</v>
+        <v>8342</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>623</v>
+        <v>417</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N638" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O638" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P638" t="n">
-        <v>12167</v>
+        <v>9571</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1640</v>
+        <v>780</v>
       </c>
       <c r="N639" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O639" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P639" t="n">
-        <v>14707</v>
+        <v>10744</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>735</v>
+        <v>537</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>216</v>
+        <v>1790</v>
       </c>
       <c r="N640" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O640" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P640" t="n">
-        <v>13500</v>
+        <v>11620</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>675</v>
+        <v>581</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>400</v>
+        <v>1260</v>
       </c>
       <c r="N641" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>7500</v>
+        <v>12460</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>375</v>
+        <v>623</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="N642" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O642" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P642" t="n">
-        <v>8722</v>
+        <v>12167</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>436</v>
+        <v>608</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>1120</v>
+        <v>1640</v>
       </c>
       <c r="N643" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P643" t="n">
-        <v>10500</v>
+        <v>14707</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>525</v>
+        <v>735</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N644" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O644" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P644" t="n">
-        <v>19455</v>
+        <v>13500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>973</v>
+        <v>675</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="N645" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O645" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P645" t="n">
-        <v>5206</v>
+        <v>7500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>580</v>
+        <v>1440</v>
       </c>
       <c r="N646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O646" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="P646" t="n">
-        <v>5328</v>
+        <v>8722</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="N647" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O647" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P647" t="n">
-        <v>9778</v>
+        <v>10500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N648" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O648" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P648" t="n">
-        <v>10583</v>
+        <v>19455</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>529</v>
+        <v>973</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>120</v>
+        <v>680</v>
       </c>
       <c r="N649" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O649" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P649" t="n">
-        <v>17000</v>
+        <v>5206</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N650" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O650" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P650" t="n">
-        <v>7412</v>
+        <v>5328</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="N651" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O651" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P651" t="n">
-        <v>11679</v>
+        <v>9778</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52527,13 +52527,13 @@
         <v>960</v>
       </c>
       <c r="N652" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O652" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P652" t="n">
-        <v>12583</v>
+        <v>10583</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="N653" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O653" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P653" t="n">
-        <v>13471</v>
+        <v>17000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>674</v>
+        <v>850</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>324</v>
+        <v>680</v>
       </c>
       <c r="N654" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O654" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P654" t="n">
-        <v>21000</v>
+        <v>7412</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>1050</v>
+        <v>371</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="N655" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P655" t="n">
-        <v>9500</v>
+        <v>11679</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>1600</v>
+        <v>960</v>
       </c>
       <c r="N656" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P656" t="n">
-        <v>10950</v>
+        <v>12583</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>548</v>
+        <v>629</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N657" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O657" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P657" t="n">
-        <v>21450</v>
+        <v>13471</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1072</v>
+        <v>674</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="N658" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P658" t="n">
-        <v>9571</v>
+        <v>21000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>479</v>
+        <v>1050</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="N659" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O659" t="n">
         <v>10000</v>
       </c>
-      <c r="O659" t="n">
-        <v>11000</v>
-      </c>
       <c r="P659" t="n">
-        <v>10393</v>
+        <v>9500</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>620</v>
+        <v>1600</v>
       </c>
       <c r="N660" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O660" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>13548</v>
+        <v>10950</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>677</v>
+        <v>548</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="N661" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O661" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P661" t="n">
-        <v>14458</v>
+        <v>21450</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>723</v>
+        <v>1072</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N662" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O662" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P662" t="n">
-        <v>14455</v>
+        <v>9571</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53404,7 +53404,7 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="N663" t="n">
         <v>10000</v>
@@ -53413,7 +53413,7 @@
         <v>11000</v>
       </c>
       <c r="P663" t="n">
-        <v>10541</v>
+        <v>10393</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="N664" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O664" t="n">
         <v>14000</v>
       </c>
-      <c r="O664" t="n">
-        <v>15000</v>
-      </c>
       <c r="P664" t="n">
-        <v>14533</v>
+        <v>13548</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,68 +53527,388 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E665" t="n">
+        <v>13</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M665" t="n">
+        <v>830</v>
+      </c>
+      <c r="N665" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O665" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P665" t="n">
+        <v>14458</v>
+      </c>
+      <c r="Q665" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R665" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S665" t="n">
+        <v>723</v>
+      </c>
+      <c r="T665" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>9</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D666" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E665" t="n">
-        <v>13</v>
-      </c>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G665" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I665" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J665" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L665" t="inlineStr">
+      <c r="E666" t="n">
+        <v>13</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G666" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>Barraganete</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M666" t="n">
+        <v>220</v>
+      </c>
+      <c r="N666" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O666" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P666" t="n">
+        <v>14455</v>
+      </c>
+      <c r="Q666" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R666" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S666" t="n">
+        <v>723</v>
+      </c>
+      <c r="T666" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>9</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D667" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E667" t="n">
+        <v>13</v>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G667" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M667" t="n">
+        <v>185</v>
+      </c>
+      <c r="N667" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O667" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P667" t="n">
+        <v>10541</v>
+      </c>
+      <c r="Q667" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R667" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S667" t="n">
+        <v>527</v>
+      </c>
+      <c r="T667" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>9</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E668" t="n">
+        <v>13</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G668" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M668" t="n">
+        <v>600</v>
+      </c>
+      <c r="N668" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O668" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P668" t="n">
+        <v>14533</v>
+      </c>
+      <c r="Q668" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R668" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S668" t="n">
+        <v>727</v>
+      </c>
+      <c r="T668" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>9</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E669" t="n">
+        <v>13</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G669" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M665" t="n">
+      <c r="M669" t="n">
         <v>680</v>
       </c>
-      <c r="N665" t="n">
+      <c r="N669" t="n">
         <v>16000</v>
       </c>
-      <c r="O665" t="n">
+      <c r="O669" t="n">
         <v>17000</v>
       </c>
-      <c r="P665" t="n">
+      <c r="P669" t="n">
         <v>16588</v>
       </c>
-      <c r="Q665" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R665" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S665" t="n">
+      <c r="Q669" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R669" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S669" t="n">
         <v>829</v>
       </c>
-      <c r="T665" t="n">
+      <c r="T669" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T673"/>
+  <dimension ref="A1:T676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O522" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P522" t="n">
-        <v>12571</v>
+        <v>22538</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>629</v>
+        <v>1127</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="N523" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O523" t="n">
         <v>13000</v>
       </c>
-      <c r="O523" t="n">
-        <v>14000</v>
-      </c>
       <c r="P523" t="n">
-        <v>13440</v>
+        <v>12559</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>672</v>
+        <v>628</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>1860</v>
+        <v>1120</v>
       </c>
       <c r="N524" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O524" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P524" t="n">
-        <v>16527</v>
+        <v>13420</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>826</v>
+        <v>671</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>1680</v>
+        <v>280</v>
       </c>
       <c r="N525" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P525" t="n">
-        <v>9500</v>
+        <v>12571</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O526" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P526" t="n">
-        <v>10500</v>
+        <v>13440</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>525</v>
+        <v>672</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>480</v>
+        <v>1860</v>
       </c>
       <c r="N527" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O527" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P527" t="n">
-        <v>7708</v>
+        <v>16527</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>385</v>
+        <v>826</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42604,17 +42604,17 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>460</v>
+        <v>1680</v>
       </c>
       <c r="N528" t="n">
         <v>9000</v>
       </c>
       <c r="O528" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P528" t="n">
         <v>9500</v>
       </c>
-      <c r="P528" t="n">
-        <v>9196</v>
-      </c>
       <c r="Q528" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>590</v>
+        <v>1200</v>
       </c>
       <c r="N529" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O529" t="n">
         <v>11000</v>
       </c>
-      <c r="O529" t="n">
-        <v>12000</v>
-      </c>
       <c r="P529" t="n">
-        <v>11576</v>
+        <v>10500</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="N530" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O530" t="n">
         <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>8000</v>
+        <v>7708</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>1160</v>
+        <v>460</v>
       </c>
       <c r="N531" t="n">
         <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P531" t="n">
-        <v>9586</v>
+        <v>9196</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>800</v>
+        <v>590</v>
       </c>
       <c r="N532" t="n">
         <v>11000</v>
       </c>
       <c r="O532" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="P532" t="n">
-        <v>11250</v>
+        <v>11576</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>2200</v>
+        <v>340</v>
       </c>
       <c r="N533" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P533" t="n">
-        <v>11582</v>
+        <v>8000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>579</v>
+        <v>400</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>40</v>
+        <v>1160</v>
       </c>
       <c r="N534" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O534" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>15000</v>
+        <v>9586</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>750</v>
+        <v>479</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N535" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="P535" t="n">
-        <v>8545</v>
+        <v>11250</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>520</v>
+        <v>2200</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>9538</v>
+        <v>11582</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>477</v>
+        <v>579</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>680</v>
+        <v>40</v>
       </c>
       <c r="N537" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O537" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P537" t="n">
-        <v>10588</v>
+        <v>15000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>529</v>
+        <v>750</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>216</v>
+        <v>550</v>
       </c>
       <c r="N538" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O538" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P538" t="n">
-        <v>14500</v>
+        <v>8545</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>725</v>
+        <v>427</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>960</v>
+        <v>520</v>
       </c>
       <c r="N539" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O539" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>16500</v>
+        <v>9538</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>825</v>
+        <v>477</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>2320</v>
+        <v>680</v>
       </c>
       <c r="N540" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O540" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P540" t="n">
-        <v>17500</v>
+        <v>10588</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>875</v>
+        <v>529</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,16 +43635,16 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1120</v>
+        <v>216</v>
       </c>
       <c r="N541" t="n">
         <v>14000</v>
@@ -43653,7 +43653,7 @@
         <v>15000</v>
       </c>
       <c r="P541" t="n">
-        <v>14589</v>
+        <v>14500</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43720,11 +43720,11 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>2000</v>
+        <v>960</v>
       </c>
       <c r="N542" t="n">
         <v>16000</v>
@@ -43733,7 +43733,7 @@
         <v>17000</v>
       </c>
       <c r="P542" t="n">
-        <v>16520</v>
+        <v>16500</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>320</v>
+        <v>2320</v>
       </c>
       <c r="N543" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O543" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P543" t="n">
-        <v>19438</v>
+        <v>17500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>972</v>
+        <v>875</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="N544" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O544" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P544" t="n">
-        <v>7444</v>
+        <v>14589</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>372</v>
+        <v>729</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="N545" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O545" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P545" t="n">
-        <v>10514</v>
+        <v>16520</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>526</v>
+        <v>826</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="N546" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O546" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P546" t="n">
-        <v>11583</v>
+        <v>19438</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>579</v>
+        <v>972</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="N547" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O547" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P547" t="n">
-        <v>13550</v>
+        <v>7444</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>678</v>
+        <v>372</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>440</v>
+        <v>1400</v>
       </c>
       <c r="N548" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P548" t="n">
-        <v>9591</v>
+        <v>10514</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,11 +44280,11 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="N549" t="n">
         <v>11000</v>
@@ -44293,7 +44293,7 @@
         <v>12000</v>
       </c>
       <c r="P549" t="n">
-        <v>11538</v>
+        <v>11583</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1040</v>
+        <v>400</v>
       </c>
       <c r="N550" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O550" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P550" t="n">
-        <v>12538</v>
+        <v>13550</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="N551" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O551" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>12533</v>
+        <v>9591</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>627</v>
+        <v>480</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>580</v>
+        <v>1040</v>
       </c>
       <c r="N552" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O552" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P552" t="n">
-        <v>13655</v>
+        <v>11538</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>683</v>
+        <v>577</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>660</v>
+        <v>1040</v>
       </c>
       <c r="N553" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O553" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P553" t="n">
-        <v>16576</v>
+        <v>12538</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>829</v>
+        <v>627</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N554" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O554" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P554" t="n">
-        <v>5233</v>
+        <v>12533</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>262</v>
+        <v>627</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>980</v>
+        <v>580</v>
       </c>
       <c r="N555" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O555" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P555" t="n">
-        <v>7255</v>
+        <v>13655</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>363</v>
+        <v>683</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>1240</v>
+        <v>660</v>
       </c>
       <c r="N556" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O556" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P556" t="n">
-        <v>7548</v>
+        <v>16576</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>377</v>
+        <v>829</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>480</v>
+        <v>750</v>
       </c>
       <c r="N557" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P557" t="n">
-        <v>9812</v>
+        <v>5233</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>491</v>
+        <v>262</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1140</v>
+        <v>980</v>
       </c>
       <c r="N558" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P558" t="n">
-        <v>11509</v>
+        <v>7255</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>575</v>
+        <v>363</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1640</v>
+        <v>1240</v>
       </c>
       <c r="N559" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O559" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>12671</v>
+        <v>7548</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>634</v>
+        <v>377</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="N560" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O560" t="n">
         <v>10000</v>
       </c>
-      <c r="O560" t="n">
-        <v>11000</v>
-      </c>
       <c r="P560" t="n">
-        <v>10556</v>
+        <v>9812</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,11 +45240,11 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>520</v>
+        <v>1140</v>
       </c>
       <c r="N561" t="n">
         <v>11000</v>
@@ -45253,7 +45253,7 @@
         <v>12000</v>
       </c>
       <c r="P561" t="n">
-        <v>11577</v>
+        <v>11509</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>800</v>
+        <v>1640</v>
       </c>
       <c r="N562" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O562" t="n">
         <v>13000</v>
       </c>
       <c r="P562" t="n">
-        <v>12738</v>
+        <v>12671</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>1640</v>
+        <v>630</v>
       </c>
       <c r="N563" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O563" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P563" t="n">
-        <v>13634</v>
+        <v>10556</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>682</v>
+        <v>528</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="N564" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O564" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P564" t="n">
-        <v>13406</v>
+        <v>11577</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>670</v>
+        <v>579</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N565" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O565" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P565" t="n">
-        <v>14562</v>
+        <v>12738</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>728</v>
+        <v>637</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>850</v>
+        <v>1640</v>
       </c>
       <c r="N566" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O566" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P566" t="n">
-        <v>16529</v>
+        <v>13634</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>826</v>
+        <v>682</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="N567" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O567" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P567" t="n">
-        <v>21500</v>
+        <v>13406</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>1075</v>
+        <v>670</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="N568" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O568" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P568" t="n">
-        <v>13000</v>
+        <v>14562</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>1560</v>
+        <v>850</v>
       </c>
       <c r="N569" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O569" t="n">
         <v>17000</v>
       </c>
       <c r="P569" t="n">
-        <v>15923</v>
+        <v>16529</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>796</v>
+        <v>826</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>45</v>
+        <v>800</v>
       </c>
       <c r="N570" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O570" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P570" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>950</v>
+        <v>1075</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46040,20 +46040,20 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1180</v>
+        <v>240</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O571" t="n">
         <v>13000</v>
       </c>
       <c r="P571" t="n">
-        <v>12619</v>
+        <v>13000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>180</v>
+        <v>1560</v>
       </c>
       <c r="N572" t="n">
         <v>15000</v>
       </c>
       <c r="O572" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P572" t="n">
-        <v>15000</v>
+        <v>15923</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>750</v>
+        <v>796</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N573" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O573" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P573" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>580</v>
+        <v>1180</v>
       </c>
       <c r="N574" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O574" t="n">
         <v>13000</v>
       </c>
-      <c r="O574" t="n">
-        <v>14000</v>
-      </c>
       <c r="P574" t="n">
-        <v>13517</v>
+        <v>12619</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>640</v>
+        <v>180</v>
       </c>
       <c r="N575" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O575" t="n">
         <v>15000</v>
       </c>
       <c r="P575" t="n">
-        <v>14562</v>
+        <v>15000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N576" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O576" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P576" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="N577" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O577" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P577" t="n">
-        <v>11548</v>
+        <v>13517</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>577</v>
+        <v>676</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="N578" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O578" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P578" t="n">
-        <v>12412</v>
+        <v>14562</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>621</v>
+        <v>728</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N579" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P579" t="n">
-        <v>13631</v>
+        <v>19000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N580" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O580" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P580" t="n">
-        <v>19182</v>
+        <v>11548</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>959</v>
+        <v>577</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="N581" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O581" t="n">
         <v>13000</v>
       </c>
-      <c r="O581" t="n">
-        <v>14000</v>
-      </c>
       <c r="P581" t="n">
-        <v>13560</v>
+        <v>12412</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>678</v>
+        <v>621</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>640</v>
+        <v>1680</v>
       </c>
       <c r="N582" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O582" t="n">
         <v>14000</v>
       </c>
-      <c r="O582" t="n">
-        <v>15000</v>
-      </c>
       <c r="P582" t="n">
-        <v>14562</v>
+        <v>13631</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>728</v>
+        <v>682</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="N583" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O583" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P583" t="n">
-        <v>14400</v>
+        <v>19182</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>720</v>
+        <v>959</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N584" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O584" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P584" t="n">
-        <v>12550</v>
+        <v>13560</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>1420</v>
+        <v>640</v>
       </c>
       <c r="N585" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O585" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P585" t="n">
-        <v>13599</v>
+        <v>14562</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="N586" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P586" t="n">
-        <v>9412</v>
+        <v>14400</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>471</v>
+        <v>720</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O587" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P587" t="n">
-        <v>11545</v>
+        <v>12550</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>880</v>
+        <v>1420</v>
       </c>
       <c r="N588" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P588" t="n">
-        <v>12455</v>
+        <v>13599</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="N589" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P589" t="n">
-        <v>8500</v>
+        <v>9412</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="N590" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O590" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P590" t="n">
-        <v>9750</v>
+        <v>11545</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N591" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O591" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>14684</v>
+        <v>12455</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>734</v>
+        <v>623</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="N592" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O592" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="P592" t="n">
-        <v>16206</v>
+        <v>8500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>810</v>
+        <v>425</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1040</v>
+        <v>1120</v>
       </c>
       <c r="N593" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O593" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P593" t="n">
-        <v>16538</v>
+        <v>9750</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>827</v>
+        <v>488</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>340</v>
+        <v>1520</v>
       </c>
       <c r="N594" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O594" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P594" t="n">
-        <v>8824</v>
+        <v>14684</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>441</v>
+        <v>734</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>460</v>
+        <v>680</v>
       </c>
       <c r="N595" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="P595" t="n">
-        <v>9609</v>
+        <v>16206</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>480</v>
+        <v>810</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>780</v>
+        <v>1040</v>
       </c>
       <c r="N596" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O596" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="P596" t="n">
-        <v>11256</v>
+        <v>16538</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>563</v>
+        <v>827</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>1370</v>
+        <v>340</v>
       </c>
       <c r="N597" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P597" t="n">
-        <v>11423</v>
+        <v>8824</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>571</v>
+        <v>441</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="N598" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O598" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P598" t="n">
-        <v>13000</v>
+        <v>9609</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>324</v>
+        <v>780</v>
       </c>
       <c r="N599" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O599" t="n">
-        <v>22000</v>
+        <v>11500</v>
       </c>
       <c r="P599" t="n">
-        <v>21500</v>
+        <v>11256</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1075</v>
+        <v>563</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>800</v>
+        <v>1370</v>
       </c>
       <c r="N600" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O600" t="n">
         <v>12000</v>
       </c>
-      <c r="O600" t="n">
-        <v>13000</v>
-      </c>
       <c r="P600" t="n">
-        <v>12500</v>
+        <v>11423</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>1920</v>
+        <v>180</v>
       </c>
       <c r="N601" t="n">
         <v>13000</v>
       </c>
       <c r="O601" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P601" t="n">
-        <v>14875</v>
+        <v>13000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>744</v>
+        <v>650</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="N602" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O602" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P602" t="n">
-        <v>18571</v>
+        <v>21500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>929</v>
+        <v>1075</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="N603" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O603" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P603" t="n">
-        <v>8294</v>
+        <v>12500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>415</v>
+        <v>625</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>440</v>
+        <v>1920</v>
       </c>
       <c r="N604" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P604" t="n">
-        <v>9591</v>
+        <v>14875</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>480</v>
+        <v>744</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>860</v>
+        <v>140</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O605" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P605" t="n">
-        <v>10558</v>
+        <v>18571</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>528</v>
+        <v>929</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>820</v>
+        <v>340</v>
       </c>
       <c r="N606" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O606" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P606" t="n">
-        <v>12512</v>
+        <v>8294</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>626</v>
+        <v>415</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N607" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O607" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>14000</v>
+        <v>9591</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>140</v>
+        <v>860</v>
       </c>
       <c r="N608" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O608" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P608" t="n">
-        <v>14571</v>
+        <v>10558</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>729</v>
+        <v>528</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>630</v>
+        <v>820</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P609" t="n">
-        <v>9556</v>
+        <v>12512</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1530</v>
+        <v>300</v>
       </c>
       <c r="N610" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O610" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P610" t="n">
-        <v>11686</v>
+        <v>14000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>584</v>
+        <v>700</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="N611" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O611" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P611" t="n">
-        <v>12613</v>
+        <v>14571</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>980</v>
+        <v>630</v>
       </c>
       <c r="N612" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>12510</v>
+        <v>9556</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>626</v>
+        <v>478</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>600</v>
+        <v>1530</v>
       </c>
       <c r="N613" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O613" t="n">
         <v>12000</v>
       </c>
-      <c r="O613" t="n">
-        <v>13000</v>
-      </c>
       <c r="P613" t="n">
-        <v>12667</v>
+        <v>11686</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1240</v>
+        <v>1500</v>
       </c>
       <c r="N614" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O614" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P614" t="n">
-        <v>14677</v>
+        <v>12613</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>734</v>
+        <v>631</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="N615" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O615" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P615" t="n">
-        <v>18455</v>
+        <v>12510</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>923</v>
+        <v>626</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O616" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P616" t="n">
-        <v>10562</v>
+        <v>12667</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>528</v>
+        <v>633</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1180</v>
+        <v>1240</v>
       </c>
       <c r="N617" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O617" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P617" t="n">
-        <v>12492</v>
+        <v>14677</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>625</v>
+        <v>734</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>1040</v>
+        <v>220</v>
       </c>
       <c r="N618" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O618" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P618" t="n">
-        <v>13538</v>
+        <v>18455</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>677</v>
+        <v>923</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N619" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P619" t="n">
-        <v>20500</v>
+        <v>10562</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1025</v>
+        <v>528</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>400</v>
+        <v>1180</v>
       </c>
       <c r="N620" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O620" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P620" t="n">
-        <v>6500</v>
+        <v>12492</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>325</v>
+        <v>625</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="N621" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O621" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P621" t="n">
-        <v>8500</v>
+        <v>13538</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>425</v>
+        <v>677</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>800</v>
+        <v>324</v>
       </c>
       <c r="N622" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O622" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P622" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>525</v>
+        <v>1025</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N623" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O623" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P623" t="n">
-        <v>10533</v>
+        <v>6500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>527</v>
+        <v>325</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50287,13 +50287,13 @@
         <v>1120</v>
       </c>
       <c r="N624" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P624" t="n">
-        <v>13259</v>
+        <v>8500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>663</v>
+        <v>425</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="N625" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O625" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P625" t="n">
-        <v>16547</v>
+        <v>10500</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>827</v>
+        <v>525</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>760</v>
+        <v>600</v>
       </c>
       <c r="N626" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O626" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P626" t="n">
-        <v>14632</v>
+        <v>10533</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>732</v>
+        <v>527</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1720</v>
+        <v>1120</v>
       </c>
       <c r="N627" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O627" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>16442</v>
+        <v>13259</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>822</v>
+        <v>663</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="N628" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O628" t="n">
         <v>17000</v>
       </c>
-      <c r="O628" t="n">
-        <v>18000</v>
-      </c>
       <c r="P628" t="n">
-        <v>17600</v>
+        <v>16547</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>880</v>
+        <v>827</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="N629" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O629" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P629" t="n">
-        <v>19700</v>
+        <v>14632</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>985</v>
+        <v>732</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>1720</v>
       </c>
       <c r="N630" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O630" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P630" t="n">
-        <v>12000</v>
+        <v>16442</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>600</v>
+        <v>822</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="N631" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O631" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P631" t="n">
-        <v>13516</v>
+        <v>17600</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>676</v>
+        <v>880</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="N632" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O632" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P632" t="n">
-        <v>14600</v>
+        <v>19700</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>730</v>
+        <v>985</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N633" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O633" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P633" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>660</v>
+        <v>930</v>
       </c>
       <c r="N634" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O634" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P634" t="n">
-        <v>9576</v>
+        <v>13516</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>479</v>
+        <v>676</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1040</v>
+        <v>1300</v>
       </c>
       <c r="N635" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O635" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P635" t="n">
-        <v>10538</v>
+        <v>14600</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>527</v>
+        <v>730</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1560</v>
+        <v>220</v>
       </c>
       <c r="N636" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O636" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P636" t="n">
-        <v>11577</v>
+        <v>15000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>579</v>
+        <v>750</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="N637" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O637" t="n">
         <v>10000</v>
       </c>
-      <c r="O637" t="n">
-        <v>10500</v>
-      </c>
       <c r="P637" t="n">
-        <v>10259</v>
+        <v>9576</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>600</v>
+        <v>1040</v>
       </c>
       <c r="N638" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O638" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P638" t="n">
-        <v>12333</v>
+        <v>10538</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1620</v>
+        <v>1560</v>
       </c>
       <c r="N639" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O639" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P639" t="n">
-        <v>14617</v>
+        <v>11577</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>731</v>
+        <v>579</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="N640" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P640" t="n">
-        <v>16000</v>
+        <v>10259</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>800</v>
+        <v>513</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>8342</v>
+        <v>12333</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>417</v>
+        <v>617</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>280</v>
+        <v>1620</v>
       </c>
       <c r="N642" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O642" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P642" t="n">
-        <v>9571</v>
+        <v>14617</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>479</v>
+        <v>731</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="N643" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P643" t="n">
-        <v>10744</v>
+        <v>16000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>537</v>
+        <v>800</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1790</v>
+        <v>380</v>
       </c>
       <c r="N644" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O644" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P644" t="n">
-        <v>11620</v>
+        <v>8342</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1260</v>
+        <v>280</v>
       </c>
       <c r="N645" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O645" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P645" t="n">
-        <v>12460</v>
+        <v>9571</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>623</v>
+        <v>479</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="N646" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O646" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P646" t="n">
-        <v>12167</v>
+        <v>10744</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1640</v>
+        <v>1790</v>
       </c>
       <c r="N647" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O647" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P647" t="n">
-        <v>14707</v>
+        <v>11620</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>735</v>
+        <v>581</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>216</v>
+        <v>1260</v>
       </c>
       <c r="N648" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O648" t="n">
         <v>13000</v>
       </c>
-      <c r="O648" t="n">
-        <v>14000</v>
-      </c>
       <c r="P648" t="n">
-        <v>13500</v>
+        <v>12460</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>675</v>
+        <v>623</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N649" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O649" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P649" t="n">
-        <v>7500</v>
+        <v>12167</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>375</v>
+        <v>608</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="N650" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O650" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>8722</v>
+        <v>14707</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>436</v>
+        <v>735</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>1120</v>
+        <v>216</v>
       </c>
       <c r="N651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O651" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P651" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N652" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O652" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P652" t="n">
-        <v>19455</v>
+        <v>7500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>973</v>
+        <v>375</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>680</v>
+        <v>1440</v>
       </c>
       <c r="N653" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O653" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="P653" t="n">
-        <v>5206</v>
+        <v>8722</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>260</v>
+        <v>436</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>580</v>
+        <v>1120</v>
       </c>
       <c r="N654" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="P654" t="n">
-        <v>5328</v>
+        <v>10500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>266</v>
+        <v>525</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>1080</v>
+        <v>220</v>
       </c>
       <c r="N655" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P655" t="n">
-        <v>9778</v>
+        <v>19455</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>489</v>
+        <v>973</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N656" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O656" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P656" t="n">
-        <v>10583</v>
+        <v>5206</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="N657" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O657" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P657" t="n">
-        <v>17000</v>
+        <v>5328</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>850</v>
+        <v>266</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>680</v>
+        <v>1080</v>
       </c>
       <c r="N658" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O658" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>7412</v>
+        <v>9778</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>560</v>
+        <v>960</v>
       </c>
       <c r="N659" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O659" t="n">
         <v>11000</v>
       </c>
-      <c r="O659" t="n">
-        <v>12000</v>
-      </c>
       <c r="P659" t="n">
-        <v>11679</v>
+        <v>10583</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>960</v>
+        <v>120</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O660" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P660" t="n">
-        <v>12583</v>
+        <v>17000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>629</v>
+        <v>850</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="N661" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O661" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P661" t="n">
-        <v>13471</v>
+        <v>7412</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>674</v>
+        <v>371</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>324</v>
+        <v>560</v>
       </c>
       <c r="N662" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O662" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P662" t="n">
-        <v>21000</v>
+        <v>11679</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1050</v>
+        <v>584</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="N663" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P663" t="n">
-        <v>9500</v>
+        <v>12583</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
       <c r="N664" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P664" t="n">
-        <v>10950</v>
+        <v>13471</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>548</v>
+        <v>674</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="N665" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O665" t="n">
         <v>22000</v>
       </c>
       <c r="P665" t="n">
-        <v>21450</v>
+        <v>21000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,11 +53640,11 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="N666" t="n">
         <v>9000</v>
@@ -53653,7 +53653,7 @@
         <v>10000</v>
       </c>
       <c r="P666" t="n">
-        <v>9571</v>
+        <v>9500</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>560</v>
+        <v>1600</v>
       </c>
       <c r="N667" t="n">
         <v>10000</v>
       </c>
       <c r="O667" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P667" t="n">
-        <v>10393</v>
+        <v>10950</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N668" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O668" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P668" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N669" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O669" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P669" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="N670" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O670" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P670" t="n">
-        <v>14455</v>
+        <v>10393</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>185</v>
+        <v>620</v>
       </c>
       <c r="N671" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O671" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P671" t="n">
-        <v>10541</v>
+        <v>13548</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>527</v>
+        <v>677</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,11 +54120,11 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="N672" t="n">
         <v>14000</v>
@@ -54133,7 +54133,7 @@
         <v>15000</v>
       </c>
       <c r="P672" t="n">
-        <v>14533</v>
+        <v>14458</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54195,40 +54195,280 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M673" t="n">
+        <v>220</v>
+      </c>
+      <c r="N673" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O673" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P673" t="n">
+        <v>14455</v>
+      </c>
+      <c r="Q673" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R673" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S673" t="n">
+        <v>723</v>
+      </c>
+      <c r="T673" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>9</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D674" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E674" t="n">
+        <v>13</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G674" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M674" t="n">
+        <v>185</v>
+      </c>
+      <c r="N674" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O674" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P674" t="n">
+        <v>10541</v>
+      </c>
+      <c r="Q674" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R674" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S674" t="n">
+        <v>527</v>
+      </c>
+      <c r="T674" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>9</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D675" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E675" t="n">
+        <v>13</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G675" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M675" t="n">
+        <v>600</v>
+      </c>
+      <c r="N675" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O675" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P675" t="n">
+        <v>14533</v>
+      </c>
+      <c r="Q675" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R675" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S675" t="n">
+        <v>727</v>
+      </c>
+      <c r="T675" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>9</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D676" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E676" t="n">
+        <v>13</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G676" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M673" t="n">
+      <c r="M676" t="n">
         <v>680</v>
       </c>
-      <c r="N673" t="n">
+      <c r="N676" t="n">
         <v>16000</v>
       </c>
-      <c r="O673" t="n">
+      <c r="O676" t="n">
         <v>17000</v>
       </c>
-      <c r="P673" t="n">
+      <c r="P676" t="n">
         <v>16588</v>
       </c>
-      <c r="Q673" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R673" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S673" t="n">
+      <c r="Q676" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S676" t="n">
         <v>829</v>
       </c>
-      <c r="T673" t="n">
+      <c r="T676" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T676"/>
+  <dimension ref="A1:T680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N467" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O467" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>20857</v>
+        <v>11636</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1043</v>
+        <v>582</v>
       </c>
       <c r="T467" t="n">
         <v>20</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="N468" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P468" t="n">
-        <v>9737</v>
+        <v>14562</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>487</v>
+        <v>728</v>
       </c>
       <c r="T468" t="n">
         <v>20</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>640</v>
+        <v>840</v>
       </c>
       <c r="N469" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O469" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P469" t="n">
-        <v>10406</v>
+        <v>15524</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>520</v>
+        <v>776</v>
       </c>
       <c r="T469" t="n">
         <v>20</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N470" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O470" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P470" t="n">
-        <v>10526</v>
+        <v>16000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>526</v>
+        <v>800</v>
       </c>
       <c r="T470" t="n">
         <v>20</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O471" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P471" t="n">
-        <v>12548</v>
+        <v>20857</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>627</v>
+        <v>1043</v>
       </c>
       <c r="T471" t="n">
         <v>20</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="N472" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O472" t="n">
         <v>10000</v>
       </c>
-      <c r="O472" t="n">
-        <v>11000</v>
-      </c>
       <c r="P472" t="n">
-        <v>10562</v>
+        <v>9737</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="T472" t="n">
         <v>20</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="N473" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O473" t="n">
         <v>11000</v>
       </c>
-      <c r="O473" t="n">
-        <v>12000</v>
-      </c>
       <c r="P473" t="n">
-        <v>11526</v>
+        <v>10406</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="T473" t="n">
         <v>20</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,20 +38280,20 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="N474" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P474" t="n">
-        <v>13177</v>
+        <v>10526</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>659</v>
+        <v>526</v>
       </c>
       <c r="T474" t="n">
         <v>20</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>1030</v>
+        <v>620</v>
       </c>
       <c r="N475" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>14456</v>
+        <v>12548</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>723</v>
+        <v>627</v>
       </c>
       <c r="T475" t="n">
         <v>20</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>440</v>
+        <v>640</v>
       </c>
       <c r="N476" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P476" t="n">
-        <v>8295</v>
+        <v>10562</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>415</v>
+        <v>528</v>
       </c>
       <c r="T476" t="n">
         <v>20</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O477" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P477" t="n">
-        <v>9278</v>
+        <v>11526</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>464</v>
+        <v>576</v>
       </c>
       <c r="T477" t="n">
         <v>20</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="N478" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O478" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="P478" t="n">
-        <v>11306</v>
+        <v>13177</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="T478" t="n">
         <v>20</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>1180</v>
+        <v>1030</v>
       </c>
       <c r="N479" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O479" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P479" t="n">
-        <v>12153</v>
+        <v>14456</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>608</v>
+        <v>723</v>
       </c>
       <c r="T479" t="n">
         <v>20</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>25</v>
+        <v>440</v>
       </c>
       <c r="N480" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O480" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="P480" t="n">
-        <v>16000</v>
+        <v>8295</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>800</v>
+        <v>415</v>
       </c>
       <c r="T480" t="n">
         <v>20</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>820</v>
+        <v>900</v>
       </c>
       <c r="N481" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P481" t="n">
-        <v>14512</v>
+        <v>9278</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>726</v>
+        <v>464</v>
       </c>
       <c r="T481" t="n">
         <v>20</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1800</v>
+        <v>720</v>
       </c>
       <c r="N482" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O482" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="P482" t="n">
-        <v>16328</v>
+        <v>11306</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>816</v>
+        <v>565</v>
       </c>
       <c r="T482" t="n">
         <v>20</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>480</v>
+        <v>1180</v>
       </c>
       <c r="N483" t="n">
         <v>11000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P483" t="n">
-        <v>11583</v>
+        <v>12153</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="T483" t="n">
         <v>20</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>550</v>
+        <v>25</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O484" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P484" t="n">
-        <v>13273</v>
+        <v>16000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>664</v>
+        <v>800</v>
       </c>
       <c r="T484" t="n">
         <v>20</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>1860</v>
+        <v>820</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O485" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P485" t="n">
-        <v>13672</v>
+        <v>14512</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="T485" t="n">
         <v>20</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>750</v>
+        <v>1800</v>
       </c>
       <c r="N486" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O486" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P486" t="n">
-        <v>20467</v>
+        <v>16328</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1023</v>
+        <v>816</v>
       </c>
       <c r="T486" t="n">
         <v>20</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>1070</v>
+        <v>480</v>
       </c>
       <c r="N487" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O487" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>22486</v>
+        <v>11583</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1124</v>
+        <v>579</v>
       </c>
       <c r="T487" t="n">
         <v>20</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="N488" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="P488" t="n">
-        <v>20000</v>
+        <v>13273</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1000</v>
+        <v>664</v>
       </c>
       <c r="T488" t="n">
         <v>20</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>400</v>
+        <v>1860</v>
       </c>
       <c r="N489" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P489" t="n">
-        <v>11550</v>
+        <v>13672</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="T489" t="n">
         <v>20</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="N490" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O490" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P490" t="n">
-        <v>13632</v>
+        <v>20467</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>682</v>
+        <v>1023</v>
       </c>
       <c r="T490" t="n">
         <v>20</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>480</v>
+        <v>1070</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O491" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P491" t="n">
-        <v>10583</v>
+        <v>22486</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>529</v>
+        <v>1124</v>
       </c>
       <c r="T491" t="n">
         <v>20</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="N492" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O492" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P492" t="n">
-        <v>13483</v>
+        <v>20000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>674</v>
+        <v>1000</v>
       </c>
       <c r="T492" t="n">
         <v>20</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>760</v>
+        <v>400</v>
       </c>
       <c r="N493" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O493" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>14526</v>
+        <v>11550</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>726</v>
+        <v>578</v>
       </c>
       <c r="T493" t="n">
         <v>20</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P494" t="n">
-        <v>9464</v>
+        <v>13632</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>473</v>
+        <v>682</v>
       </c>
       <c r="T494" t="n">
         <v>20</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="N495" t="n">
         <v>10000</v>
       </c>
       <c r="O495" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>10227</v>
+        <v>10583</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="T495" t="n">
         <v>20</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O496" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P496" t="n">
-        <v>12588</v>
+        <v>13483</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="T496" t="n">
         <v>20</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>1640</v>
+        <v>760</v>
       </c>
       <c r="N497" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O497" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P497" t="n">
-        <v>13622</v>
+        <v>14526</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="T497" t="n">
         <v>20</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -40200,11 +40200,11 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="N498" t="n">
         <v>9000</v>
@@ -40213,7 +40213,7 @@
         <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>9364</v>
+        <v>9464</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="T498" t="n">
         <v>20</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>1080</v>
+        <v>440</v>
       </c>
       <c r="N499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P499" t="n">
-        <v>12546</v>
+        <v>10227</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>627</v>
+        <v>511</v>
       </c>
       <c r="T499" t="n">
         <v>20</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="N500" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>14000</v>
+        <v>12588</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>700</v>
+        <v>629</v>
       </c>
       <c r="T500" t="n">
         <v>20</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>40</v>
+        <v>1640</v>
       </c>
       <c r="N501" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P501" t="n">
-        <v>16000</v>
+        <v>13622</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>800</v>
+        <v>681</v>
       </c>
       <c r="T501" t="n">
         <v>20</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40520,20 +40520,20 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="N502" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
         <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>9706</v>
+        <v>9364</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="T502" t="n">
         <v>20</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>10462</v>
+        <v>12546</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>523</v>
+        <v>627</v>
       </c>
       <c r="T503" t="n">
         <v>20</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>1760</v>
+        <v>200</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O504" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="N505" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O505" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P505" t="n">
-        <v>19571</v>
+        <v>16000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>979</v>
+        <v>800</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>830</v>
+        <v>680</v>
       </c>
       <c r="N506" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O506" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>8542</v>
+        <v>9706</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>400</v>
+        <v>1040</v>
       </c>
       <c r="N507" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O507" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P507" t="n">
-        <v>8725</v>
+        <v>10462</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>620</v>
+        <v>1760</v>
       </c>
       <c r="N508" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P508" t="n">
-        <v>9823</v>
+        <v>12500</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>491</v>
+        <v>625</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O509" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P509" t="n">
-        <v>10429</v>
+        <v>19571</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>521</v>
+        <v>979</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>200</v>
+        <v>830</v>
       </c>
       <c r="N510" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O510" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P510" t="n">
-        <v>19600</v>
+        <v>8542</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>980</v>
+        <v>427</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O511" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>10517</v>
+        <v>8725</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="N512" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O512" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>11517</v>
+        <v>9823</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,20 +41400,20 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="N513" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P513" t="n">
-        <v>13487</v>
+        <v>10429</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>674</v>
+        <v>521</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="N514" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O514" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P514" t="n">
-        <v>14583</v>
+        <v>19600</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>729</v>
+        <v>980</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="N515" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O515" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P515" t="n">
-        <v>17600</v>
+        <v>10517</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>880</v>
+        <v>526</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="N516" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O516" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P516" t="n">
-        <v>10375</v>
+        <v>11517</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>1360</v>
+        <v>780</v>
       </c>
       <c r="N517" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O517" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P517" t="n">
-        <v>12676</v>
+        <v>13487</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="N518" t="n">
         <v>14000</v>
       </c>
       <c r="O518" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P518" t="n">
-        <v>14000</v>
+        <v>14583</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,38 +41875,38 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
+        <v>200</v>
+      </c>
+      <c r="N519" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O519" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P519" t="n">
+        <v>17600</v>
+      </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S519" t="n">
         <v>880</v>
-      </c>
-      <c r="N519" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O519" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P519" t="n">
-        <v>11545</v>
-      </c>
-      <c r="Q519" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R519" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S519" t="n">
-        <v>577</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O520" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P520" t="n">
-        <v>13645</v>
+        <v>10375</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>682</v>
+        <v>519</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>1040</v>
+        <v>1360</v>
       </c>
       <c r="N521" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O521" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P521" t="n">
-        <v>14538</v>
+        <v>12676</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>727</v>
+        <v>634</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>650</v>
+        <v>120</v>
       </c>
       <c r="N522" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O522" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P522" t="n">
-        <v>22538</v>
+        <v>14000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1127</v>
+        <v>700</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="N523" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O523" t="n">
         <v>12000</v>
       </c>
-      <c r="O523" t="n">
-        <v>13000</v>
-      </c>
       <c r="P523" t="n">
-        <v>12559</v>
+        <v>11545</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,11 +42280,11 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>1120</v>
+        <v>620</v>
       </c>
       <c r="N524" t="n">
         <v>13000</v>
@@ -42293,7 +42293,7 @@
         <v>14000</v>
       </c>
       <c r="P524" t="n">
-        <v>13420</v>
+        <v>13645</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>280</v>
+        <v>1040</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O525" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P525" t="n">
-        <v>12571</v>
+        <v>14538</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>629</v>
+        <v>727</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,25 +42435,25 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N526" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O526" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P526" t="n">
-        <v>13440</v>
+        <v>22538</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>672</v>
+        <v>1127</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42520,20 +42520,20 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>1860</v>
+        <v>680</v>
       </c>
       <c r="N527" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O527" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P527" t="n">
-        <v>16527</v>
+        <v>12559</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>826</v>
+        <v>628</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42600,20 +42600,20 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>1680</v>
+        <v>1120</v>
       </c>
       <c r="N528" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P528" t="n">
-        <v>9500</v>
+        <v>13420</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>475</v>
+        <v>671</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>1200</v>
+        <v>280</v>
       </c>
       <c r="N529" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P529" t="n">
-        <v>10500</v>
+        <v>12571</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>525</v>
+        <v>629</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,20 +42760,20 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N530" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O530" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>7708</v>
+        <v>13440</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>385</v>
+        <v>672</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>460</v>
+        <v>1860</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O531" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="P531" t="n">
-        <v>9196</v>
+        <v>16527</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>460</v>
+        <v>826</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>590</v>
+        <v>1680</v>
       </c>
       <c r="N532" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O532" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>11576</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="N533" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O533" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P533" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1160</v>
+        <v>480</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O534" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P534" t="n">
-        <v>9586</v>
+        <v>7708</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>800</v>
+        <v>460</v>
       </c>
       <c r="N535" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="P535" t="n">
-        <v>11250</v>
+        <v>9196</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>562</v>
+        <v>460</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43244,7 +43244,7 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>2200</v>
+        <v>590</v>
       </c>
       <c r="N536" t="n">
         <v>11000</v>
@@ -43253,7 +43253,7 @@
         <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>11582</v>
+        <v>11576</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="N537" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O537" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P537" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>550</v>
+        <v>1160</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>8545</v>
+        <v>9586</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="N539" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="P539" t="n">
-        <v>9538</v>
+        <v>11250</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>680</v>
+        <v>2200</v>
       </c>
       <c r="N540" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O540" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>10588</v>
+        <v>11582</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="N541" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O541" t="n">
         <v>15000</v>
       </c>
       <c r="P541" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="N542" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O542" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P542" t="n">
-        <v>16500</v>
+        <v>8545</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>825</v>
+        <v>427</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43800,20 +43800,20 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>2320</v>
+        <v>520</v>
       </c>
       <c r="N543" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>17500</v>
+        <v>9538</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>875</v>
+        <v>477</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N544" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P544" t="n">
-        <v>14589</v>
+        <v>10588</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>729</v>
+        <v>529</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,25 +43955,25 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>2000</v>
+        <v>216</v>
       </c>
       <c r="N545" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O545" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P545" t="n">
-        <v>16520</v>
+        <v>14500</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>826</v>
+        <v>725</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="N546" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O546" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P546" t="n">
-        <v>19438</v>
+        <v>16500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>972</v>
+        <v>825</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>1080</v>
+        <v>2320</v>
       </c>
       <c r="N547" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O547" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P547" t="n">
-        <v>7444</v>
+        <v>17500</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>372</v>
+        <v>875</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="N548" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O548" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P548" t="n">
-        <v>10514</v>
+        <v>14589</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>526</v>
+        <v>729</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>960</v>
+        <v>2000</v>
       </c>
       <c r="N549" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O549" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P549" t="n">
-        <v>11583</v>
+        <v>16520</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N550" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O550" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P550" t="n">
-        <v>13550</v>
+        <v>19438</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>678</v>
+        <v>972</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>440</v>
+        <v>1080</v>
       </c>
       <c r="N551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O551" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P551" t="n">
-        <v>9591</v>
+        <v>7444</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>480</v>
+        <v>372</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>1040</v>
+        <v>1400</v>
       </c>
       <c r="N552" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O552" t="n">
         <v>11000</v>
       </c>
-      <c r="O552" t="n">
-        <v>12000</v>
-      </c>
       <c r="P552" t="n">
-        <v>11538</v>
+        <v>10514</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="N553" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O553" t="n">
         <v>12000</v>
       </c>
-      <c r="O553" t="n">
-        <v>13000</v>
-      </c>
       <c r="P553" t="n">
-        <v>12538</v>
+        <v>11583</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>627</v>
+        <v>579</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N554" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O554" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P554" t="n">
-        <v>12533</v>
+        <v>13550</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="N555" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O555" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>13655</v>
+        <v>9591</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>683</v>
+        <v>480</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>660</v>
+        <v>1040</v>
       </c>
       <c r="N556" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O556" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P556" t="n">
-        <v>16576</v>
+        <v>11538</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>829</v>
+        <v>577</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>750</v>
+        <v>1040</v>
       </c>
       <c r="N557" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O557" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P557" t="n">
-        <v>5233</v>
+        <v>12538</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>262</v>
+        <v>627</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="N558" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P558" t="n">
-        <v>7255</v>
+        <v>12533</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>363</v>
+        <v>627</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1240</v>
+        <v>580</v>
       </c>
       <c r="N559" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O559" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P559" t="n">
-        <v>7548</v>
+        <v>13655</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>377</v>
+        <v>683</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="N560" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O560" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P560" t="n">
-        <v>9812</v>
+        <v>16576</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>491</v>
+        <v>829</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>1140</v>
+        <v>750</v>
       </c>
       <c r="N561" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O561" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P561" t="n">
-        <v>11509</v>
+        <v>5233</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>575</v>
+        <v>262</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1640</v>
+        <v>980</v>
       </c>
       <c r="N562" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O562" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P562" t="n">
-        <v>12671</v>
+        <v>7255</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>634</v>
+        <v>363</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>630</v>
+        <v>1240</v>
       </c>
       <c r="N563" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O563" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>10556</v>
+        <v>7548</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>528</v>
+        <v>377</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="N564" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P564" t="n">
-        <v>11577</v>
+        <v>9812</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>579</v>
+        <v>491</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,16 +45564,16 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>800</v>
+        <v>1140</v>
       </c>
       <c r="N565" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O565" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P565" t="n">
-        <v>12738</v>
+        <v>11509</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45647,13 +45647,13 @@
         <v>1640</v>
       </c>
       <c r="N566" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O566" t="n">
         <v>13000</v>
       </c>
-      <c r="O566" t="n">
-        <v>14000</v>
-      </c>
       <c r="P566" t="n">
-        <v>13634</v>
+        <v>12671</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="N567" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P567" t="n">
-        <v>13406</v>
+        <v>10556</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>670</v>
+        <v>528</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="N568" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O568" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P568" t="n">
-        <v>14562</v>
+        <v>11577</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>728</v>
+        <v>579</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N569" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O569" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P569" t="n">
-        <v>16529</v>
+        <v>12738</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>826</v>
+        <v>637</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>800</v>
+        <v>1640</v>
       </c>
       <c r="N570" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O570" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P570" t="n">
-        <v>21500</v>
+        <v>13634</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1075</v>
+        <v>682</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="N571" t="n">
         <v>13000</v>
       </c>
       <c r="O571" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P571" t="n">
-        <v>13000</v>
+        <v>13406</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>1560</v>
+        <v>640</v>
       </c>
       <c r="N572" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O572" t="n">
         <v>15000</v>
       </c>
-      <c r="O572" t="n">
-        <v>17000</v>
-      </c>
       <c r="P572" t="n">
-        <v>15923</v>
+        <v>14562</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,25 +46195,25 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>45</v>
+        <v>850</v>
       </c>
       <c r="N573" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O573" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P573" t="n">
-        <v>19000</v>
+        <v>16529</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>950</v>
+        <v>826</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,25 +46275,25 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>1180</v>
+        <v>800</v>
       </c>
       <c r="N574" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O574" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P574" t="n">
-        <v>12619</v>
+        <v>21500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>631</v>
+        <v>1075</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N575" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O575" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P575" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>50</v>
+        <v>1560</v>
       </c>
       <c r="N576" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O576" t="n">
         <v>17000</v>
       </c>
       <c r="P576" t="n">
-        <v>17000</v>
+        <v>15923</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>850</v>
+        <v>796</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="N577" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O577" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P577" t="n">
-        <v>13517</v>
+        <v>19000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>676</v>
+        <v>950</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="N578" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O578" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P578" t="n">
-        <v>14562</v>
+        <v>12619</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>728</v>
+        <v>631</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N579" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O579" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P579" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>620</v>
+        <v>50</v>
       </c>
       <c r="N580" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P580" t="n">
-        <v>11548</v>
+        <v>17000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>577</v>
+        <v>850</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46844,16 +46844,16 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N581" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O581" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P581" t="n">
-        <v>12412</v>
+        <v>13517</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>1680</v>
+        <v>640</v>
       </c>
       <c r="N582" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O582" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P582" t="n">
-        <v>13631</v>
+        <v>14562</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="N583" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O583" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P583" t="n">
-        <v>19182</v>
+        <v>19000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="N584" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P584" t="n">
-        <v>13560</v>
+        <v>11548</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>678</v>
+        <v>577</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N585" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O585" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P585" t="n">
-        <v>14562</v>
+        <v>12412</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>728</v>
+        <v>621</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>250</v>
+        <v>1680</v>
       </c>
       <c r="N586" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O586" t="n">
         <v>14000</v>
       </c>
-      <c r="O586" t="n">
-        <v>15000</v>
-      </c>
       <c r="P586" t="n">
-        <v>14400</v>
+        <v>13631</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P587" t="n">
-        <v>12550</v>
+        <v>19182</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>628</v>
+        <v>959</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47400,11 +47400,11 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>1420</v>
+        <v>500</v>
       </c>
       <c r="N588" t="n">
         <v>13000</v>
@@ -47413,7 +47413,7 @@
         <v>14000</v>
       </c>
       <c r="P588" t="n">
-        <v>13599</v>
+        <v>13560</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O589" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P589" t="n">
-        <v>9412</v>
+        <v>14562</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>471</v>
+        <v>728</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="N590" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O590" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>11545</v>
+        <v>14400</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,11 +47640,11 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N591" t="n">
         <v>12000</v>
@@ -47653,7 +47653,7 @@
         <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>12455</v>
+        <v>12550</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>800</v>
+        <v>1420</v>
       </c>
       <c r="N592" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O592" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P592" t="n">
-        <v>8500</v>
+        <v>13599</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>425</v>
+        <v>680</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N593" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O593" t="n">
         <v>10000</v>
       </c>
       <c r="P593" t="n">
-        <v>9750</v>
+        <v>9412</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N594" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O594" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>14684</v>
+        <v>11545</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>734</v>
+        <v>577</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="N595" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O595" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P595" t="n">
-        <v>16206</v>
+        <v>12455</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>810</v>
+        <v>623</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="N596" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O596" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P596" t="n">
-        <v>16538</v>
+        <v>8500</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>340</v>
+        <v>1120</v>
       </c>
       <c r="N597" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="O597" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P597" t="n">
-        <v>8824</v>
+        <v>9750</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>460</v>
+        <v>1520</v>
       </c>
       <c r="N598" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O598" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P598" t="n">
-        <v>9609</v>
+        <v>14684</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>480</v>
+        <v>734</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="N599" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O599" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="P599" t="n">
-        <v>11256</v>
+        <v>16206</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>563</v>
+        <v>810</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1370</v>
+        <v>1040</v>
       </c>
       <c r="N600" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O600" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P600" t="n">
-        <v>11423</v>
+        <v>16538</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>571</v>
+        <v>827</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="N601" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O601" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P601" t="n">
-        <v>13000</v>
+        <v>8824</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>650</v>
+        <v>441</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="N602" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O602" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P602" t="n">
-        <v>21500</v>
+        <v>9609</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1075</v>
+        <v>480</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="N603" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O603" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P603" t="n">
-        <v>12500</v>
+        <v>11256</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>1920</v>
+        <v>1370</v>
       </c>
       <c r="N604" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O604" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P604" t="n">
-        <v>14875</v>
+        <v>11423</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>744</v>
+        <v>571</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N605" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O605" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P605" t="n">
-        <v>18571</v>
+        <v>13000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>929</v>
+        <v>650</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="N606" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O606" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="P606" t="n">
-        <v>8294</v>
+        <v>21500</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>415</v>
+        <v>1075</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="N607" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O607" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P607" t="n">
-        <v>9591</v>
+        <v>12500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>480</v>
+        <v>625</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>860</v>
+        <v>1920</v>
       </c>
       <c r="N608" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O608" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P608" t="n">
-        <v>10558</v>
+        <v>14875</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>528</v>
+        <v>744</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>820</v>
+        <v>140</v>
       </c>
       <c r="N609" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O609" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P609" t="n">
-        <v>12512</v>
+        <v>18571</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>626</v>
+        <v>929</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N610" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P610" t="n">
-        <v>14000</v>
+        <v>8294</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>700</v>
+        <v>415</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="N611" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O611" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P611" t="n">
-        <v>14571</v>
+        <v>9591</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>729</v>
+        <v>480</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="N612" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O612" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P612" t="n">
-        <v>9556</v>
+        <v>10558</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>1530</v>
+        <v>820</v>
       </c>
       <c r="N613" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O613" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P613" t="n">
-        <v>11686</v>
+        <v>12512</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N614" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O614" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P614" t="n">
-        <v>12613</v>
+        <v>14000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="N615" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O615" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P615" t="n">
-        <v>12510</v>
+        <v>14571</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>626</v>
+        <v>729</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="N616" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O616" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>12667</v>
+        <v>9556</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>633</v>
+        <v>478</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1240</v>
+        <v>1530</v>
       </c>
       <c r="N617" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O617" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P617" t="n">
-        <v>14677</v>
+        <v>11686</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>734</v>
+        <v>584</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>220</v>
+        <v>1500</v>
       </c>
       <c r="N618" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O618" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P618" t="n">
-        <v>18455</v>
+        <v>12613</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>923</v>
+        <v>631</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="N619" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O619" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P619" t="n">
-        <v>10562</v>
+        <v>12510</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,7 +49964,7 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1180</v>
+        <v>600</v>
       </c>
       <c r="N620" t="n">
         <v>12000</v>
@@ -49973,7 +49973,7 @@
         <v>13000</v>
       </c>
       <c r="P620" t="n">
-        <v>12492</v>
+        <v>12667</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1040</v>
+        <v>1240</v>
       </c>
       <c r="N621" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O621" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P621" t="n">
-        <v>13538</v>
+        <v>14677</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="N622" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O622" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P622" t="n">
-        <v>20500</v>
+        <v>18455</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>1025</v>
+        <v>923</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N623" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O623" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P623" t="n">
-        <v>6500</v>
+        <v>10562</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>1120</v>
+        <v>1180</v>
       </c>
       <c r="N624" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O624" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P624" t="n">
-        <v>8500</v>
+        <v>12492</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>800</v>
+        <v>1040</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O625" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P625" t="n">
-        <v>10500</v>
+        <v>13538</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="N626" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O626" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P626" t="n">
-        <v>10533</v>
+        <v>20500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>527</v>
+        <v>1025</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="N627" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P627" t="n">
-        <v>13259</v>
+        <v>6500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>663</v>
+        <v>325</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="N628" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O628" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P628" t="n">
-        <v>16547</v>
+        <v>8500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="N629" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P629" t="n">
-        <v>14632</v>
+        <v>10500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>732</v>
+        <v>525</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1720</v>
+        <v>600</v>
       </c>
       <c r="N630" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O630" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P630" t="n">
-        <v>16442</v>
+        <v>10533</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>822</v>
+        <v>527</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="N631" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="O631" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>17600</v>
+        <v>13259</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>880</v>
+        <v>663</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>400</v>
+        <v>1280</v>
       </c>
       <c r="N632" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O632" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P632" t="n">
-        <v>19700</v>
+        <v>16547</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>985</v>
+        <v>827</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="N633" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O633" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P633" t="n">
-        <v>12000</v>
+        <v>14632</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>600</v>
+        <v>732</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>930</v>
+        <v>1720</v>
       </c>
       <c r="N634" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P634" t="n">
-        <v>13516</v>
+        <v>16442</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>676</v>
+        <v>822</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N635" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O635" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P635" t="n">
-        <v>14600</v>
+        <v>17600</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>730</v>
+        <v>880</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N636" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O636" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P636" t="n">
-        <v>15000</v>
+        <v>19700</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="N637" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O637" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P637" t="n">
-        <v>9576</v>
+        <v>12000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>479</v>
+        <v>600</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="N638" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O638" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P638" t="n">
-        <v>10538</v>
+        <v>13516</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>527</v>
+        <v>676</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="N639" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O639" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>11577</v>
+        <v>14600</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>579</v>
+        <v>730</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="N640" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O640" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P640" t="n">
-        <v>10259</v>
+        <v>15000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>513</v>
+        <v>750</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="N641" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P641" t="n">
-        <v>12333</v>
+        <v>9576</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1620</v>
+        <v>1040</v>
       </c>
       <c r="N642" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O642" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P642" t="n">
-        <v>14617</v>
+        <v>10538</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>731</v>
+        <v>527</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>60</v>
+        <v>1560</v>
       </c>
       <c r="N643" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O643" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>16000</v>
+        <v>11577</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N644" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="P644" t="n">
-        <v>8342</v>
+        <v>10259</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P645" t="n">
-        <v>9571</v>
+        <v>12333</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>479</v>
+        <v>617</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>780</v>
+        <v>1620</v>
       </c>
       <c r="N646" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O646" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P646" t="n">
-        <v>10744</v>
+        <v>14617</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1790</v>
+        <v>60</v>
       </c>
       <c r="N647" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O647" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P647" t="n">
-        <v>11620</v>
+        <v>16000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>1260</v>
+        <v>380</v>
       </c>
       <c r="N648" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O648" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P648" t="n">
-        <v>12460</v>
+        <v>8342</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>623</v>
+        <v>417</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N649" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O649" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P649" t="n">
-        <v>12167</v>
+        <v>9571</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>1640</v>
+        <v>780</v>
       </c>
       <c r="N650" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O650" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P650" t="n">
-        <v>14707</v>
+        <v>10744</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>735</v>
+        <v>537</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,25 +52435,25 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>216</v>
+        <v>1790</v>
       </c>
       <c r="N651" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O651" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P651" t="n">
-        <v>13500</v>
+        <v>11620</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>675</v>
+        <v>581</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>400</v>
+        <v>1260</v>
       </c>
       <c r="N652" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O652" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P652" t="n">
-        <v>7500</v>
+        <v>12460</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>375</v>
+        <v>623</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="N653" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O653" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P653" t="n">
-        <v>8722</v>
+        <v>12167</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>436</v>
+        <v>608</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>1120</v>
+        <v>1640</v>
       </c>
       <c r="N654" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O654" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P654" t="n">
-        <v>10500</v>
+        <v>14707</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>525</v>
+        <v>735</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N655" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O655" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P655" t="n">
-        <v>19455</v>
+        <v>13500</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>973</v>
+        <v>675</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="N656" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O656" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P656" t="n">
-        <v>5206</v>
+        <v>7500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>580</v>
+        <v>1440</v>
       </c>
       <c r="N657" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O657" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="P657" t="n">
-        <v>5328</v>
+        <v>8722</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="N658" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P658" t="n">
-        <v>9778</v>
+        <v>10500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53075,25 +53075,25 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N659" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O659" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P659" t="n">
-        <v>10583</v>
+        <v>19455</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>529</v>
+        <v>973</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>120</v>
+        <v>680</v>
       </c>
       <c r="N660" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O660" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P660" t="n">
-        <v>17000</v>
+        <v>5206</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N661" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O661" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P661" t="n">
-        <v>7412</v>
+        <v>5328</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="N662" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O662" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P662" t="n">
-        <v>11679</v>
+        <v>9778</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53407,13 +53407,13 @@
         <v>960</v>
       </c>
       <c r="N663" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O663" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P663" t="n">
-        <v>12583</v>
+        <v>10583</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="N664" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O664" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P664" t="n">
-        <v>13471</v>
+        <v>17000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>674</v>
+        <v>850</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>324</v>
+        <v>680</v>
       </c>
       <c r="N665" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O665" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>21000</v>
+        <v>7412</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1050</v>
+        <v>371</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="N666" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O666" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P666" t="n">
-        <v>9500</v>
+        <v>11679</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>1600</v>
+        <v>960</v>
       </c>
       <c r="N667" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O667" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P667" t="n">
-        <v>10950</v>
+        <v>12583</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>548</v>
+        <v>629</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N668" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O668" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P668" t="n">
-        <v>21450</v>
+        <v>13471</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1072</v>
+        <v>674</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="N669" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O669" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P669" t="n">
-        <v>9571</v>
+        <v>21000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>479</v>
+        <v>1050</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="N670" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O670" t="n">
         <v>10000</v>
       </c>
-      <c r="O670" t="n">
-        <v>11000</v>
-      </c>
       <c r="P670" t="n">
-        <v>10393</v>
+        <v>9500</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>620</v>
+        <v>1600</v>
       </c>
       <c r="N671" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O671" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P671" t="n">
-        <v>13548</v>
+        <v>10950</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>677</v>
+        <v>548</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="N672" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O672" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P672" t="n">
-        <v>14458</v>
+        <v>21450</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>723</v>
+        <v>1072</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N673" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O673" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P673" t="n">
-        <v>14455</v>
+        <v>9571</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54284,7 +54284,7 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="N674" t="n">
         <v>10000</v>
@@ -54293,7 +54293,7 @@
         <v>11000</v>
       </c>
       <c r="P674" t="n">
-        <v>10541</v>
+        <v>10393</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="N675" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O675" t="n">
         <v>14000</v>
       </c>
-      <c r="O675" t="n">
-        <v>15000</v>
-      </c>
       <c r="P675" t="n">
-        <v>14533</v>
+        <v>13548</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,68 +54407,388 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E676" t="n">
+        <v>13</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G676" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M676" t="n">
+        <v>830</v>
+      </c>
+      <c r="N676" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O676" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P676" t="n">
+        <v>14458</v>
+      </c>
+      <c r="Q676" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S676" t="n">
+        <v>723</v>
+      </c>
+      <c r="T676" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>9</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D677" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E676" t="n">
-        <v>13</v>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G676" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I676" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J676" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L676" t="inlineStr">
+      <c r="E677" t="n">
+        <v>13</v>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G677" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I677" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>Barraganete</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M677" t="n">
+        <v>220</v>
+      </c>
+      <c r="N677" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O677" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P677" t="n">
+        <v>14455</v>
+      </c>
+      <c r="Q677" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R677" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S677" t="n">
+        <v>723</v>
+      </c>
+      <c r="T677" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>9</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E678" t="n">
+        <v>13</v>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G678" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M678" t="n">
+        <v>185</v>
+      </c>
+      <c r="N678" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O678" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P678" t="n">
+        <v>10541</v>
+      </c>
+      <c r="Q678" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S678" t="n">
+        <v>527</v>
+      </c>
+      <c r="T678" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>9</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E679" t="n">
+        <v>13</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>600</v>
+      </c>
+      <c r="N679" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>14533</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>727</v>
+      </c>
+      <c r="T679" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>9</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M676" t="n">
+      <c r="M680" t="n">
         <v>680</v>
       </c>
-      <c r="N676" t="n">
+      <c r="N680" t="n">
         <v>16000</v>
       </c>
-      <c r="O676" t="n">
+      <c r="O680" t="n">
         <v>17000</v>
       </c>
-      <c r="P676" t="n">
+      <c r="P680" t="n">
         <v>16588</v>
       </c>
-      <c r="Q676" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R676" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S676" t="n">
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
         <v>829</v>
       </c>
-      <c r="T676" t="n">
+      <c r="T680" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T682"/>
+  <dimension ref="A1:T686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P504" t="n">
-        <v>9364</v>
+        <v>11000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="T504" t="n">
         <v>20</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40760,20 +40760,20 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>1080</v>
+        <v>500</v>
       </c>
       <c r="N505" t="n">
         <v>12000</v>
       </c>
       <c r="O505" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P505" t="n">
-        <v>12546</v>
+        <v>12000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="T505" t="n">
         <v>20</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N506" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O506" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P506" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T506" t="n">
         <v>20</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>40</v>
+        <v>850</v>
       </c>
       <c r="N507" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O507" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P507" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T507" t="n">
         <v>20</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="N508" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O508" t="n">
         <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>9706</v>
+        <v>9364</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="T508" t="n">
         <v>20</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O509" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P509" t="n">
-        <v>10462</v>
+        <v>12546</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>523</v>
+        <v>627</v>
       </c>
       <c r="T509" t="n">
         <v>20</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>1760</v>
+        <v>200</v>
       </c>
       <c r="N510" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P510" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="T510" t="n">
         <v>20</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="N511" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O511" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P511" t="n">
-        <v>19571</v>
+        <v>16000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>979</v>
+        <v>800</v>
       </c>
       <c r="T511" t="n">
         <v>20</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>830</v>
+        <v>680</v>
       </c>
       <c r="N512" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O512" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>8542</v>
+        <v>9706</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="T512" t="n">
         <v>20</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>400</v>
+        <v>1040</v>
       </c>
       <c r="N513" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P513" t="n">
-        <v>8725</v>
+        <v>10462</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="T513" t="n">
         <v>20</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>620</v>
+        <v>1760</v>
       </c>
       <c r="N514" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P514" t="n">
-        <v>9823</v>
+        <v>12500</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>491</v>
+        <v>625</v>
       </c>
       <c r="T514" t="n">
         <v>20</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="N515" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O515" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P515" t="n">
-        <v>10429</v>
+        <v>19571</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>521</v>
+        <v>979</v>
       </c>
       <c r="T515" t="n">
         <v>20</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>200</v>
+        <v>830</v>
       </c>
       <c r="N516" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O516" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P516" t="n">
-        <v>19600</v>
+        <v>8542</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>980</v>
+        <v>427</v>
       </c>
       <c r="T516" t="n">
         <v>20</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="N517" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O517" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P517" t="n">
-        <v>10517</v>
+        <v>8725</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="T517" t="n">
         <v>20</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41800,20 +41800,20 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="N518" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O518" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>11517</v>
+        <v>9823</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="T518" t="n">
         <v>20</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="N519" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>13487</v>
+        <v>10429</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>674</v>
+        <v>521</v>
       </c>
       <c r="T519" t="n">
         <v>20</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="N520" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O520" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P520" t="n">
-        <v>14583</v>
+        <v>19600</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>729</v>
+        <v>980</v>
       </c>
       <c r="T520" t="n">
         <v>20</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="N521" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P521" t="n">
-        <v>17600</v>
+        <v>10517</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>880</v>
+        <v>526</v>
       </c>
       <c r="T521" t="n">
         <v>20</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O522" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P522" t="n">
-        <v>10375</v>
+        <v>11517</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="T522" t="n">
         <v>20</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>1360</v>
+        <v>780</v>
       </c>
       <c r="N523" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O523" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P523" t="n">
-        <v>12676</v>
+        <v>13487</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="T523" t="n">
         <v>20</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="N524" t="n">
         <v>14000</v>
       </c>
       <c r="O524" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P524" t="n">
-        <v>14000</v>
+        <v>14583</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="T524" t="n">
         <v>20</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,38 +42355,38 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
+        <v>200</v>
+      </c>
+      <c r="N525" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O525" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P525" t="n">
+        <v>17600</v>
+      </c>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S525" t="n">
         <v>880</v>
-      </c>
-      <c r="N525" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O525" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P525" t="n">
-        <v>11545</v>
-      </c>
-      <c r="Q525" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R525" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S525" t="n">
-        <v>577</v>
       </c>
       <c r="T525" t="n">
         <v>20</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N526" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P526" t="n">
-        <v>13645</v>
+        <v>10375</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>682</v>
+        <v>519</v>
       </c>
       <c r="T526" t="n">
         <v>20</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>1040</v>
+        <v>1360</v>
       </c>
       <c r="N527" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O527" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P527" t="n">
-        <v>14538</v>
+        <v>12676</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>727</v>
+        <v>634</v>
       </c>
       <c r="T527" t="n">
         <v>20</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>650</v>
+        <v>120</v>
       </c>
       <c r="N528" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O528" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P528" t="n">
-        <v>22538</v>
+        <v>14000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1127</v>
+        <v>700</v>
       </c>
       <c r="T528" t="n">
         <v>20</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="N529" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O529" t="n">
         <v>12000</v>
       </c>
-      <c r="O529" t="n">
-        <v>13000</v>
-      </c>
       <c r="P529" t="n">
-        <v>12559</v>
+        <v>11545</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="T529" t="n">
         <v>20</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42760,11 +42760,11 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>1120</v>
+        <v>620</v>
       </c>
       <c r="N530" t="n">
         <v>13000</v>
@@ -42773,7 +42773,7 @@
         <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>13420</v>
+        <v>13645</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>280</v>
+        <v>1040</v>
       </c>
       <c r="N531" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O531" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P531" t="n">
-        <v>12571</v>
+        <v>14538</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>629</v>
+        <v>727</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N532" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O532" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P532" t="n">
-        <v>13440</v>
+        <v>22538</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>672</v>
+        <v>1127</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1860</v>
+        <v>680</v>
       </c>
       <c r="N533" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O533" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P533" t="n">
-        <v>16527</v>
+        <v>12559</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>826</v>
+        <v>628</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1680</v>
+        <v>1120</v>
       </c>
       <c r="N534" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O534" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P534" t="n">
-        <v>9500</v>
+        <v>13420</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>475</v>
+        <v>671</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>1200</v>
+        <v>280</v>
       </c>
       <c r="N535" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O535" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P535" t="n">
-        <v>10500</v>
+        <v>12571</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>525</v>
+        <v>629</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N536" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P536" t="n">
-        <v>7708</v>
+        <v>13440</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>385</v>
+        <v>672</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>460</v>
+        <v>1860</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O537" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="P537" t="n">
-        <v>9196</v>
+        <v>16527</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>460</v>
+        <v>826</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>590</v>
+        <v>1680</v>
       </c>
       <c r="N538" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>11576</v>
+        <v>9500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="N539" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O539" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P539" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>1160</v>
+        <v>480</v>
       </c>
       <c r="N540" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O540" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P540" t="n">
-        <v>9586</v>
+        <v>7708</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>800</v>
+        <v>460</v>
       </c>
       <c r="N541" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="P541" t="n">
-        <v>11250</v>
+        <v>9196</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>562</v>
+        <v>460</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>2200</v>
+        <v>590</v>
       </c>
       <c r="N542" t="n">
         <v>11000</v>
@@ -43733,7 +43733,7 @@
         <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>11582</v>
+        <v>11576</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="N543" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O543" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P543" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>550</v>
+        <v>1160</v>
       </c>
       <c r="N544" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O544" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>8545</v>
+        <v>9586</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="N545" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="P545" t="n">
-        <v>9538</v>
+        <v>11250</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>680</v>
+        <v>2200</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O546" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P546" t="n">
-        <v>10588</v>
+        <v>11582</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="N547" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O547" t="n">
         <v>15000</v>
       </c>
       <c r="P547" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="N548" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O548" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P548" t="n">
-        <v>16500</v>
+        <v>8545</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>825</v>
+        <v>427</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>2320</v>
+        <v>520</v>
       </c>
       <c r="N549" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O549" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>17500</v>
+        <v>9538</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>875</v>
+        <v>477</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N550" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O550" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P550" t="n">
-        <v>14589</v>
+        <v>10588</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>729</v>
+        <v>529</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>2000</v>
+        <v>216</v>
       </c>
       <c r="N551" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O551" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P551" t="n">
-        <v>16520</v>
+        <v>14500</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>826</v>
+        <v>725</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="N552" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O552" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P552" t="n">
-        <v>19438</v>
+        <v>16500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>972</v>
+        <v>825</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>1080</v>
+        <v>2320</v>
       </c>
       <c r="N553" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O553" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P553" t="n">
-        <v>7444</v>
+        <v>17500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>372</v>
+        <v>875</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="N554" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O554" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P554" t="n">
-        <v>10514</v>
+        <v>14589</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>526</v>
+        <v>729</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>960</v>
+        <v>2000</v>
       </c>
       <c r="N555" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O555" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P555" t="n">
-        <v>11583</v>
+        <v>16520</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>579</v>
+        <v>826</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N556" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O556" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P556" t="n">
-        <v>13550</v>
+        <v>19438</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>678</v>
+        <v>972</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>440</v>
+        <v>1080</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>9591</v>
+        <v>7444</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>480</v>
+        <v>372</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1040</v>
+        <v>1400</v>
       </c>
       <c r="N558" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O558" t="n">
         <v>11000</v>
       </c>
-      <c r="O558" t="n">
-        <v>12000</v>
-      </c>
       <c r="P558" t="n">
-        <v>11538</v>
+        <v>10514</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="N559" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O559" t="n">
         <v>12000</v>
       </c>
-      <c r="O559" t="n">
-        <v>13000</v>
-      </c>
       <c r="P559" t="n">
-        <v>12538</v>
+        <v>11583</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>627</v>
+        <v>579</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,20 +45160,20 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N560" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O560" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P560" t="n">
-        <v>12533</v>
+        <v>13550</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="N561" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O561" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>13655</v>
+        <v>9591</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>683</v>
+        <v>480</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>660</v>
+        <v>1040</v>
       </c>
       <c r="N562" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O562" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P562" t="n">
-        <v>16576</v>
+        <v>11538</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>829</v>
+        <v>577</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,20 +45400,20 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>750</v>
+        <v>1040</v>
       </c>
       <c r="N563" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O563" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P563" t="n">
-        <v>5233</v>
+        <v>12538</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>262</v>
+        <v>627</v>
       </c>
       <c r="T563" t="n">
         <v>20</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="N564" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O564" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P564" t="n">
-        <v>7255</v>
+        <v>12533</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>363</v>
+        <v>627</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1240</v>
+        <v>580</v>
       </c>
       <c r="N565" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O565" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P565" t="n">
-        <v>7548</v>
+        <v>13655</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>377</v>
+        <v>683</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45640,20 +45640,20 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="N566" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P566" t="n">
-        <v>9812</v>
+        <v>16576</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>491</v>
+        <v>829</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45720,20 +45720,20 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>1140</v>
+        <v>750</v>
       </c>
       <c r="N567" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O567" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P567" t="n">
-        <v>11509</v>
+        <v>5233</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>575</v>
+        <v>262</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>1640</v>
+        <v>980</v>
       </c>
       <c r="N568" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O568" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P568" t="n">
-        <v>12671</v>
+        <v>7255</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>634</v>
+        <v>363</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45880,20 +45880,20 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>630</v>
+        <v>1240</v>
       </c>
       <c r="N569" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O569" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P569" t="n">
-        <v>10556</v>
+        <v>7548</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>528</v>
+        <v>377</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="N570" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O570" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>11577</v>
+        <v>9812</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>579</v>
+        <v>491</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>800</v>
+        <v>1140</v>
       </c>
       <c r="N571" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O571" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P571" t="n">
-        <v>12738</v>
+        <v>11509</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46127,13 +46127,13 @@
         <v>1640</v>
       </c>
       <c r="N572" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O572" t="n">
         <v>13000</v>
       </c>
-      <c r="O572" t="n">
-        <v>14000</v>
-      </c>
       <c r="P572" t="n">
-        <v>13634</v>
+        <v>12671</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="N573" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O573" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P573" t="n">
-        <v>13406</v>
+        <v>10556</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>670</v>
+        <v>528</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="N574" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O574" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P574" t="n">
-        <v>14562</v>
+        <v>11577</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>728</v>
+        <v>579</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N575" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O575" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P575" t="n">
-        <v>16529</v>
+        <v>12738</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>826</v>
+        <v>637</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>800</v>
+        <v>1640</v>
       </c>
       <c r="N576" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O576" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P576" t="n">
-        <v>21500</v>
+        <v>13634</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1075</v>
+        <v>682</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="N577" t="n">
         <v>13000</v>
       </c>
       <c r="O577" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P577" t="n">
-        <v>13000</v>
+        <v>13406</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46600,20 +46600,20 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1560</v>
+        <v>640</v>
       </c>
       <c r="N578" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O578" t="n">
         <v>15000</v>
       </c>
-      <c r="O578" t="n">
-        <v>17000</v>
-      </c>
       <c r="P578" t="n">
-        <v>15923</v>
+        <v>14562</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>45</v>
+        <v>850</v>
       </c>
       <c r="N579" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O579" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P579" t="n">
-        <v>19000</v>
+        <v>16529</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>950</v>
+        <v>826</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>1180</v>
+        <v>800</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O580" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P580" t="n">
-        <v>12619</v>
+        <v>21500</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>631</v>
+        <v>1075</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N581" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O581" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P581" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>50</v>
+        <v>1560</v>
       </c>
       <c r="N582" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O582" t="n">
         <v>17000</v>
       </c>
       <c r="P582" t="n">
-        <v>17000</v>
+        <v>15923</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>850</v>
+        <v>796</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="N583" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O583" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P583" t="n">
-        <v>13517</v>
+        <v>19000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>676</v>
+        <v>950</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="N584" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O584" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P584" t="n">
-        <v>14562</v>
+        <v>12619</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>728</v>
+        <v>631</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N585" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O585" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P585" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>620</v>
+        <v>50</v>
       </c>
       <c r="N586" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P586" t="n">
-        <v>11548</v>
+        <v>17000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>577</v>
+        <v>850</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P587" t="n">
-        <v>12412</v>
+        <v>13517</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>1680</v>
+        <v>640</v>
       </c>
       <c r="N588" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O588" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P588" t="n">
-        <v>13631</v>
+        <v>14562</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="N589" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O589" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P589" t="n">
-        <v>19182</v>
+        <v>19000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="N590" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O590" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P590" t="n">
-        <v>13560</v>
+        <v>11548</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>678</v>
+        <v>577</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N591" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O591" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>14562</v>
+        <v>12412</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>728</v>
+        <v>621</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>250</v>
+        <v>1680</v>
       </c>
       <c r="N592" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O592" t="n">
         <v>14000</v>
       </c>
-      <c r="O592" t="n">
-        <v>15000</v>
-      </c>
       <c r="P592" t="n">
-        <v>14400</v>
+        <v>13631</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N593" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O593" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P593" t="n">
-        <v>12550</v>
+        <v>19182</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>628</v>
+        <v>959</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47880,11 +47880,11 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1420</v>
+        <v>500</v>
       </c>
       <c r="N594" t="n">
         <v>13000</v>
@@ -47893,7 +47893,7 @@
         <v>14000</v>
       </c>
       <c r="P594" t="n">
-        <v>13599</v>
+        <v>13560</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="N595" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P595" t="n">
-        <v>9412</v>
+        <v>14562</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>471</v>
+        <v>728</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="N596" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O596" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P596" t="n">
-        <v>11545</v>
+        <v>14400</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,11 +48120,11 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N597" t="n">
         <v>12000</v>
@@ -48133,7 +48133,7 @@
         <v>13000</v>
       </c>
       <c r="P597" t="n">
-        <v>12455</v>
+        <v>12550</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>800</v>
+        <v>1420</v>
       </c>
       <c r="N598" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O598" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P598" t="n">
-        <v>8500</v>
+        <v>13599</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>425</v>
+        <v>680</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N599" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O599" t="n">
         <v>10000</v>
       </c>
       <c r="P599" t="n">
-        <v>9750</v>
+        <v>9412</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N600" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O600" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P600" t="n">
-        <v>14684</v>
+        <v>11545</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>734</v>
+        <v>577</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="N601" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O601" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P601" t="n">
-        <v>16206</v>
+        <v>12455</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>810</v>
+        <v>623</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="N602" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O602" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P602" t="n">
-        <v>16538</v>
+        <v>8500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>340</v>
+        <v>1120</v>
       </c>
       <c r="N603" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="O603" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P603" t="n">
-        <v>8824</v>
+        <v>9750</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>460</v>
+        <v>1520</v>
       </c>
       <c r="N604" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P604" t="n">
-        <v>9609</v>
+        <v>14684</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>480</v>
+        <v>734</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="N605" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O605" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="P605" t="n">
-        <v>11256</v>
+        <v>16206</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>563</v>
+        <v>810</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>1370</v>
+        <v>1040</v>
       </c>
       <c r="N606" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O606" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P606" t="n">
-        <v>11423</v>
+        <v>16538</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>571</v>
+        <v>827</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="N607" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O607" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P607" t="n">
-        <v>13000</v>
+        <v>8824</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>650</v>
+        <v>441</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="N608" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O608" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P608" t="n">
-        <v>21500</v>
+        <v>9609</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1075</v>
+        <v>480</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="N609" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O609" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P609" t="n">
-        <v>12500</v>
+        <v>11256</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1920</v>
+        <v>1370</v>
       </c>
       <c r="N610" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O610" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>14875</v>
+        <v>11423</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>744</v>
+        <v>571</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N611" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O611" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P611" t="n">
-        <v>18571</v>
+        <v>13000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>929</v>
+        <v>650</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49315,25 +49315,25 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="N612" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O612" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="P612" t="n">
-        <v>8294</v>
+        <v>21500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>415</v>
+        <v>1075</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="N613" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O613" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P613" t="n">
-        <v>9591</v>
+        <v>12500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>480</v>
+        <v>625</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>860</v>
+        <v>1920</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O614" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P614" t="n">
-        <v>10558</v>
+        <v>14875</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>528</v>
+        <v>744</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>820</v>
+        <v>140</v>
       </c>
       <c r="N615" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O615" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P615" t="n">
-        <v>12512</v>
+        <v>18571</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>626</v>
+        <v>929</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N616" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P616" t="n">
-        <v>14000</v>
+        <v>8294</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>700</v>
+        <v>415</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="N617" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O617" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P617" t="n">
-        <v>14571</v>
+        <v>9591</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>729</v>
+        <v>480</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="N618" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O618" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P618" t="n">
-        <v>9556</v>
+        <v>10558</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1530</v>
+        <v>820</v>
       </c>
       <c r="N619" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O619" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P619" t="n">
-        <v>11686</v>
+        <v>12512</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N620" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O620" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P620" t="n">
-        <v>12613</v>
+        <v>14000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="N621" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O621" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P621" t="n">
-        <v>12510</v>
+        <v>14571</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>626</v>
+        <v>729</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="N622" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P622" t="n">
-        <v>12667</v>
+        <v>9556</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>633</v>
+        <v>478</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1240</v>
+        <v>1530</v>
       </c>
       <c r="N623" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O623" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P623" t="n">
-        <v>14677</v>
+        <v>11686</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>734</v>
+        <v>584</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>220</v>
+        <v>1500</v>
       </c>
       <c r="N624" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O624" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P624" t="n">
-        <v>18455</v>
+        <v>12613</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>923</v>
+        <v>631</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O625" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P625" t="n">
-        <v>10562</v>
+        <v>12510</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,7 +50444,7 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1180</v>
+        <v>600</v>
       </c>
       <c r="N626" t="n">
         <v>12000</v>
@@ -50453,7 +50453,7 @@
         <v>13000</v>
       </c>
       <c r="P626" t="n">
-        <v>12492</v>
+        <v>12667</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1040</v>
+        <v>1240</v>
       </c>
       <c r="N627" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P627" t="n">
-        <v>13538</v>
+        <v>14677</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="N628" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O628" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P628" t="n">
-        <v>20500</v>
+        <v>18455</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1025</v>
+        <v>923</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N629" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P629" t="n">
-        <v>6500</v>
+        <v>10562</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1120</v>
+        <v>1180</v>
       </c>
       <c r="N630" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P630" t="n">
-        <v>8500</v>
+        <v>12492</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50844,16 +50844,16 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>800</v>
+        <v>1040</v>
       </c>
       <c r="N631" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O631" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>10500</v>
+        <v>13538</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O632" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P632" t="n">
-        <v>10533</v>
+        <v>20500</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>527</v>
+        <v>1025</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="N633" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O633" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P633" t="n">
-        <v>13259</v>
+        <v>6500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>663</v>
+        <v>325</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="N634" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O634" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P634" t="n">
-        <v>16547</v>
+        <v>8500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="N635" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P635" t="n">
-        <v>14632</v>
+        <v>10500</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>732</v>
+        <v>525</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>1720</v>
+        <v>600</v>
       </c>
       <c r="N636" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O636" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P636" t="n">
-        <v>16442</v>
+        <v>10533</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>822</v>
+        <v>527</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="N637" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="O637" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P637" t="n">
-        <v>17600</v>
+        <v>13259</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>880</v>
+        <v>663</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>400</v>
+        <v>1280</v>
       </c>
       <c r="N638" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O638" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P638" t="n">
-        <v>19700</v>
+        <v>16547</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>985</v>
+        <v>827</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="N639" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O639" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>12000</v>
+        <v>14632</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>600</v>
+        <v>732</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>930</v>
+        <v>1720</v>
       </c>
       <c r="N640" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O640" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P640" t="n">
-        <v>13516</v>
+        <v>16442</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>676</v>
+        <v>822</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N641" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O641" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P641" t="n">
-        <v>14600</v>
+        <v>17600</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>730</v>
+        <v>880</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N642" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O642" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P642" t="n">
-        <v>15000</v>
+        <v>19700</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="N643" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O643" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>9576</v>
+        <v>12000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>479</v>
+        <v>600</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="N644" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O644" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P644" t="n">
-        <v>10538</v>
+        <v>13516</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>527</v>
+        <v>676</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="N645" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O645" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P645" t="n">
-        <v>11577</v>
+        <v>14600</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>579</v>
+        <v>730</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="N646" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O646" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P646" t="n">
-        <v>10259</v>
+        <v>15000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>513</v>
+        <v>750</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="N647" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O647" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P647" t="n">
-        <v>12333</v>
+        <v>9576</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>1620</v>
+        <v>1040</v>
       </c>
       <c r="N648" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O648" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P648" t="n">
-        <v>14617</v>
+        <v>10538</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>731</v>
+        <v>527</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>60</v>
+        <v>1560</v>
       </c>
       <c r="N649" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O649" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P649" t="n">
-        <v>16000</v>
+        <v>11577</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N650" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O650" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="P650" t="n">
-        <v>8342</v>
+        <v>10259</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N651" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P651" t="n">
-        <v>9571</v>
+        <v>12333</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>479</v>
+        <v>617</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>780</v>
+        <v>1620</v>
       </c>
       <c r="N652" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O652" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P652" t="n">
-        <v>10744</v>
+        <v>14617</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>1790</v>
+        <v>60</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O653" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P653" t="n">
-        <v>11620</v>
+        <v>16000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>1260</v>
+        <v>380</v>
       </c>
       <c r="N654" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O654" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P654" t="n">
-        <v>12460</v>
+        <v>8342</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>623</v>
+        <v>417</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N655" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>12167</v>
+        <v>9571</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>1640</v>
+        <v>780</v>
       </c>
       <c r="N656" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O656" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>14707</v>
+        <v>10744</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>735</v>
+        <v>537</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>216</v>
+        <v>1790</v>
       </c>
       <c r="N657" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O657" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P657" t="n">
-        <v>13500</v>
+        <v>11620</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>675</v>
+        <v>581</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>400</v>
+        <v>1260</v>
       </c>
       <c r="N658" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O658" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P658" t="n">
-        <v>7500</v>
+        <v>12460</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>375</v>
+        <v>623</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="N659" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O659" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P659" t="n">
-        <v>8722</v>
+        <v>12167</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>436</v>
+        <v>608</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>1120</v>
+        <v>1640</v>
       </c>
       <c r="N660" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O660" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P660" t="n">
-        <v>10500</v>
+        <v>14707</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>525</v>
+        <v>735</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53244,16 +53244,16 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N661" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O661" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P661" t="n">
-        <v>19455</v>
+        <v>13500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>973</v>
+        <v>675</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="N662" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O662" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P662" t="n">
-        <v>5206</v>
+        <v>7500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53404,16 +53404,16 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>580</v>
+        <v>1440</v>
       </c>
       <c r="N663" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O663" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="P663" t="n">
-        <v>5328</v>
+        <v>8722</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="N664" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O664" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P664" t="n">
-        <v>9778</v>
+        <v>10500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N665" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O665" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P665" t="n">
-        <v>10583</v>
+        <v>19455</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>529</v>
+        <v>973</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,25 +53635,25 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>120</v>
+        <v>680</v>
       </c>
       <c r="N666" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O666" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P666" t="n">
-        <v>17000</v>
+        <v>5206</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N667" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O667" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P667" t="n">
-        <v>7412</v>
+        <v>5328</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="N668" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O668" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P668" t="n">
-        <v>11679</v>
+        <v>9778</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53887,13 +53887,13 @@
         <v>960</v>
       </c>
       <c r="N669" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O669" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P669" t="n">
-        <v>12583</v>
+        <v>10583</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="N670" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O670" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P670" t="n">
-        <v>13471</v>
+        <v>17000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>674</v>
+        <v>850</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>324</v>
+        <v>680</v>
       </c>
       <c r="N671" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O671" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P671" t="n">
-        <v>21000</v>
+        <v>7412</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>1050</v>
+        <v>371</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="N672" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O672" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P672" t="n">
-        <v>9500</v>
+        <v>11679</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>1600</v>
+        <v>960</v>
       </c>
       <c r="N673" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O673" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P673" t="n">
-        <v>10950</v>
+        <v>12583</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>548</v>
+        <v>629</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N674" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O674" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P674" t="n">
-        <v>21450</v>
+        <v>13471</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1072</v>
+        <v>674</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="N675" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O675" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P675" t="n">
-        <v>9571</v>
+        <v>21000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>479</v>
+        <v>1050</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="N676" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O676" t="n">
         <v>10000</v>
       </c>
-      <c r="O676" t="n">
-        <v>11000</v>
-      </c>
       <c r="P676" t="n">
-        <v>10393</v>
+        <v>9500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>620</v>
+        <v>1600</v>
       </c>
       <c r="N677" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O677" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P677" t="n">
-        <v>13548</v>
+        <v>10950</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>677</v>
+        <v>548</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="N678" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O678" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P678" t="n">
-        <v>14458</v>
+        <v>21450</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>723</v>
+        <v>1072</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N679" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O679" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P679" t="n">
-        <v>14455</v>
+        <v>9571</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54764,7 +54764,7 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="N680" t="n">
         <v>10000</v>
@@ -54773,7 +54773,7 @@
         <v>11000</v>
       </c>
       <c r="P680" t="n">
-        <v>10541</v>
+        <v>10393</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="N681" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O681" t="n">
         <v>14000</v>
       </c>
-      <c r="O681" t="n">
-        <v>15000</v>
-      </c>
       <c r="P681" t="n">
-        <v>14533</v>
+        <v>13548</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,68 +54887,388 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M682" t="n">
+        <v>830</v>
+      </c>
+      <c r="N682" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O682" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P682" t="n">
+        <v>14458</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>723</v>
+      </c>
+      <c r="T682" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>9</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E682" t="n">
-        <v>13</v>
-      </c>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G682" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I682" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J682" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L682" t="inlineStr">
+      <c r="E683" t="n">
+        <v>13</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>Barraganete</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M683" t="n">
+        <v>220</v>
+      </c>
+      <c r="N683" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O683" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P683" t="n">
+        <v>14455</v>
+      </c>
+      <c r="Q683" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S683" t="n">
+        <v>723</v>
+      </c>
+      <c r="T683" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>9</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E684" t="n">
+        <v>13</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M684" t="n">
+        <v>185</v>
+      </c>
+      <c r="N684" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O684" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P684" t="n">
+        <v>10541</v>
+      </c>
+      <c r="Q684" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S684" t="n">
+        <v>527</v>
+      </c>
+      <c r="T684" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>9</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E685" t="n">
+        <v>13</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G685" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M685" t="n">
+        <v>600</v>
+      </c>
+      <c r="N685" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O685" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P685" t="n">
+        <v>14533</v>
+      </c>
+      <c r="Q685" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S685" t="n">
+        <v>727</v>
+      </c>
+      <c r="T685" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>9</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E686" t="n">
+        <v>13</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G686" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M682" t="n">
+      <c r="M686" t="n">
         <v>680</v>
       </c>
-      <c r="N682" t="n">
+      <c r="N686" t="n">
         <v>16000</v>
       </c>
-      <c r="O682" t="n">
+      <c r="O686" t="n">
         <v>17000</v>
       </c>
-      <c r="P682" t="n">
+      <c r="P686" t="n">
         <v>16588</v>
       </c>
-      <c r="Q682" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R682" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S682" t="n">
+      <c r="Q686" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S686" t="n">
         <v>829</v>
       </c>
-      <c r="T682" t="n">
+      <c r="T686" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T693"/>
+  <dimension ref="A1:T697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,25 +48355,25 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N600" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O600" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P600" t="n">
-        <v>19182</v>
+        <v>17000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>959</v>
+        <v>850</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N601" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P601" t="n">
-        <v>13560</v>
+        <v>18000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>678</v>
+        <v>900</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="N602" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O602" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P602" t="n">
-        <v>14562</v>
+        <v>19000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>728</v>
+        <v>950</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N603" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O603" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P603" t="n">
-        <v>14400</v>
+        <v>20000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N604" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O604" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P604" t="n">
-        <v>12550</v>
+        <v>19182</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>628</v>
+        <v>959</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,11 +48760,11 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>1420</v>
+        <v>500</v>
       </c>
       <c r="N605" t="n">
         <v>13000</v>
@@ -48773,7 +48773,7 @@
         <v>14000</v>
       </c>
       <c r="P605" t="n">
-        <v>13599</v>
+        <v>13560</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="N606" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O606" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P606" t="n">
-        <v>9412</v>
+        <v>14562</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>471</v>
+        <v>728</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="N607" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O607" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P607" t="n">
-        <v>11545</v>
+        <v>14400</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,11 +49000,11 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N608" t="n">
         <v>12000</v>
@@ -49013,7 +49013,7 @@
         <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>12455</v>
+        <v>12550</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>800</v>
+        <v>1420</v>
       </c>
       <c r="N609" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O609" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P609" t="n">
-        <v>8500</v>
+        <v>13599</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>425</v>
+        <v>680</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N610" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O610" t="n">
         <v>10000</v>
       </c>
       <c r="P610" t="n">
-        <v>9750</v>
+        <v>9412</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>1520</v>
+        <v>880</v>
       </c>
       <c r="N611" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O611" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P611" t="n">
-        <v>14684</v>
+        <v>11545</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>734</v>
+        <v>577</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="N612" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O612" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P612" t="n">
-        <v>16206</v>
+        <v>12455</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>810</v>
+        <v>623</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="N613" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O613" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P613" t="n">
-        <v>16538</v>
+        <v>8500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>340</v>
+        <v>1120</v>
       </c>
       <c r="N614" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="O614" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P614" t="n">
-        <v>8824</v>
+        <v>9750</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>460</v>
+        <v>1520</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P615" t="n">
-        <v>9609</v>
+        <v>14684</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>480</v>
+        <v>734</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="N616" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O616" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="P616" t="n">
-        <v>11256</v>
+        <v>16206</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>563</v>
+        <v>810</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1370</v>
+        <v>1040</v>
       </c>
       <c r="N617" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O617" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P617" t="n">
-        <v>11423</v>
+        <v>16538</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>571</v>
+        <v>827</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="N618" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O618" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P618" t="n">
-        <v>13000</v>
+        <v>8824</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>650</v>
+        <v>441</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="N619" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O619" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P619" t="n">
-        <v>21500</v>
+        <v>9609</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1075</v>
+        <v>480</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="N620" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O620" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P620" t="n">
-        <v>12500</v>
+        <v>11256</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1920</v>
+        <v>1370</v>
       </c>
       <c r="N621" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O621" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P621" t="n">
-        <v>14875</v>
+        <v>11423</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>744</v>
+        <v>571</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N622" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O622" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P622" t="n">
-        <v>18571</v>
+        <v>13000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>929</v>
+        <v>650</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O623" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="P623" t="n">
-        <v>8294</v>
+        <v>21500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>415</v>
+        <v>1075</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="N624" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O624" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P624" t="n">
-        <v>9591</v>
+        <v>12500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>480</v>
+        <v>625</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>860</v>
+        <v>1920</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O625" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P625" t="n">
-        <v>10558</v>
+        <v>14875</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>528</v>
+        <v>744</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>820</v>
+        <v>140</v>
       </c>
       <c r="N626" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O626" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P626" t="n">
-        <v>12512</v>
+        <v>18571</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>626</v>
+        <v>929</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P627" t="n">
-        <v>14000</v>
+        <v>8294</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>700</v>
+        <v>415</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="N628" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O628" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P628" t="n">
-        <v>14571</v>
+        <v>9591</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>729</v>
+        <v>480</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="N629" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P629" t="n">
-        <v>9556</v>
+        <v>10558</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1530</v>
+        <v>820</v>
       </c>
       <c r="N630" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P630" t="n">
-        <v>11686</v>
+        <v>12512</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N631" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O631" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>12613</v>
+        <v>14000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="N632" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O632" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P632" t="n">
-        <v>12510</v>
+        <v>14571</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>626</v>
+        <v>729</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="N633" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O633" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>12667</v>
+        <v>9556</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>633</v>
+        <v>478</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1240</v>
+        <v>1530</v>
       </c>
       <c r="N634" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O634" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>14677</v>
+        <v>11686</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>734</v>
+        <v>584</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>220</v>
+        <v>1500</v>
       </c>
       <c r="N635" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O635" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P635" t="n">
-        <v>18455</v>
+        <v>12613</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>923</v>
+        <v>631</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51244,16 +51244,16 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>320</v>
+        <v>980</v>
       </c>
       <c r="N636" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P636" t="n">
-        <v>10562</v>
+        <v>12510</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,7 +51324,7 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1180</v>
+        <v>600</v>
       </c>
       <c r="N637" t="n">
         <v>12000</v>
@@ -51333,7 +51333,7 @@
         <v>13000</v>
       </c>
       <c r="P637" t="n">
-        <v>12492</v>
+        <v>12667</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1040</v>
+        <v>1240</v>
       </c>
       <c r="N638" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O638" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P638" t="n">
-        <v>13538</v>
+        <v>14677</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="N639" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O639" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P639" t="n">
-        <v>20500</v>
+        <v>18455</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1025</v>
+        <v>923</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N640" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P640" t="n">
-        <v>6500</v>
+        <v>10562</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1120</v>
+        <v>1180</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>8500</v>
+        <v>12492</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>425</v>
+        <v>625</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>800</v>
+        <v>1040</v>
       </c>
       <c r="N642" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O642" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>10500</v>
+        <v>13538</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>525</v>
+        <v>677</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>600</v>
+        <v>324</v>
       </c>
       <c r="N643" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P643" t="n">
-        <v>10533</v>
+        <v>20500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>527</v>
+        <v>1025</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1120</v>
+        <v>400</v>
       </c>
       <c r="N644" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O644" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P644" t="n">
-        <v>13259</v>
+        <v>6500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>663</v>
+        <v>325</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="N645" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O645" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P645" t="n">
-        <v>16547</v>
+        <v>8500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>827</v>
+        <v>425</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="N646" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O646" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P646" t="n">
-        <v>14632</v>
+        <v>10500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>732</v>
+        <v>525</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1720</v>
+        <v>600</v>
       </c>
       <c r="N647" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O647" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P647" t="n">
-        <v>16442</v>
+        <v>10533</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>822</v>
+        <v>527</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="N648" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="O648" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P648" t="n">
-        <v>17600</v>
+        <v>13259</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>880</v>
+        <v>663</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>400</v>
+        <v>1280</v>
       </c>
       <c r="N649" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O649" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P649" t="n">
-        <v>19700</v>
+        <v>16547</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>985</v>
+        <v>827</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>300</v>
+        <v>760</v>
       </c>
       <c r="N650" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O650" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>12000</v>
+        <v>14632</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>600</v>
+        <v>732</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>930</v>
+        <v>1720</v>
       </c>
       <c r="N651" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O651" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P651" t="n">
-        <v>13516</v>
+        <v>16442</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>676</v>
+        <v>822</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N652" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O652" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P652" t="n">
-        <v>14600</v>
+        <v>17600</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>730</v>
+        <v>880</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N653" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O653" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P653" t="n">
-        <v>15000</v>
+        <v>19700</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52684,16 +52684,16 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="N654" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O654" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P654" t="n">
-        <v>9576</v>
+        <v>12000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>479</v>
+        <v>600</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="N655" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O655" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P655" t="n">
-        <v>10538</v>
+        <v>13516</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>527</v>
+        <v>676</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="N656" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O656" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P656" t="n">
-        <v>11577</v>
+        <v>14600</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>579</v>
+        <v>730</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O657" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P657" t="n">
-        <v>10259</v>
+        <v>15000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>513</v>
+        <v>750</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="N658" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>12333</v>
+        <v>9576</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>1620</v>
+        <v>1040</v>
       </c>
       <c r="N659" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O659" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>14617</v>
+        <v>10538</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>731</v>
+        <v>527</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>60</v>
+        <v>1560</v>
       </c>
       <c r="N660" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O660" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>16000</v>
+        <v>11577</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N661" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O661" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="P661" t="n">
-        <v>8342</v>
+        <v>10259</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N662" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O662" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P662" t="n">
-        <v>9571</v>
+        <v>12333</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>479</v>
+        <v>617</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>780</v>
+        <v>1620</v>
       </c>
       <c r="N663" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O663" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P663" t="n">
-        <v>10744</v>
+        <v>14617</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>1790</v>
+        <v>60</v>
       </c>
       <c r="N664" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P664" t="n">
-        <v>11620</v>
+        <v>16000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>1260</v>
+        <v>380</v>
       </c>
       <c r="N665" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O665" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P665" t="n">
-        <v>12460</v>
+        <v>8342</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>623</v>
+        <v>417</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N666" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O666" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P666" t="n">
-        <v>12167</v>
+        <v>9571</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>1640</v>
+        <v>780</v>
       </c>
       <c r="N667" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O667" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P667" t="n">
-        <v>14707</v>
+        <v>10744</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>735</v>
+        <v>537</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>216</v>
+        <v>1790</v>
       </c>
       <c r="N668" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O668" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P668" t="n">
-        <v>13500</v>
+        <v>11620</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>675</v>
+        <v>581</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>400</v>
+        <v>1260</v>
       </c>
       <c r="N669" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O669" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P669" t="n">
-        <v>7500</v>
+        <v>12460</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>375</v>
+        <v>623</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="N670" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O670" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P670" t="n">
-        <v>8722</v>
+        <v>12167</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>436</v>
+        <v>608</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1120</v>
+        <v>1640</v>
       </c>
       <c r="N671" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O671" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P671" t="n">
-        <v>10500</v>
+        <v>14707</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>525</v>
+        <v>735</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N672" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O672" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P672" t="n">
-        <v>19455</v>
+        <v>13500</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>973</v>
+        <v>675</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="N673" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O673" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P673" t="n">
-        <v>5206</v>
+        <v>7500</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>580</v>
+        <v>1440</v>
       </c>
       <c r="N674" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O674" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="P674" t="n">
-        <v>5328</v>
+        <v>8722</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>266</v>
+        <v>436</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="N675" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O675" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P675" t="n">
-        <v>9778</v>
+        <v>10500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N676" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O676" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P676" t="n">
-        <v>10583</v>
+        <v>19455</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>529</v>
+        <v>973</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>120</v>
+        <v>680</v>
       </c>
       <c r="N677" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O677" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P677" t="n">
-        <v>17000</v>
+        <v>5206</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>850</v>
+        <v>260</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N678" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O678" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P678" t="n">
-        <v>7412</v>
+        <v>5328</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="N679" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O679" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P679" t="n">
-        <v>11679</v>
+        <v>9778</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54767,13 +54767,13 @@
         <v>960</v>
       </c>
       <c r="N680" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O680" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P680" t="n">
-        <v>12583</v>
+        <v>10583</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="N681" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O681" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P681" t="n">
-        <v>13471</v>
+        <v>17000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>674</v>
+        <v>850</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>324</v>
+        <v>680</v>
       </c>
       <c r="N682" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O682" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P682" t="n">
-        <v>21000</v>
+        <v>7412</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>1050</v>
+        <v>371</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="N683" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O683" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>9500</v>
+        <v>11679</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>1600</v>
+        <v>960</v>
       </c>
       <c r="N684" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O684" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>10950</v>
+        <v>12583</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>548</v>
+        <v>629</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N685" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O685" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P685" t="n">
-        <v>21450</v>
+        <v>13471</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1072</v>
+        <v>674</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="N686" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O686" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P686" t="n">
-        <v>9571</v>
+        <v>21000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>479</v>
+        <v>1050</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="N687" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O687" t="n">
         <v>10000</v>
       </c>
-      <c r="O687" t="n">
-        <v>11000</v>
-      </c>
       <c r="P687" t="n">
-        <v>10393</v>
+        <v>9500</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>620</v>
+        <v>1600</v>
       </c>
       <c r="N688" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O688" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P688" t="n">
-        <v>13548</v>
+        <v>10950</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>677</v>
+        <v>548</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="N689" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O689" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P689" t="n">
-        <v>14458</v>
+        <v>21450</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>723</v>
+        <v>1072</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N690" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O690" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P690" t="n">
-        <v>14455</v>
+        <v>9571</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55644,7 +55644,7 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="N691" t="n">
         <v>10000</v>
@@ -55653,7 +55653,7 @@
         <v>11000</v>
       </c>
       <c r="P691" t="n">
-        <v>10541</v>
+        <v>10393</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="N692" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O692" t="n">
         <v>14000</v>
       </c>
-      <c r="O692" t="n">
-        <v>15000</v>
-      </c>
       <c r="P692" t="n">
-        <v>14533</v>
+        <v>13548</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,68 +55767,388 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G693" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M693" t="n">
+        <v>830</v>
+      </c>
+      <c r="N693" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O693" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P693" t="n">
+        <v>14458</v>
+      </c>
+      <c r="Q693" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R693" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S693" t="n">
+        <v>723</v>
+      </c>
+      <c r="T693" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>9</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D694" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E693" t="n">
-        <v>13</v>
-      </c>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G693" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I693" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J693" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L693" t="inlineStr">
+      <c r="E694" t="n">
+        <v>13</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G694" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I694" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>Barraganete</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M694" t="n">
+        <v>220</v>
+      </c>
+      <c r="N694" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O694" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P694" t="n">
+        <v>14455</v>
+      </c>
+      <c r="Q694" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R694" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S694" t="n">
+        <v>723</v>
+      </c>
+      <c r="T694" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>9</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D695" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E695" t="n">
+        <v>13</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G695" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I695" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M695" t="n">
+        <v>185</v>
+      </c>
+      <c r="N695" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O695" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P695" t="n">
+        <v>10541</v>
+      </c>
+      <c r="Q695" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R695" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S695" t="n">
+        <v>527</v>
+      </c>
+      <c r="T695" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>9</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D696" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E696" t="n">
+        <v>13</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G696" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M696" t="n">
+        <v>600</v>
+      </c>
+      <c r="N696" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O696" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P696" t="n">
+        <v>14533</v>
+      </c>
+      <c r="Q696" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R696" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S696" t="n">
+        <v>727</v>
+      </c>
+      <c r="T696" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>9</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D697" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E697" t="n">
+        <v>13</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G697" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M693" t="n">
+      <c r="M697" t="n">
         <v>680</v>
       </c>
-      <c r="N693" t="n">
+      <c r="N697" t="n">
         <v>16000</v>
       </c>
-      <c r="O693" t="n">
+      <c r="O697" t="n">
         <v>17000</v>
       </c>
-      <c r="P693" t="n">
+      <c r="P697" t="n">
         <v>16588</v>
       </c>
-      <c r="Q693" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R693" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S693" t="n">
+      <c r="Q697" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R697" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S697" t="n">
         <v>829</v>
       </c>
-      <c r="T693" t="n">
+      <c r="T697" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T701"/>
+  <dimension ref="A1:T704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46680,20 +46680,20 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="N579" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O579" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P579" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N581" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O581" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P581" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>650</v>
+        <v>1050</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46920,20 +46920,20 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="N582" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O582" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P582" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N583" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>19600</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="N584" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O584" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P584" t="n">
-        <v>10517</v>
+        <v>13000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>526</v>
+        <v>650</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="N585" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O585" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P585" t="n">
-        <v>11517</v>
+        <v>14000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>576</v>
+        <v>700</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="N586" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O586" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P586" t="n">
-        <v>13487</v>
+        <v>19600</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>674</v>
+        <v>980</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="N587" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O587" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P587" t="n">
-        <v>14583</v>
+        <v>10517</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>729</v>
+        <v>526</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>1120</v>
+        <v>580</v>
       </c>
       <c r="N588" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O588" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P588" t="n">
-        <v>9500</v>
+        <v>11517</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>475</v>
+        <v>576</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>880</v>
+        <v>780</v>
       </c>
       <c r="N589" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O589" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P589" t="n">
-        <v>11455</v>
+        <v>13487</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,16 +47555,16 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="N590" t="n">
         <v>14000</v>
@@ -47573,7 +47573,7 @@
         <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>14372</v>
+        <v>14583</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,20 +47640,20 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>1360</v>
+        <v>1120</v>
       </c>
       <c r="N591" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O591" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P591" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,25 +47715,25 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="N592" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O592" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P592" t="n">
-        <v>21500</v>
+        <v>11455</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>1075</v>
+        <v>573</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>240</v>
+        <v>860</v>
       </c>
       <c r="N593" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O593" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P593" t="n">
-        <v>13000</v>
+        <v>14372</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>650</v>
+        <v>719</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,16 +47884,16 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="N594" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O594" t="n">
         <v>15000</v>
       </c>
-      <c r="O594" t="n">
-        <v>17000</v>
-      </c>
       <c r="P594" t="n">
-        <v>15923</v>
+        <v>14500</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>796</v>
+        <v>725</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="N595" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O595" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P595" t="n">
-        <v>18571</v>
+        <v>21500</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>929</v>
+        <v>1075</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48044,16 +48044,16 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="N596" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O596" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P596" t="n">
-        <v>8294</v>
+        <v>13000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>415</v>
+        <v>650</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>440</v>
+        <v>1560</v>
       </c>
       <c r="N597" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O597" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P597" t="n">
-        <v>9591</v>
+        <v>15923</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>480</v>
+        <v>796</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>860</v>
+        <v>140</v>
       </c>
       <c r="N598" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O598" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P598" t="n">
-        <v>10558</v>
+        <v>18571</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>528</v>
+        <v>929</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>820</v>
+        <v>340</v>
       </c>
       <c r="N599" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O599" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P599" t="n">
-        <v>12512</v>
+        <v>8294</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>626</v>
+        <v>415</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N600" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O600" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P600" t="n">
-        <v>14000</v>
+        <v>9591</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>320</v>
+        <v>860</v>
       </c>
       <c r="N601" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P601" t="n">
-        <v>19438</v>
+        <v>10558</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>972</v>
+        <v>528</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>1080</v>
+        <v>820</v>
       </c>
       <c r="N602" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O602" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P602" t="n">
-        <v>7444</v>
+        <v>12512</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>372</v>
+        <v>626</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="N603" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O603" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P603" t="n">
-        <v>10514</v>
+        <v>14000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>526</v>
+        <v>700</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48675,25 +48675,25 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="N604" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O604" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P604" t="n">
-        <v>11583</v>
+        <v>19438</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>579</v>
+        <v>972</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="N605" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O605" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P605" t="n">
-        <v>13550</v>
+        <v>7444</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>678</v>
+        <v>372</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>30</v>
+        <v>1400</v>
       </c>
       <c r="N606" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O606" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P606" t="n">
-        <v>17000</v>
+        <v>10514</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>850</v>
+        <v>526</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="N607" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O607" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P607" t="n">
-        <v>14560</v>
+        <v>11583</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>728</v>
+        <v>579</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N608" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O608" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P608" t="n">
-        <v>16604</v>
+        <v>13550</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>1680</v>
+        <v>30</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O609" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P609" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N610" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O610" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P610" t="n">
-        <v>10500</v>
+        <v>14560</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>525</v>
+        <v>728</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>324</v>
+        <v>960</v>
       </c>
       <c r="N611" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O611" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P611" t="n">
-        <v>20500</v>
+        <v>16604</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1025</v>
+        <v>830</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N612" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P612" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="N613" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O613" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P613" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>324</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O614" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P614" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>525</v>
+        <v>1025</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O615" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P615" t="n">
-        <v>9459</v>
+        <v>6500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>620</v>
+        <v>1120</v>
       </c>
       <c r="N616" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P616" t="n">
-        <v>11548</v>
+        <v>8500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1440</v>
+        <v>800</v>
       </c>
       <c r="N617" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O617" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P617" t="n">
-        <v>14701</v>
+        <v>10500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>735</v>
+        <v>525</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="N618" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O618" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P618" t="n">
-        <v>8792</v>
+        <v>9459</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="N619" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O619" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P619" t="n">
-        <v>9225</v>
+        <v>11548</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>461</v>
+        <v>577</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>630</v>
+        <v>1440</v>
       </c>
       <c r="N620" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O620" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P620" t="n">
-        <v>13556</v>
+        <v>14701</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>678</v>
+        <v>735</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>1040</v>
+        <v>480</v>
       </c>
       <c r="N621" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O621" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P621" t="n">
-        <v>14538</v>
+        <v>8792</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>727</v>
+        <v>440</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>1420</v>
+        <v>400</v>
       </c>
       <c r="N622" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O622" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P622" t="n">
-        <v>12577</v>
+        <v>9225</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>629</v>
+        <v>461</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>1480</v>
+        <v>630</v>
       </c>
       <c r="N623" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O623" t="n">
         <v>14000</v>
       </c>
       <c r="P623" t="n">
-        <v>13270</v>
+        <v>13556</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>432</v>
+        <v>1040</v>
       </c>
       <c r="N624" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O624" t="n">
         <v>15000</v>
       </c>
-      <c r="O624" t="n">
-        <v>16000</v>
-      </c>
       <c r="P624" t="n">
-        <v>15500</v>
+        <v>14538</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>775</v>
+        <v>727</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50364,16 +50364,16 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>1120</v>
+        <v>1420</v>
       </c>
       <c r="N625" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O625" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P625" t="n">
-        <v>11500</v>
+        <v>12577</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>575</v>
+        <v>629</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>800</v>
+        <v>1480</v>
       </c>
       <c r="N626" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="O626" t="n">
         <v>14000</v>
       </c>
       <c r="P626" t="n">
-        <v>13500</v>
+        <v>13270</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>640</v>
+        <v>432</v>
       </c>
       <c r="N627" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P627" t="n">
-        <v>13406</v>
+        <v>15500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>670</v>
+        <v>775</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>640</v>
+        <v>1120</v>
       </c>
       <c r="N628" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O628" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P628" t="n">
-        <v>14562</v>
+        <v>11500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>728</v>
+        <v>575</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="N629" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O629" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P629" t="n">
-        <v>16529</v>
+        <v>13500</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>826</v>
+        <v>675</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="N630" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O630" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P630" t="n">
-        <v>8441</v>
+        <v>13406</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>422</v>
+        <v>670</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50847,13 +50847,13 @@
         <v>640</v>
       </c>
       <c r="N631" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O631" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P631" t="n">
-        <v>9281</v>
+        <v>14562</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>464</v>
+        <v>728</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O632" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P632" t="n">
-        <v>10560</v>
+        <v>16529</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>528</v>
+        <v>826</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1080</v>
+        <v>680</v>
       </c>
       <c r="N633" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O633" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P633" t="n">
-        <v>11556</v>
+        <v>8441</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>578</v>
+        <v>422</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>750</v>
+        <v>640</v>
       </c>
       <c r="N634" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="P634" t="n">
-        <v>19400</v>
+        <v>9281</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>970</v>
+        <v>464</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N635" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P635" t="n">
-        <v>8800</v>
+        <v>10560</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="N636" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P636" t="n">
-        <v>9775</v>
+        <v>11556</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51315,25 +51315,25 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="N637" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O637" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P637" t="n">
-        <v>11633</v>
+        <v>19400</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>582</v>
+        <v>970</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N638" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O638" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P638" t="n">
-        <v>12333</v>
+        <v>8800</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>617</v>
+        <v>440</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51487,13 +51487,13 @@
         <v>400</v>
       </c>
       <c r="N639" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O639" t="n">
         <v>10000</v>
       </c>
-      <c r="O639" t="n">
-        <v>11000</v>
-      </c>
       <c r="P639" t="n">
-        <v>10550</v>
+        <v>9775</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,7 +51564,7 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="N640" t="n">
         <v>11000</v>
@@ -51573,7 +51573,7 @@
         <v>12000</v>
       </c>
       <c r="P640" t="n">
-        <v>11576</v>
+        <v>11633</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,7 +51644,7 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1440</v>
+        <v>960</v>
       </c>
       <c r="N641" t="n">
         <v>12000</v>
@@ -51653,7 +51653,7 @@
         <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>12590</v>
+        <v>12333</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N642" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O642" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P642" t="n">
-        <v>19636</v>
+        <v>10550</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>982</v>
+        <v>528</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="N643" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O643" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>7773</v>
+        <v>11576</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>389</v>
+        <v>579</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="N644" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O644" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P644" t="n">
-        <v>8792</v>
+        <v>12590</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>440</v>
+        <v>630</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1420</v>
+        <v>220</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P645" t="n">
-        <v>9620</v>
+        <v>19636</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>481</v>
+        <v>982</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N646" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O646" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P646" t="n">
-        <v>11600</v>
+        <v>7773</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>580</v>
+        <v>389</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N647" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="O647" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P647" t="n">
-        <v>21450</v>
+        <v>8792</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1072</v>
+        <v>440</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,11 +52200,11 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>420</v>
+        <v>1420</v>
       </c>
       <c r="N648" t="n">
         <v>9000</v>
@@ -52213,7 +52213,7 @@
         <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>9571</v>
+        <v>9620</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N649" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O649" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P649" t="n">
-        <v>10393</v>
+        <v>11600</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N650" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O650" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P650" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N651" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O651" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P651" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,25 +52515,25 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="N652" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O652" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P652" t="n">
-        <v>19571</v>
+        <v>10393</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>979</v>
+        <v>520</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>830</v>
+        <v>620</v>
       </c>
       <c r="N653" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O653" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P653" t="n">
-        <v>8542</v>
+        <v>13548</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>427</v>
+        <v>677</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="N654" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O654" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P654" t="n">
-        <v>8725</v>
+        <v>14458</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>436</v>
+        <v>723</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52755,25 +52755,25 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="N655" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P655" t="n">
-        <v>9823</v>
+        <v>19571</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>491</v>
+        <v>979</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="N656" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O656" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P656" t="n">
-        <v>10429</v>
+        <v>8542</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N657" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="O657" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>16000</v>
+        <v>8725</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>800</v>
+        <v>436</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,11 +53000,11 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>680</v>
+        <v>620</v>
       </c>
       <c r="N658" t="n">
         <v>9500</v>
@@ -53013,7 +53013,7 @@
         <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>9706</v>
+        <v>9823</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,11 +53080,11 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="N659" t="n">
         <v>10000</v>
@@ -53093,7 +53093,7 @@
         <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>10462</v>
+        <v>10429</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>1760</v>
+        <v>40</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O660" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P660" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="N661" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O661" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P661" t="n">
-        <v>11636</v>
+        <v>9706</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>582</v>
+        <v>485</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>640</v>
+        <v>1040</v>
       </c>
       <c r="N662" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O662" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P662" t="n">
-        <v>14562</v>
+        <v>10462</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>728</v>
+        <v>523</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53404,16 +53404,16 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>840</v>
+        <v>1760</v>
       </c>
       <c r="N663" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P663" t="n">
-        <v>15524</v>
+        <v>12500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N664" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O664" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P664" t="n">
-        <v>16000</v>
+        <v>11636</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>800</v>
+        <v>582</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>50</v>
+        <v>640</v>
       </c>
       <c r="N665" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O665" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P665" t="n">
-        <v>20000</v>
+        <v>14562</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1000</v>
+        <v>728</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="N666" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O666" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P666" t="n">
-        <v>11550</v>
+        <v>15524</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>578</v>
+        <v>776</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>760</v>
+        <v>280</v>
       </c>
       <c r="N667" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O667" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P667" t="n">
-        <v>13632</v>
+        <v>16000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>682</v>
+        <v>800</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N668" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O668" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P668" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N669" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O669" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P669" t="n">
-        <v>8583</v>
+        <v>11550</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>429</v>
+        <v>578</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="N670" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O670" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P670" t="n">
-        <v>8412</v>
+        <v>13632</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>421</v>
+        <v>682</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1600</v>
+        <v>60</v>
       </c>
       <c r="N671" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O671" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P671" t="n">
-        <v>10612</v>
+        <v>14000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>531</v>
+        <v>700</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="N672" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O672" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P672" t="n">
-        <v>19182</v>
+        <v>8583</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>959</v>
+        <v>429</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="N673" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O673" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P673" t="n">
-        <v>13560</v>
+        <v>8412</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>678</v>
+        <v>421</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="N674" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O674" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P674" t="n">
-        <v>14562</v>
+        <v>10612</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>728</v>
+        <v>531</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="N675" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O675" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P675" t="n">
-        <v>14400</v>
+        <v>19182</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>720</v>
+        <v>959</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="N676" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O676" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P676" t="n">
-        <v>16000</v>
+        <v>13560</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,11 +54520,11 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>820</v>
+        <v>640</v>
       </c>
       <c r="N677" t="n">
         <v>14000</v>
@@ -54533,7 +54533,7 @@
         <v>15000</v>
       </c>
       <c r="P677" t="n">
-        <v>14512</v>
+        <v>14562</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="N678" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O678" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P678" t="n">
-        <v>16328</v>
+        <v>14400</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>816</v>
+        <v>720</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="N679" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O679" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P679" t="n">
-        <v>18455</v>
+        <v>16000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>923</v>
+        <v>800</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>320</v>
+        <v>820</v>
       </c>
       <c r="N680" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O680" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P680" t="n">
-        <v>10562</v>
+        <v>14512</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>528</v>
+        <v>726</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>1180</v>
+        <v>1800</v>
       </c>
       <c r="N681" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O681" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P681" t="n">
-        <v>12492</v>
+        <v>16328</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>625</v>
+        <v>816</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>1040</v>
+        <v>220</v>
       </c>
       <c r="N682" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O682" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P682" t="n">
-        <v>13538</v>
+        <v>18455</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>677</v>
+        <v>923</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,25 +54995,25 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="N683" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O683" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P683" t="n">
-        <v>15000</v>
+        <v>10562</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>380</v>
+        <v>1180</v>
       </c>
       <c r="N684" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O684" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>11526</v>
+        <v>12492</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,7 +55164,7 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>780</v>
+        <v>1040</v>
       </c>
       <c r="N685" t="n">
         <v>13000</v>
@@ -55173,7 +55173,7 @@
         <v>14000</v>
       </c>
       <c r="P685" t="n">
-        <v>13487</v>
+        <v>13538</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N686" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O686" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P686" t="n">
-        <v>12550</v>
+        <v>15000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>628</v>
+        <v>750</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>1420</v>
+        <v>380</v>
       </c>
       <c r="N687" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O687" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P687" t="n">
-        <v>13599</v>
+        <v>11526</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>680</v>
+        <v>576</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>140</v>
+        <v>780</v>
       </c>
       <c r="N688" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O688" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P688" t="n">
-        <v>20857</v>
+        <v>13487</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1043</v>
+        <v>674</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N689" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O689" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P689" t="n">
-        <v>9737</v>
+        <v>12550</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>487</v>
+        <v>628</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="N690" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O690" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P690" t="n">
-        <v>10406</v>
+        <v>13599</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="N691" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O691" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P691" t="n">
-        <v>9364</v>
+        <v>20857</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>468</v>
+        <v>1043</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1080</v>
+        <v>380</v>
       </c>
       <c r="N692" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O692" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P692" t="n">
-        <v>12546</v>
+        <v>9737</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>627</v>
+        <v>487</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N693" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O693" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P693" t="n">
-        <v>14000</v>
+        <v>10406</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="N694" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O694" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P694" t="n">
-        <v>16625</v>
+        <v>9364</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>831</v>
+        <v>468</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="N695" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O695" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P695" t="n">
-        <v>10300</v>
+        <v>12546</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>515</v>
+        <v>627</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N696" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O696" t="n">
         <v>14000</v>
       </c>
       <c r="P696" t="n">
-        <v>13577</v>
+        <v>14000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>620</v>
+        <v>320</v>
       </c>
       <c r="N697" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O697" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P697" t="n">
-        <v>14548</v>
+        <v>16625</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>727</v>
+        <v>831</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N698" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O698" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P698" t="n">
-        <v>8452</v>
+        <v>10300</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="N699" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O699" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P699" t="n">
-        <v>9556</v>
+        <v>13577</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>478</v>
+        <v>679</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="N700" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O700" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P700" t="n">
-        <v>11562</v>
+        <v>14548</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>578</v>
+        <v>727</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56440,35 +56440,275 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M701" t="n">
+        <v>620</v>
+      </c>
+      <c r="N701" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O701" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P701" t="n">
+        <v>8452</v>
+      </c>
+      <c r="Q701" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R701" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S701" t="n">
+        <v>423</v>
+      </c>
+      <c r="T701" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>9</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D702" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E702" t="n">
+        <v>13</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G702" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I702" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M702" t="n">
+        <v>540</v>
+      </c>
+      <c r="N702" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O702" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P702" t="n">
+        <v>9556</v>
+      </c>
+      <c r="Q702" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R702" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S702" t="n">
+        <v>478</v>
+      </c>
+      <c r="T702" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>9</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D703" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E703" t="n">
+        <v>13</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G703" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I703" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M703" t="n">
+        <v>640</v>
+      </c>
+      <c r="N703" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O703" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P703" t="n">
+        <v>11562</v>
+      </c>
+      <c r="Q703" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R703" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S703" t="n">
+        <v>578</v>
+      </c>
+      <c r="T703" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>9</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D704" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E704" t="n">
+        <v>13</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G704" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M701" t="n">
+      <c r="M704" t="n">
         <v>980</v>
       </c>
-      <c r="N701" t="n">
+      <c r="N704" t="n">
         <v>12000</v>
       </c>
-      <c r="O701" t="n">
+      <c r="O704" t="n">
         <v>13000</v>
       </c>
-      <c r="P701" t="n">
+      <c r="P704" t="n">
         <v>12592</v>
       </c>
-      <c r="Q701" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R701" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S701" t="n">
+      <c r="Q704" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R704" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S704" t="n">
         <v>630</v>
       </c>
-      <c r="T701" t="n">
+      <c r="T704" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T721"/>
+  <dimension ref="A1:T723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N626" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O626" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="P626" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O627" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P627" t="n">
-        <v>14560</v>
+        <v>25000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>728</v>
+        <v>1250</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="N628" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O628" t="n">
         <v>17000</v>
       </c>
       <c r="P628" t="n">
-        <v>16604</v>
+        <v>17000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50684,16 +50684,16 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>1680</v>
+        <v>500</v>
       </c>
       <c r="N629" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O629" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P629" t="n">
-        <v>9500</v>
+        <v>14560</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>475</v>
+        <v>728</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="N630" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O630" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P630" t="n">
-        <v>10500</v>
+        <v>16604</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>525</v>
+        <v>830</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,25 +50835,25 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>324</v>
+        <v>1680</v>
       </c>
       <c r="N631" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P631" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1025</v>
+        <v>475</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N632" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O632" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P632" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1120</v>
+        <v>324</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O633" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P633" t="n">
-        <v>8500</v>
+        <v>20500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N634" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O634" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P634" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>370</v>
+        <v>1120</v>
       </c>
       <c r="N635" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O635" t="n">
         <v>9000</v>
       </c>
-      <c r="O635" t="n">
-        <v>10000</v>
-      </c>
       <c r="P635" t="n">
-        <v>9459</v>
+        <v>8500</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>620</v>
+        <v>800</v>
       </c>
       <c r="N636" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O636" t="n">
         <v>11000</v>
       </c>
-      <c r="O636" t="n">
-        <v>12000</v>
-      </c>
       <c r="P636" t="n">
-        <v>11548</v>
+        <v>10500</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1440</v>
+        <v>370</v>
       </c>
       <c r="N637" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O637" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>14701</v>
+        <v>9459</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>735</v>
+        <v>473</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="N638" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O638" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P638" t="n">
-        <v>8792</v>
+        <v>11548</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>440</v>
+        <v>577</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>400</v>
+        <v>1440</v>
       </c>
       <c r="N639" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O639" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P639" t="n">
-        <v>9225</v>
+        <v>14701</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>461</v>
+        <v>735</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="N640" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O640" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P640" t="n">
-        <v>13556</v>
+        <v>8792</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>678</v>
+        <v>440</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1040</v>
+        <v>400</v>
       </c>
       <c r="N641" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P641" t="n">
-        <v>14538</v>
+        <v>9225</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>727</v>
+        <v>461</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1420</v>
+        <v>630</v>
       </c>
       <c r="N642" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O642" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>12577</v>
+        <v>13556</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>629</v>
+        <v>678</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>1480</v>
+        <v>1040</v>
       </c>
       <c r="N643" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O643" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P643" t="n">
-        <v>13270</v>
+        <v>14538</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>664</v>
+        <v>727</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>432</v>
+        <v>1420</v>
       </c>
       <c r="N644" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O644" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P644" t="n">
-        <v>15500</v>
+        <v>12577</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>775</v>
+        <v>629</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1120</v>
+        <v>1480</v>
       </c>
       <c r="N645" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O645" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P645" t="n">
-        <v>11500</v>
+        <v>13270</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>575</v>
+        <v>664</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>800</v>
+        <v>432</v>
       </c>
       <c r="N646" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O646" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P646" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>640</v>
+        <v>1120</v>
       </c>
       <c r="N647" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O647" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P647" t="n">
-        <v>13406</v>
+        <v>11500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N648" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O648" t="n">
         <v>14000</v>
       </c>
-      <c r="O648" t="n">
-        <v>15000</v>
-      </c>
       <c r="P648" t="n">
-        <v>14562</v>
+        <v>13500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>728</v>
+        <v>675</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>850</v>
+        <v>640</v>
       </c>
       <c r="N649" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O649" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P649" t="n">
-        <v>16529</v>
+        <v>13406</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>826</v>
+        <v>670</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="N650" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O650" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>8441</v>
+        <v>14562</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>422</v>
+        <v>728</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>640</v>
+        <v>850</v>
       </c>
       <c r="N651" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O651" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="P651" t="n">
-        <v>9281</v>
+        <v>16529</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>464</v>
+        <v>826</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="N652" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O652" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P652" t="n">
-        <v>10560</v>
+        <v>8441</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>1080</v>
+        <v>640</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O653" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P653" t="n">
-        <v>11556</v>
+        <v>9281</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>578</v>
+        <v>464</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N654" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P654" t="n">
-        <v>19400</v>
+        <v>10560</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>970</v>
+        <v>528</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="N655" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O655" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P655" t="n">
-        <v>8800</v>
+        <v>11556</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52835,25 +52835,25 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N656" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O656" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P656" t="n">
-        <v>9775</v>
+        <v>19400</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>489</v>
+        <v>970</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N657" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>11633</v>
+        <v>8800</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N658" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O658" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>12333</v>
+        <v>9775</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>617</v>
+        <v>489</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N659" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O659" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P659" t="n">
-        <v>10550</v>
+        <v>11633</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="N660" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P660" t="n">
-        <v>11576</v>
+        <v>12333</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>1440</v>
+        <v>400</v>
       </c>
       <c r="N661" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O661" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P661" t="n">
-        <v>12590</v>
+        <v>10550</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>630</v>
+        <v>528</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="N662" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O662" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P662" t="n">
-        <v>19636</v>
+        <v>11576</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>982</v>
+        <v>579</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>550</v>
+        <v>1440</v>
       </c>
       <c r="N663" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P663" t="n">
-        <v>7773</v>
+        <v>12590</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>389</v>
+        <v>630</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>960</v>
+        <v>220</v>
       </c>
       <c r="N664" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="O664" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P664" t="n">
-        <v>8792</v>
+        <v>19636</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>440</v>
+        <v>982</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>1420</v>
+        <v>550</v>
       </c>
       <c r="N665" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>9620</v>
+        <v>7773</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>481</v>
+        <v>389</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>200</v>
+        <v>960</v>
       </c>
       <c r="N666" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O666" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P666" t="n">
-        <v>11600</v>
+        <v>8792</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>400</v>
+        <v>1420</v>
       </c>
       <c r="N667" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O667" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P667" t="n">
-        <v>21450</v>
+        <v>9620</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1072</v>
+        <v>481</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="N668" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O668" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P668" t="n">
-        <v>9571</v>
+        <v>11600</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N669" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O669" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P669" t="n">
-        <v>10393</v>
+        <v>21450</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>520</v>
+        <v>1072</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="N670" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O670" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P670" t="n">
-        <v>13548</v>
+        <v>9571</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>677</v>
+        <v>479</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>830</v>
+        <v>560</v>
       </c>
       <c r="N671" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O671" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P671" t="n">
-        <v>14458</v>
+        <v>10393</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="N672" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O672" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P672" t="n">
-        <v>19571</v>
+        <v>13548</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>979</v>
+        <v>677</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M673" t="n">
         <v>830</v>
       </c>
       <c r="N673" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O673" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P673" t="n">
-        <v>8542</v>
+        <v>14458</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>427</v>
+        <v>723</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N674" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="O674" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P674" t="n">
-        <v>8725</v>
+        <v>19571</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>436</v>
+        <v>979</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>620</v>
+        <v>830</v>
       </c>
       <c r="N675" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O675" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P675" t="n">
-        <v>9823</v>
+        <v>8542</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
       <c r="N676" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O676" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P676" t="n">
-        <v>10429</v>
+        <v>8725</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>521</v>
+        <v>436</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54515,25 +54515,25 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>40</v>
+        <v>620</v>
       </c>
       <c r="N677" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O677" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P677" t="n">
-        <v>16000</v>
+        <v>9823</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>800</v>
+        <v>491</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="N678" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O678" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P678" t="n">
-        <v>9706</v>
+        <v>10429</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>1040</v>
+        <v>40</v>
       </c>
       <c r="N679" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O679" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P679" t="n">
-        <v>10462</v>
+        <v>16000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>523</v>
+        <v>800</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>1760</v>
+        <v>680</v>
       </c>
       <c r="N680" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O680" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P680" t="n">
-        <v>12500</v>
+        <v>9706</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>625</v>
+        <v>485</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>220</v>
+        <v>1040</v>
       </c>
       <c r="N681" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O681" t="n">
         <v>11000</v>
       </c>
-      <c r="O681" t="n">
-        <v>12000</v>
-      </c>
       <c r="P681" t="n">
-        <v>11636</v>
+        <v>10462</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>640</v>
+        <v>1760</v>
       </c>
       <c r="N682" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O682" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P682" t="n">
-        <v>14562</v>
+        <v>12500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>728</v>
+        <v>625</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>840</v>
+        <v>220</v>
       </c>
       <c r="N683" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O683" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>15524</v>
+        <v>11636</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>776</v>
+        <v>582</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>280</v>
+        <v>640</v>
       </c>
       <c r="N684" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O684" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P684" t="n">
-        <v>16000</v>
+        <v>14562</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>50</v>
+        <v>840</v>
       </c>
       <c r="N685" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O685" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P685" t="n">
-        <v>20000</v>
+        <v>15524</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1000</v>
+        <v>776</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O686" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P686" t="n">
-        <v>11550</v>
+        <v>16000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>760</v>
+        <v>50</v>
       </c>
       <c r="N687" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O687" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P687" t="n">
-        <v>13632</v>
+        <v>20000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>682</v>
+        <v>1000</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,25 +55395,25 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N688" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O688" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P688" t="n">
-        <v>14000</v>
+        <v>11550</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>700</v>
+        <v>578</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>480</v>
+        <v>760</v>
       </c>
       <c r="N689" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O689" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P689" t="n">
-        <v>8583</v>
+        <v>13632</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>429</v>
+        <v>682</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55555,25 +55555,25 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>680</v>
+        <v>60</v>
       </c>
       <c r="N690" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O690" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P690" t="n">
-        <v>8412</v>
+        <v>14000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>421</v>
+        <v>700</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>1600</v>
+        <v>480</v>
       </c>
       <c r="N691" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O691" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P691" t="n">
-        <v>10612</v>
+        <v>8583</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>531</v>
+        <v>429</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,25 +55715,25 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N692" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O692" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P692" t="n">
-        <v>19182</v>
+        <v>8412</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>959</v>
+        <v>421</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="N693" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O693" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P693" t="n">
-        <v>13560</v>
+        <v>10612</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>678</v>
+        <v>531</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55875,25 +55875,25 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="N694" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O694" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P694" t="n">
-        <v>14562</v>
+        <v>19182</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>728</v>
+        <v>959</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N695" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O695" t="n">
         <v>14000</v>
       </c>
-      <c r="O695" t="n">
-        <v>15000</v>
-      </c>
       <c r="P695" t="n">
-        <v>14400</v>
+        <v>13560</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>25</v>
+        <v>640</v>
       </c>
       <c r="N696" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O696" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P696" t="n">
-        <v>16000</v>
+        <v>14562</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,11 +56120,11 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>820</v>
+        <v>250</v>
       </c>
       <c r="N697" t="n">
         <v>14000</v>
@@ -56133,7 +56133,7 @@
         <v>15000</v>
       </c>
       <c r="P697" t="n">
-        <v>14512</v>
+        <v>14400</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>1800</v>
+        <v>25</v>
       </c>
       <c r="N698" t="n">
         <v>16000</v>
       </c>
       <c r="O698" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P698" t="n">
-        <v>16328</v>
+        <v>16000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>220</v>
+        <v>820</v>
       </c>
       <c r="N699" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O699" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P699" t="n">
-        <v>18455</v>
+        <v>14512</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>923</v>
+        <v>726</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>320</v>
+        <v>1800</v>
       </c>
       <c r="N700" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O700" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P700" t="n">
-        <v>10562</v>
+        <v>16328</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>528</v>
+        <v>816</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>1180</v>
+        <v>220</v>
       </c>
       <c r="N701" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O701" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P701" t="n">
-        <v>12492</v>
+        <v>18455</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>625</v>
+        <v>923</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>1040</v>
+        <v>320</v>
       </c>
       <c r="N702" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O702" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P702" t="n">
-        <v>13538</v>
+        <v>10562</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>677</v>
+        <v>528</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>40</v>
+        <v>1180</v>
       </c>
       <c r="N703" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O703" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P703" t="n">
-        <v>15000</v>
+        <v>12492</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>380</v>
+        <v>1040</v>
       </c>
       <c r="N704" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O704" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P704" t="n">
-        <v>11526</v>
+        <v>13538</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>576</v>
+        <v>677</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56755,25 +56755,25 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>780</v>
+        <v>40</v>
       </c>
       <c r="N705" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O705" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P705" t="n">
-        <v>13487</v>
+        <v>15000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N706" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O706" t="n">
         <v>12000</v>
       </c>
-      <c r="O706" t="n">
-        <v>13000</v>
-      </c>
       <c r="P706" t="n">
-        <v>12550</v>
+        <v>11526</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>628</v>
+        <v>576</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56924,7 +56924,7 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>1420</v>
+        <v>780</v>
       </c>
       <c r="N707" t="n">
         <v>13000</v>
@@ -56933,7 +56933,7 @@
         <v>14000</v>
       </c>
       <c r="P707" t="n">
-        <v>13599</v>
+        <v>13487</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,25 +56995,25 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="N708" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O708" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P708" t="n">
-        <v>20857</v>
+        <v>12550</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1043</v>
+        <v>628</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>380</v>
+        <v>1420</v>
       </c>
       <c r="N709" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O709" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P709" t="n">
-        <v>9737</v>
+        <v>13599</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>487</v>
+        <v>680</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>640</v>
+        <v>140</v>
       </c>
       <c r="N710" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O710" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P710" t="n">
-        <v>10406</v>
+        <v>20857</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>520</v>
+        <v>1043</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="N711" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O711" t="n">
         <v>10000</v>
       </c>
       <c r="P711" t="n">
-        <v>9364</v>
+        <v>9737</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57324,16 +57324,16 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1080</v>
+        <v>640</v>
       </c>
       <c r="N712" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O712" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P712" t="n">
-        <v>12546</v>
+        <v>10406</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>627</v>
+        <v>520</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57400,20 +57400,20 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N713" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O713" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P713" t="n">
-        <v>14000</v>
+        <v>9364</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>700</v>
+        <v>468</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>320</v>
+        <v>1080</v>
       </c>
       <c r="N714" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O714" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P714" t="n">
-        <v>16625</v>
+        <v>12546</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>831</v>
+        <v>627</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N715" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O715" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P715" t="n">
-        <v>10300</v>
+        <v>14000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>515</v>
+        <v>700</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="N716" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O716" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P716" t="n">
-        <v>13577</v>
+        <v>16625</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>679</v>
+        <v>831</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N717" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O717" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P717" t="n">
-        <v>14548</v>
+        <v>10300</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>727</v>
+        <v>515</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="N718" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O718" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P718" t="n">
-        <v>8452</v>
+        <v>13577</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>423</v>
+        <v>679</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="N719" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O719" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P719" t="n">
-        <v>9556</v>
+        <v>14548</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>478</v>
+        <v>727</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="N720" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O720" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P720" t="n">
-        <v>11562</v>
+        <v>8452</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>578</v>
+        <v>423</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58040,35 +58040,195 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M721" t="n">
+        <v>540</v>
+      </c>
+      <c r="N721" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O721" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P721" t="n">
+        <v>9556</v>
+      </c>
+      <c r="Q721" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S721" t="n">
+        <v>478</v>
+      </c>
+      <c r="T721" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>9</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D722" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E722" t="n">
+        <v>13</v>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I722" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M722" t="n">
+        <v>640</v>
+      </c>
+      <c r="N722" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O722" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P722" t="n">
+        <v>11562</v>
+      </c>
+      <c r="Q722" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R722" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S722" t="n">
+        <v>578</v>
+      </c>
+      <c r="T722" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>9</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D723" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E723" t="n">
+        <v>13</v>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G723" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I723" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M721" t="n">
+      <c r="M723" t="n">
         <v>980</v>
       </c>
-      <c r="N721" t="n">
+      <c r="N723" t="n">
         <v>12000</v>
       </c>
-      <c r="O721" t="n">
+      <c r="O723" t="n">
         <v>13000</v>
       </c>
-      <c r="P721" t="n">
+      <c r="P723" t="n">
         <v>12592</v>
       </c>
-      <c r="Q721" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R721" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S721" t="n">
+      <c r="Q723" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S723" t="n">
         <v>630</v>
       </c>
-      <c r="T721" t="n">
+      <c r="T723" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T747"/>
+  <dimension ref="A1:T750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51484,16 +51484,16 @@
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1120</v>
+        <v>500</v>
       </c>
       <c r="N639" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O639" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P639" t="n">
-        <v>9500</v>
+        <v>13600</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>880</v>
+        <v>580</v>
       </c>
       <c r="N640" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O640" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P640" t="n">
-        <v>11455</v>
+        <v>14483</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>573</v>
+        <v>724</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="N641" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P641" t="n">
-        <v>7722</v>
+        <v>15443</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,17 +51724,17 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>900</v>
+        <v>1120</v>
       </c>
       <c r="N642" t="n">
         <v>9000</v>
       </c>
       <c r="O642" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P642" t="n">
         <v>9500</v>
       </c>
-      <c r="P642" t="n">
-        <v>9211</v>
-      </c>
       <c r="Q642" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>60</v>
+        <v>880</v>
       </c>
       <c r="N643" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O643" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>15000</v>
+        <v>11455</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>750</v>
+        <v>573</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1160</v>
+        <v>630</v>
       </c>
       <c r="N644" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O644" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P644" t="n">
-        <v>10741</v>
+        <v>7722</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="N645" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O645" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="P645" t="n">
-        <v>24000</v>
+        <v>9211</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1200</v>
+        <v>461</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N646" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O646" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P646" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>400</v>
+        <v>1160</v>
       </c>
       <c r="N647" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O647" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P647" t="n">
-        <v>21450</v>
+        <v>10741</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1072</v>
+        <v>537</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="N648" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O648" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P648" t="n">
-        <v>9571</v>
+        <v>24000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>479</v>
+        <v>1200</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N649" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O649" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P649" t="n">
-        <v>10393</v>
+        <v>25000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>520</v>
+        <v>1250</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N650" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O650" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P650" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N651" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O651" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P651" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="N652" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O652" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P652" t="n">
-        <v>8295</v>
+        <v>10393</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>900</v>
+        <v>620</v>
       </c>
       <c r="N653" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O653" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P653" t="n">
-        <v>9278</v>
+        <v>13548</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>464</v>
+        <v>677</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="N654" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O654" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="P654" t="n">
-        <v>11306</v>
+        <v>14458</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>565</v>
+        <v>723</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>1180</v>
+        <v>440</v>
       </c>
       <c r="N655" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O655" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P655" t="n">
-        <v>12153</v>
+        <v>8295</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>608</v>
+        <v>415</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="N656" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O656" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P656" t="n">
-        <v>7412</v>
+        <v>9278</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O657" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P657" t="n">
-        <v>10455</v>
+        <v>11306</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>1040</v>
+        <v>1180</v>
       </c>
       <c r="N658" t="n">
         <v>11000</v>
       </c>
       <c r="O658" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P658" t="n">
-        <v>11462</v>
+        <v>12153</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N659" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O659" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P659" t="n">
-        <v>13562</v>
+        <v>7412</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>678</v>
+        <v>371</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>450</v>
+        <v>880</v>
       </c>
       <c r="N660" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O660" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P660" t="n">
-        <v>19444</v>
+        <v>10455</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>680</v>
+        <v>1040</v>
       </c>
       <c r="N661" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O661" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P661" t="n">
-        <v>18000</v>
+        <v>11462</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>900</v>
+        <v>573</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="N662" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O662" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P662" t="n">
-        <v>19000</v>
+        <v>13562</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>950</v>
+        <v>678</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N663" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O663" t="n">
         <v>20000</v>
       </c>
       <c r="P663" t="n">
-        <v>20000</v>
+        <v>19444</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N664" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O664" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P664" t="n">
-        <v>14589</v>
+        <v>18000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="N665" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O665" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P665" t="n">
-        <v>16520</v>
+        <v>19000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>826</v>
+        <v>950</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="N666" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O666" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P666" t="n">
-        <v>12510</v>
+        <v>20000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>626</v>
+        <v>1000</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N667" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O667" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P667" t="n">
-        <v>12667</v>
+        <v>14589</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>1240</v>
+        <v>2000</v>
       </c>
       <c r="N668" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O668" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P668" t="n">
-        <v>14677</v>
+        <v>16520</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="N669" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O669" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P669" t="n">
-        <v>19636</v>
+        <v>12510</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>982</v>
+        <v>626</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N670" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O670" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P670" t="n">
-        <v>7773</v>
+        <v>12667</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>389</v>
+        <v>633</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>960</v>
+        <v>1240</v>
       </c>
       <c r="N671" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O671" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P671" t="n">
-        <v>8792</v>
+        <v>14677</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>440</v>
+        <v>734</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>1420</v>
+        <v>220</v>
       </c>
       <c r="N672" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O672" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P672" t="n">
-        <v>9620</v>
+        <v>19636</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>481</v>
+        <v>982</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N673" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O673" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P673" t="n">
-        <v>11600</v>
+        <v>7773</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>580</v>
+        <v>389</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N674" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O674" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P674" t="n">
-        <v>12550</v>
+        <v>8792</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>628</v>
+        <v>440</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54367,13 +54367,13 @@
         <v>1420</v>
       </c>
       <c r="N675" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O675" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P675" t="n">
-        <v>13599</v>
+        <v>9620</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>680</v>
+        <v>481</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N676" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O676" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P676" t="n">
-        <v>17571</v>
+        <v>11600</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>879</v>
+        <v>580</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N677" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O677" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P677" t="n">
-        <v>20474</v>
+        <v>12550</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1024</v>
+        <v>628</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="N678" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O678" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P678" t="n">
-        <v>21562</v>
+        <v>13599</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>1078</v>
+        <v>680</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="N679" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O679" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P679" t="n">
-        <v>19000</v>
+        <v>17571</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>950</v>
+        <v>879</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N680" t="n">
         <v>20000</v>
       </c>
       <c r="O680" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P680" t="n">
-        <v>20000</v>
+        <v>20474</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="N681" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O681" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P681" t="n">
-        <v>23000</v>
+        <v>21562</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1150</v>
+        <v>1078</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N682" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O682" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="P682" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N683" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O683" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P683" t="n">
-        <v>11545</v>
+        <v>20000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>577</v>
+        <v>1000</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="N684" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="O684" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P684" t="n">
-        <v>11731</v>
+        <v>23000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>587</v>
+        <v>1150</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>1480</v>
+        <v>480</v>
       </c>
       <c r="N685" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="O685" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P685" t="n">
-        <v>12838</v>
+        <v>24000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>642</v>
+        <v>1200</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="N686" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O686" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P686" t="n">
-        <v>25000</v>
+        <v>11545</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1250</v>
+        <v>577</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N687" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O687" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P687" t="n">
-        <v>20000</v>
+        <v>11731</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>1000</v>
+        <v>587</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>350</v>
+        <v>1480</v>
       </c>
       <c r="N688" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O688" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P688" t="n">
-        <v>21000</v>
+        <v>12838</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1050</v>
+        <v>642</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N689" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O689" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="P689" t="n">
-        <v>9273</v>
+        <v>25000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="N690" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O690" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P690" t="n">
-        <v>9581</v>
+        <v>20000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N691" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O691" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="P691" t="n">
-        <v>11260</v>
+        <v>21000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>563</v>
+        <v>1050</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1340</v>
+        <v>440</v>
       </c>
       <c r="N692" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O692" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P692" t="n">
-        <v>11515</v>
+        <v>9273</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="N693" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O693" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P693" t="n">
-        <v>18429</v>
+        <v>9581</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>921</v>
+        <v>479</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55884,16 +55884,16 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N694" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O694" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="P694" t="n">
-        <v>18475</v>
+        <v>11260</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>924</v>
+        <v>563</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>880</v>
+        <v>1340</v>
       </c>
       <c r="N695" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O695" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P695" t="n">
-        <v>20455</v>
+        <v>11515</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>1023</v>
+        <v>576</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N696" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O696" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P696" t="n">
-        <v>17000</v>
+        <v>18429</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N697" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O697" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P697" t="n">
-        <v>9459</v>
+        <v>18475</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="N698" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O698" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P698" t="n">
-        <v>11548</v>
+        <v>20455</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>577</v>
+        <v>1023</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>1440</v>
+        <v>80</v>
       </c>
       <c r="N699" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O699" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P699" t="n">
-        <v>14701</v>
+        <v>17000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56364,7 +56364,7 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>1680</v>
+        <v>370</v>
       </c>
       <c r="N700" t="n">
         <v>9000</v>
@@ -56373,7 +56373,7 @@
         <v>10000</v>
       </c>
       <c r="P700" t="n">
-        <v>9500</v>
+        <v>9459</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="N701" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O701" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P701" t="n">
-        <v>10500</v>
+        <v>11548</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>340</v>
+        <v>1440</v>
       </c>
       <c r="N702" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O702" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P702" t="n">
-        <v>8294</v>
+        <v>14701</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>415</v>
+        <v>735</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56604,7 +56604,7 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N703" t="n">
         <v>9000</v>
@@ -56613,7 +56613,7 @@
         <v>10000</v>
       </c>
       <c r="P703" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="N704" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O704" t="n">
         <v>11000</v>
       </c>
-      <c r="O704" t="n">
-        <v>12000</v>
-      </c>
       <c r="P704" t="n">
-        <v>11423</v>
+        <v>10500</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>1470</v>
+        <v>340</v>
       </c>
       <c r="N705" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O705" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P705" t="n">
-        <v>12466</v>
+        <v>8294</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>623</v>
+        <v>415</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N706" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O706" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P706" t="n">
-        <v>20000</v>
+        <v>9450</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>1000</v>
+        <v>472</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56920,11 +56920,11 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N707" t="n">
         <v>11000</v>
@@ -56933,7 +56933,7 @@
         <v>12000</v>
       </c>
       <c r="P707" t="n">
-        <v>11550</v>
+        <v>11423</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>760</v>
+        <v>1470</v>
       </c>
       <c r="N708" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O708" t="n">
         <v>13000</v>
       </c>
-      <c r="O708" t="n">
-        <v>14000</v>
-      </c>
       <c r="P708" t="n">
-        <v>13632</v>
+        <v>12466</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N709" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O709" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P709" t="n">
-        <v>9417</v>
+        <v>20000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>471</v>
+        <v>1000</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,11 +57160,11 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N710" t="n">
         <v>11000</v>
@@ -57173,7 +57173,7 @@
         <v>12000</v>
       </c>
       <c r="P710" t="n">
-        <v>11440</v>
+        <v>11550</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57244,16 +57244,16 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>1420</v>
+        <v>760</v>
       </c>
       <c r="N711" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O711" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P711" t="n">
-        <v>12535</v>
+        <v>13632</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="N712" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O712" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P712" t="n">
-        <v>7385</v>
+        <v>9417</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57400,20 +57400,20 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="N713" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O713" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P713" t="n">
-        <v>9588</v>
+        <v>11440</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>479</v>
+        <v>572</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>540</v>
+        <v>1420</v>
       </c>
       <c r="N714" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O714" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P714" t="n">
-        <v>11481</v>
+        <v>12535</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>1690</v>
+        <v>650</v>
       </c>
       <c r="N715" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O715" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P715" t="n">
-        <v>13423</v>
+        <v>7385</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>671</v>
+        <v>369</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N716" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O716" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P716" t="n">
-        <v>22650</v>
+        <v>9588</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1132</v>
+        <v>479</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,11 +57720,11 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>370</v>
+        <v>540</v>
       </c>
       <c r="N717" t="n">
         <v>11000</v>
@@ -57733,7 +57733,7 @@
         <v>12000</v>
       </c>
       <c r="P717" t="n">
-        <v>11459</v>
+        <v>11481</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>260</v>
+        <v>1690</v>
       </c>
       <c r="N718" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O718" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P718" t="n">
-        <v>12538</v>
+        <v>13423</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="N719" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O719" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P719" t="n">
-        <v>14463</v>
+        <v>22650</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>723</v>
+        <v>1132</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="N720" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O720" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P720" t="n">
-        <v>15509</v>
+        <v>11459</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="N721" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O721" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P721" t="n">
-        <v>19500</v>
+        <v>12538</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>975</v>
+        <v>627</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="N722" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O722" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P722" t="n">
-        <v>9000</v>
+        <v>14463</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>450</v>
+        <v>723</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58204,16 +58204,16 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>1520</v>
+        <v>1140</v>
       </c>
       <c r="N723" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O723" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P723" t="n">
-        <v>10368</v>
+        <v>15509</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58284,16 +58284,16 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N724" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O724" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P724" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N725" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O725" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P725" t="n">
-        <v>8342</v>
+        <v>9000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="N726" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O726" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P726" t="n">
-        <v>9571</v>
+        <v>10368</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="N727" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O727" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P727" t="n">
-        <v>10744</v>
+        <v>16000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>537</v>
+        <v>800</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>1790</v>
+        <v>380</v>
       </c>
       <c r="N728" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O728" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P728" t="n">
-        <v>11620</v>
+        <v>8342</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N729" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O729" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>8780</v>
+        <v>9571</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N730" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O730" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P730" t="n">
-        <v>9763</v>
+        <v>10744</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>500</v>
+        <v>1790</v>
       </c>
       <c r="N731" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O731" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P731" t="n">
-        <v>10780</v>
+        <v>11620</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>1460</v>
+        <v>500</v>
       </c>
       <c r="N732" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O732" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P732" t="n">
-        <v>12548</v>
+        <v>8780</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N733" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O733" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P733" t="n">
-        <v>19000</v>
+        <v>9763</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>950</v>
+        <v>488</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N734" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O734" t="n">
         <v>11000</v>
       </c>
-      <c r="O734" t="n">
-        <v>12000</v>
-      </c>
       <c r="P734" t="n">
-        <v>11548</v>
+        <v>10780</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,11 +59160,11 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>680</v>
+        <v>1460</v>
       </c>
       <c r="N735" t="n">
         <v>12000</v>
@@ -59173,7 +59173,7 @@
         <v>13000</v>
       </c>
       <c r="P735" t="n">
-        <v>12412</v>
+        <v>12548</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N736" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O736" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P736" t="n">
-        <v>13631</v>
+        <v>19000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59324,16 +59324,16 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N737" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O737" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P737" t="n">
-        <v>9591</v>
+        <v>11548</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N738" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O738" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>11538</v>
+        <v>12412</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>1040</v>
+        <v>1680</v>
       </c>
       <c r="N739" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O739" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P739" t="n">
-        <v>12538</v>
+        <v>13631</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N740" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O740" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P740" t="n">
-        <v>8500</v>
+        <v>9591</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>1680</v>
+        <v>1040</v>
       </c>
       <c r="N741" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O741" t="n">
         <v>12000</v>
       </c>
       <c r="P741" t="n">
-        <v>11000</v>
+        <v>11538</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N742" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O742" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P742" t="n">
-        <v>16000</v>
+        <v>12538</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="N743" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O743" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P743" t="n">
-        <v>12571</v>
+        <v>8500</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>629</v>
+        <v>425</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59884,16 +59884,16 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N744" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O744" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P744" t="n">
-        <v>13725</v>
+        <v>11000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>686</v>
+        <v>550</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N745" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O745" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P745" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N746" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O746" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P746" t="n">
-        <v>25000</v>
+        <v>12571</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1250</v>
+        <v>629</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60127,28 +60127,268 @@
         <v>400</v>
       </c>
       <c r="N747" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O747" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P747" t="n">
+        <v>13725</v>
+      </c>
+      <c r="Q747" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R747" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S747" t="n">
+        <v>686</v>
+      </c>
+      <c r="T747" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>9</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D748" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E748" t="n">
+        <v>13</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G748" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I748" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M748" t="n">
+        <v>300</v>
+      </c>
+      <c r="N748" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O748" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P748" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q748" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S748" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T748" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>9</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D749" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E749" t="n">
+        <v>13</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G749" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I749" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M749" t="n">
+        <v>380</v>
+      </c>
+      <c r="N749" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O749" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P749" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q749" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R749" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S749" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T749" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>9</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D750" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E750" t="n">
+        <v>13</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I750" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M750" t="n">
+        <v>400</v>
+      </c>
+      <c r="N750" t="n">
         <v>26000</v>
       </c>
-      <c r="O747" t="n">
+      <c r="O750" t="n">
         <v>26000</v>
       </c>
-      <c r="P747" t="n">
+      <c r="P750" t="n">
         <v>26000</v>
       </c>
-      <c r="Q747" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R747" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S747" t="n">
+      <c r="Q750" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S750" t="n">
         <v>1300</v>
       </c>
-      <c r="T747" t="n">
+      <c r="T750" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T750"/>
+  <dimension ref="A1:T754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="N648" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O648" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P648" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N649" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O649" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P649" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,25 +52355,25 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="N650" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O650" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P650" t="n">
-        <v>21450</v>
+        <v>15523</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1072</v>
+        <v>776</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>420</v>
+        <v>1430</v>
       </c>
       <c r="N651" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O651" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P651" t="n">
-        <v>9571</v>
+        <v>16524</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>479</v>
+        <v>826</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>560</v>
+        <v>380</v>
       </c>
       <c r="N652" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O652" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P652" t="n">
-        <v>10393</v>
+        <v>24000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>520</v>
+        <v>1200</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N653" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O653" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P653" t="n">
-        <v>13548</v>
+        <v>25000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>677</v>
+        <v>1250</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="N654" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O654" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P654" t="n">
-        <v>14458</v>
+        <v>21450</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>723</v>
+        <v>1072</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="N655" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>8295</v>
+        <v>9571</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="N656" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O656" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>9278</v>
+        <v>10393</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52924,16 +52924,16 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="N657" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O657" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="P657" t="n">
-        <v>11306</v>
+        <v>13548</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>565</v>
+        <v>677</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>1180</v>
+        <v>830</v>
       </c>
       <c r="N658" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O658" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P658" t="n">
-        <v>12153</v>
+        <v>14458</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>608</v>
+        <v>723</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="N659" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O659" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P659" t="n">
-        <v>7412</v>
+        <v>8295</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="N660" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O660" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="P660" t="n">
-        <v>10455</v>
+        <v>9278</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>1040</v>
+        <v>720</v>
       </c>
       <c r="N661" t="n">
         <v>11000</v>
       </c>
       <c r="O661" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="P661" t="n">
-        <v>11462</v>
+        <v>11306</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>640</v>
+        <v>1180</v>
       </c>
       <c r="N662" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O662" t="n">
         <v>13000</v>
       </c>
-      <c r="O662" t="n">
-        <v>14000</v>
-      </c>
       <c r="P662" t="n">
-        <v>13562</v>
+        <v>12153</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>678</v>
+        <v>608</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>450</v>
+        <v>680</v>
       </c>
       <c r="N663" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O663" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P663" t="n">
-        <v>19444</v>
+        <v>7412</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>972</v>
+        <v>371</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="N664" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O664" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P664" t="n">
-        <v>18000</v>
+        <v>10455</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>900</v>
+        <v>523</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>550</v>
+        <v>1040</v>
       </c>
       <c r="N665" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O665" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P665" t="n">
-        <v>19000</v>
+        <v>11462</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>950</v>
+        <v>573</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="N666" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O666" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P666" t="n">
-        <v>20000</v>
+        <v>13562</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1000</v>
+        <v>678</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>1120</v>
+        <v>450</v>
       </c>
       <c r="N667" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O667" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P667" t="n">
-        <v>14589</v>
+        <v>19444</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>729</v>
+        <v>972</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="N668" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O668" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P668" t="n">
-        <v>16520</v>
+        <v>18000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>826</v>
+        <v>900</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>980</v>
+        <v>550</v>
       </c>
       <c r="N669" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O669" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P669" t="n">
-        <v>12510</v>
+        <v>19000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>626</v>
+        <v>950</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M670" t="n">
         <v>600</v>
       </c>
       <c r="N670" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O670" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P670" t="n">
-        <v>12667</v>
+        <v>20000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>633</v>
+        <v>1000</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,11 +54040,11 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1240</v>
+        <v>1120</v>
       </c>
       <c r="N671" t="n">
         <v>14000</v>
@@ -54053,7 +54053,7 @@
         <v>15000</v>
       </c>
       <c r="P671" t="n">
-        <v>14677</v>
+        <v>14589</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>220</v>
+        <v>2000</v>
       </c>
       <c r="N672" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O672" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P672" t="n">
-        <v>19636</v>
+        <v>16520</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>982</v>
+        <v>826</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>550</v>
+        <v>980</v>
       </c>
       <c r="N673" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O673" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P673" t="n">
-        <v>7773</v>
+        <v>12510</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>389</v>
+        <v>626</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="N674" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O674" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P674" t="n">
-        <v>8792</v>
+        <v>12667</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>440</v>
+        <v>633</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>1420</v>
+        <v>1240</v>
       </c>
       <c r="N675" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O675" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P675" t="n">
-        <v>9620</v>
+        <v>14677</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>481</v>
+        <v>734</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N676" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O676" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P676" t="n">
-        <v>11600</v>
+        <v>19636</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>580</v>
+        <v>982</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N677" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O677" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P677" t="n">
-        <v>12550</v>
+        <v>7773</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>628</v>
+        <v>389</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>1420</v>
+        <v>960</v>
       </c>
       <c r="N678" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O678" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P678" t="n">
-        <v>13599</v>
+        <v>8792</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>560</v>
+        <v>1420</v>
       </c>
       <c r="N679" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O679" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P679" t="n">
-        <v>17571</v>
+        <v>9620</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>879</v>
+        <v>481</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N680" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O680" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P680" t="n">
-        <v>20474</v>
+        <v>11600</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1024</v>
+        <v>580</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="N681" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O681" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P681" t="n">
-        <v>21562</v>
+        <v>12550</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1078</v>
+        <v>628</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>280</v>
+        <v>1420</v>
       </c>
       <c r="N682" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O682" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P682" t="n">
-        <v>19000</v>
+        <v>13599</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>950</v>
+        <v>680</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="N683" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O683" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P683" t="n">
-        <v>20000</v>
+        <v>17571</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1000</v>
+        <v>879</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N684" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O684" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P684" t="n">
-        <v>23000</v>
+        <v>20474</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1150</v>
+        <v>1024</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="N685" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O685" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P685" t="n">
-        <v>24000</v>
+        <v>21562</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>880</v>
+        <v>280</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O686" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P686" t="n">
-        <v>11545</v>
+        <v>19000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>577</v>
+        <v>950</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>1040</v>
+        <v>400</v>
       </c>
       <c r="N687" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O687" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P687" t="n">
-        <v>11731</v>
+        <v>20000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>587</v>
+        <v>1000</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>1480</v>
+        <v>300</v>
       </c>
       <c r="N688" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="O688" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P688" t="n">
-        <v>12838</v>
+        <v>23000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>642</v>
+        <v>1150</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N689" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O689" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P689" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>300</v>
+        <v>880</v>
       </c>
       <c r="N690" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O690" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P690" t="n">
-        <v>20000</v>
+        <v>11545</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1000</v>
+        <v>577</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>350</v>
+        <v>1040</v>
       </c>
       <c r="N691" t="n">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="O691" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P691" t="n">
-        <v>21000</v>
+        <v>11731</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1050</v>
+        <v>587</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>440</v>
+        <v>1480</v>
       </c>
       <c r="N692" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O692" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P692" t="n">
-        <v>9273</v>
+        <v>12838</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>464</v>
+        <v>642</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="N693" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O693" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P693" t="n">
-        <v>9581</v>
+        <v>25000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>479</v>
+        <v>1250</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55884,29 +55884,29 @@
         </is>
       </c>
       <c r="M694" t="n">
+        <v>300</v>
+      </c>
+      <c r="N694" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O694" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P694" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q694" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R694" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S694" t="n">
         <v>1000</v>
-      </c>
-      <c r="N694" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O694" t="n">
-        <v>11500</v>
-      </c>
-      <c r="P694" t="n">
-        <v>11260</v>
-      </c>
-      <c r="Q694" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R694" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S694" t="n">
-        <v>563</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>1340</v>
+        <v>350</v>
       </c>
       <c r="N695" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O695" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P695" t="n">
-        <v>11515</v>
+        <v>21000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>576</v>
+        <v>1050</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="N696" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O696" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="P696" t="n">
-        <v>18429</v>
+        <v>9273</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>921</v>
+        <v>464</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="N697" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O697" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P697" t="n">
-        <v>18475</v>
+        <v>9581</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>924</v>
+        <v>479</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="N698" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O698" t="n">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="P698" t="n">
-        <v>20455</v>
+        <v>11260</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>1023</v>
+        <v>563</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>80</v>
+        <v>1340</v>
       </c>
       <c r="N699" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O699" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P699" t="n">
-        <v>17000</v>
+        <v>11515</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>850</v>
+        <v>576</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="N700" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O700" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P700" t="n">
-        <v>9459</v>
+        <v>18429</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>473</v>
+        <v>921</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56444,16 +56444,16 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>620</v>
+        <v>800</v>
       </c>
       <c r="N701" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O701" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P701" t="n">
-        <v>11548</v>
+        <v>18475</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>577</v>
+        <v>924</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56524,16 +56524,16 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>1440</v>
+        <v>880</v>
       </c>
       <c r="N702" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O702" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P702" t="n">
-        <v>14701</v>
+        <v>20455</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>735</v>
+        <v>1023</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N703" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O703" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P703" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>1200</v>
+        <v>370</v>
       </c>
       <c r="N704" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O704" t="n">
         <v>10000</v>
       </c>
-      <c r="O704" t="n">
-        <v>11000</v>
-      </c>
       <c r="P704" t="n">
-        <v>10500</v>
+        <v>9459</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>340</v>
+        <v>620</v>
       </c>
       <c r="N705" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O705" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P705" t="n">
-        <v>8294</v>
+        <v>11548</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>415</v>
+        <v>577</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>400</v>
+        <v>1440</v>
       </c>
       <c r="N706" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O706" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P706" t="n">
-        <v>9450</v>
+        <v>14701</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>472</v>
+        <v>735</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>780</v>
+        <v>1680</v>
       </c>
       <c r="N707" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O707" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P707" t="n">
-        <v>11423</v>
+        <v>9500</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>571</v>
+        <v>475</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>1470</v>
+        <v>1200</v>
       </c>
       <c r="N708" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O708" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P708" t="n">
-        <v>12466</v>
+        <v>10500</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>623</v>
+        <v>525</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="N709" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O709" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="P709" t="n">
-        <v>20000</v>
+        <v>8294</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>1000</v>
+        <v>415</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57167,13 +57167,13 @@
         <v>400</v>
       </c>
       <c r="N710" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O710" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>11550</v>
+        <v>9450</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>578</v>
+        <v>472</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="N711" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O711" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P711" t="n">
-        <v>13632</v>
+        <v>11423</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>682</v>
+        <v>571</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>480</v>
+        <v>1470</v>
       </c>
       <c r="N712" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O712" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P712" t="n">
-        <v>9417</v>
+        <v>12466</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>471</v>
+        <v>623</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N713" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O713" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P713" t="n">
-        <v>11440</v>
+        <v>20000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>572</v>
+        <v>1000</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>1420</v>
+        <v>400</v>
       </c>
       <c r="N714" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O714" t="n">
         <v>12000</v>
       </c>
-      <c r="O714" t="n">
-        <v>13000</v>
-      </c>
       <c r="P714" t="n">
-        <v>12535</v>
+        <v>11550</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>650</v>
+        <v>760</v>
       </c>
       <c r="N715" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O715" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P715" t="n">
-        <v>7385</v>
+        <v>13632</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>369</v>
+        <v>682</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57644,7 +57644,7 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="N716" t="n">
         <v>9000</v>
@@ -57653,7 +57653,7 @@
         <v>10000</v>
       </c>
       <c r="P716" t="n">
-        <v>9588</v>
+        <v>9417</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57724,7 +57724,7 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="N717" t="n">
         <v>11000</v>
@@ -57733,7 +57733,7 @@
         <v>12000</v>
       </c>
       <c r="P717" t="n">
-        <v>11481</v>
+        <v>11440</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>1690</v>
+        <v>1420</v>
       </c>
       <c r="N718" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O718" t="n">
         <v>13000</v>
       </c>
-      <c r="O718" t="n">
-        <v>14000</v>
-      </c>
       <c r="P718" t="n">
-        <v>13423</v>
+        <v>12535</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>671</v>
+        <v>627</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N719" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O719" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P719" t="n">
-        <v>22650</v>
+        <v>7385</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>1132</v>
+        <v>369</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="N720" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O720" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P720" t="n">
-        <v>11459</v>
+        <v>9588</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="N721" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O721" t="n">
         <v>12000</v>
       </c>
-      <c r="O721" t="n">
-        <v>13000</v>
-      </c>
       <c r="P721" t="n">
-        <v>12538</v>
+        <v>11481</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>627</v>
+        <v>574</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>820</v>
+        <v>1690</v>
       </c>
       <c r="N722" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O722" t="n">
         <v>14000</v>
       </c>
-      <c r="O722" t="n">
-        <v>15000</v>
-      </c>
       <c r="P722" t="n">
-        <v>14463</v>
+        <v>13423</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58195,25 +58195,25 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>1140</v>
+        <v>400</v>
       </c>
       <c r="N723" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O723" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P723" t="n">
-        <v>15509</v>
+        <v>22650</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>775</v>
+        <v>1132</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>216</v>
+        <v>370</v>
       </c>
       <c r="N724" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O724" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P724" t="n">
-        <v>19500</v>
+        <v>11459</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>975</v>
+        <v>573</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N725" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O725" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P725" t="n">
-        <v>9000</v>
+        <v>12538</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>450</v>
+        <v>627</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>1520</v>
+        <v>820</v>
       </c>
       <c r="N726" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O726" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P726" t="n">
-        <v>10368</v>
+        <v>14463</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>518</v>
+        <v>723</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>60</v>
+        <v>1140</v>
       </c>
       <c r="N727" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O727" t="n">
         <v>16000</v>
       </c>
       <c r="P727" t="n">
-        <v>16000</v>
+        <v>15509</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="N728" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O728" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="P728" t="n">
-        <v>8342</v>
+        <v>19500</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>417</v>
+        <v>975</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N729" t="n">
         <v>9000</v>
       </c>
       <c r="O729" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P729" t="n">
-        <v>9571</v>
+        <v>9000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>780</v>
+        <v>1520</v>
       </c>
       <c r="N730" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O730" t="n">
         <v>11000</v>
       </c>
       <c r="P730" t="n">
-        <v>10744</v>
+        <v>10368</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>1790</v>
+        <v>60</v>
       </c>
       <c r="N731" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O731" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P731" t="n">
-        <v>11620</v>
+        <v>16000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>581</v>
+        <v>800</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58924,16 +58924,16 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N732" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O732" t="n">
         <v>8500</v>
       </c>
-      <c r="O732" t="n">
-        <v>9000</v>
-      </c>
       <c r="P732" t="n">
-        <v>8780</v>
+        <v>8342</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59004,16 +59004,16 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N733" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O733" t="n">
         <v>10000</v>
       </c>
       <c r="P733" t="n">
-        <v>9763</v>
+        <v>9571</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59084,7 +59084,7 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="N734" t="n">
         <v>10500</v>
@@ -59093,7 +59093,7 @@
         <v>11000</v>
       </c>
       <c r="P734" t="n">
-        <v>10780</v>
+        <v>10744</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59164,16 +59164,16 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>1460</v>
+        <v>1790</v>
       </c>
       <c r="N735" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O735" t="n">
         <v>12000</v>
       </c>
-      <c r="O735" t="n">
-        <v>13000</v>
-      </c>
       <c r="P735" t="n">
-        <v>12548</v>
+        <v>11620</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N736" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="O736" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P736" t="n">
-        <v>19000</v>
+        <v>8780</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>950</v>
+        <v>439</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59324,16 +59324,16 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="N737" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P737" t="n">
-        <v>11548</v>
+        <v>9763</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="N738" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O738" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P738" t="n">
-        <v>12412</v>
+        <v>10780</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>621</v>
+        <v>539</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>1680</v>
+        <v>1460</v>
       </c>
       <c r="N739" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O739" t="n">
         <v>13000</v>
       </c>
-      <c r="O739" t="n">
-        <v>14000</v>
-      </c>
       <c r="P739" t="n">
-        <v>13631</v>
+        <v>12548</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>682</v>
+        <v>627</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="N740" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O740" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P740" t="n">
-        <v>9591</v>
+        <v>19000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>480</v>
+        <v>950</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,11 +59640,11 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>1040</v>
+        <v>620</v>
       </c>
       <c r="N741" t="n">
         <v>11000</v>
@@ -59653,7 +59653,7 @@
         <v>12000</v>
       </c>
       <c r="P741" t="n">
-        <v>11538</v>
+        <v>11548</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,11 +59720,11 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N742" t="n">
         <v>12000</v>
@@ -59733,7 +59733,7 @@
         <v>13000</v>
       </c>
       <c r="P742" t="n">
-        <v>12538</v>
+        <v>12412</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>1200</v>
+        <v>1680</v>
       </c>
       <c r="N743" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O743" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P743" t="n">
-        <v>8500</v>
+        <v>13631</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>425</v>
+        <v>682</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>1680</v>
+        <v>440</v>
       </c>
       <c r="N744" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O744" t="n">
         <v>10000</v>
       </c>
-      <c r="O744" t="n">
-        <v>12000</v>
-      </c>
       <c r="P744" t="n">
-        <v>11000</v>
+        <v>9591</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N745" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O745" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P745" t="n">
-        <v>16000</v>
+        <v>11538</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>800</v>
+        <v>577</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,11 +60040,11 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>280</v>
+        <v>1040</v>
       </c>
       <c r="N746" t="n">
         <v>12000</v>
@@ -60053,7 +60053,7 @@
         <v>13000</v>
       </c>
       <c r="P746" t="n">
-        <v>12571</v>
+        <v>12538</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N747" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O747" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P747" t="n">
-        <v>13725</v>
+        <v>8500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>686</v>
+        <v>425</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>300</v>
+        <v>1680</v>
       </c>
       <c r="N748" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O748" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P748" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="N749" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O749" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P749" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60327,68 +60327,388 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E750" t="n">
+        <v>13</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I750" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>Maduro</t>
+        </is>
+      </c>
+      <c r="M750" t="n">
+        <v>280</v>
+      </c>
+      <c r="N750" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O750" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P750" t="n">
+        <v>12571</v>
+      </c>
+      <c r="Q750" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S750" t="n">
+        <v>629</v>
+      </c>
+      <c r="T750" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>9</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D751" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E751" t="n">
+        <v>13</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I751" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M751" t="n">
+        <v>400</v>
+      </c>
+      <c r="N751" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O751" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P751" t="n">
+        <v>13725</v>
+      </c>
+      <c r="Q751" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R751" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S751" t="n">
+        <v>686</v>
+      </c>
+      <c r="T751" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>9</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D752" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E750" t="n">
-        <v>13</v>
-      </c>
-      <c r="F750" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G750" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I750" t="n">
-        <v>100108006</v>
-      </c>
-      <c r="J750" t="inlineStr">
-        <is>
-          <t>Plátano</t>
-        </is>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L750" t="inlineStr">
+      <c r="E752" t="n">
+        <v>13</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G752" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I752" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M752" t="n">
+        <v>300</v>
+      </c>
+      <c r="N752" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O752" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P752" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q752" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R752" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S752" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T752" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>9</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D753" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E753" t="n">
+        <v>13</v>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G753" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I753" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M753" t="n">
+        <v>380</v>
+      </c>
+      <c r="N753" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O753" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P753" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q753" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S753" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T753" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>9</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D754" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E754" t="n">
+        <v>13</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G754" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I754" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L754" t="inlineStr">
         <is>
           <t>Primera Pintón</t>
         </is>
       </c>
-      <c r="M750" t="n">
+      <c r="M754" t="n">
         <v>400</v>
       </c>
-      <c r="N750" t="n">
+      <c r="N754" t="n">
         <v>26000</v>
       </c>
-      <c r="O750" t="n">
+      <c r="O754" t="n">
         <v>26000</v>
       </c>
-      <c r="P750" t="n">
+      <c r="P754" t="n">
         <v>26000</v>
       </c>
-      <c r="Q750" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R750" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S750" t="n">
+      <c r="Q754" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S754" t="n">
         <v>1300</v>
       </c>
-      <c r="T750" t="n">
+      <c r="T754" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T754"/>
+  <dimension ref="A1:T757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,25 +48995,25 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N608" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O608" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P608" t="n">
-        <v>19400</v>
+        <v>16000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>400</v>
+        <v>670</v>
       </c>
       <c r="N609" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O609" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P609" t="n">
-        <v>8800</v>
+        <v>18000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>440</v>
+        <v>900</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N610" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O610" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P610" t="n">
-        <v>9775</v>
+        <v>19000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>489</v>
+        <v>950</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="N611" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O611" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P611" t="n">
-        <v>11633</v>
+        <v>19400</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>582</v>
+        <v>970</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N612" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O612" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P612" t="n">
-        <v>12333</v>
+        <v>8800</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>617</v>
+        <v>440</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N613" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O613" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P613" t="n">
-        <v>8500</v>
+        <v>9775</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49480,20 +49480,20 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>1120</v>
+        <v>900</v>
       </c>
       <c r="N614" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O614" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P614" t="n">
-        <v>9750</v>
+        <v>11633</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>220</v>
+        <v>960</v>
       </c>
       <c r="N615" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O615" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P615" t="n">
-        <v>14455</v>
+        <v>12333</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>723</v>
+        <v>617</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>185</v>
+        <v>800</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O616" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P616" t="n">
-        <v>10541</v>
+        <v>8500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N617" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O617" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P617" t="n">
-        <v>14533</v>
+        <v>9750</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>727</v>
+        <v>488</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="N618" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O618" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P618" t="n">
-        <v>16588</v>
+        <v>14455</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>829</v>
+        <v>723</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,25 +49875,25 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="N619" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O619" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P619" t="n">
-        <v>18571</v>
+        <v>10541</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>929</v>
+        <v>527</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="N620" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O620" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P620" t="n">
-        <v>8294</v>
+        <v>14533</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>415</v>
+        <v>727</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N621" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O621" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P621" t="n">
-        <v>9591</v>
+        <v>16588</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>480</v>
+        <v>829</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>860</v>
+        <v>140</v>
       </c>
       <c r="N622" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O622" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P622" t="n">
-        <v>10558</v>
+        <v>18571</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>528</v>
+        <v>929</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>820</v>
+        <v>340</v>
       </c>
       <c r="N623" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O623" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P623" t="n">
-        <v>12512</v>
+        <v>8294</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>626</v>
+        <v>415</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N624" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P624" t="n">
-        <v>14000</v>
+        <v>9591</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>550</v>
+        <v>860</v>
       </c>
       <c r="N625" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O625" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P625" t="n">
-        <v>9455</v>
+        <v>10558</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>530</v>
+        <v>820</v>
       </c>
       <c r="N626" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O626" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P626" t="n">
-        <v>10472</v>
+        <v>12512</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>524</v>
+        <v>626</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N627" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O627" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P627" t="n">
-        <v>12517</v>
+        <v>14000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="N628" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O628" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P628" t="n">
-        <v>13481</v>
+        <v>9455</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>674</v>
+        <v>473</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="N629" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O629" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P629" t="n">
-        <v>14571</v>
+        <v>10472</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>729</v>
+        <v>524</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="N630" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P630" t="n">
-        <v>9556</v>
+        <v>12517</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>1530</v>
+        <v>790</v>
       </c>
       <c r="N631" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O631" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>11686</v>
+        <v>13481</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="N632" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O632" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P632" t="n">
-        <v>12613</v>
+        <v>14571</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="N633" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O633" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>12576</v>
+        <v>9556</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>629</v>
+        <v>478</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>680</v>
+        <v>1530</v>
       </c>
       <c r="N634" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O634" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>14588</v>
+        <v>11686</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>729</v>
+        <v>584</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1710</v>
+        <v>1500</v>
       </c>
       <c r="N635" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O635" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P635" t="n">
-        <v>15591</v>
+        <v>12613</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>780</v>
+        <v>631</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,25 +51235,25 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>40</v>
+        <v>660</v>
       </c>
       <c r="N636" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P636" t="n">
-        <v>16000</v>
+        <v>12576</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>800</v>
+        <v>629</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N637" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O637" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P637" t="n">
-        <v>10591</v>
+        <v>14588</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>530</v>
+        <v>729</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1040</v>
+        <v>1710</v>
       </c>
       <c r="N638" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O638" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P638" t="n">
-        <v>12538</v>
+        <v>15591</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>627</v>
+        <v>780</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="N639" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O639" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P639" t="n">
-        <v>13600</v>
+        <v>16000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="N640" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P640" t="n">
-        <v>14483</v>
+        <v>10591</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>724</v>
+        <v>530</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>790</v>
+        <v>1040</v>
       </c>
       <c r="N641" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>15443</v>
+        <v>12538</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>772</v>
+        <v>627</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1120</v>
+        <v>500</v>
       </c>
       <c r="N642" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O642" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>9500</v>
+        <v>13600</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>880</v>
+        <v>580</v>
       </c>
       <c r="N643" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O643" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P643" t="n">
-        <v>11455</v>
+        <v>14483</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>573</v>
+        <v>724</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="N644" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O644" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P644" t="n">
-        <v>7722</v>
+        <v>15443</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,17 +51964,17 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>900</v>
+        <v>1120</v>
       </c>
       <c r="N645" t="n">
         <v>9000</v>
       </c>
       <c r="O645" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P645" t="n">
         <v>9500</v>
       </c>
-      <c r="P645" t="n">
-        <v>9211</v>
-      </c>
       <c r="Q645" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>60</v>
+        <v>880</v>
       </c>
       <c r="N646" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O646" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P646" t="n">
-        <v>15000</v>
+        <v>11455</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>750</v>
+        <v>573</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1160</v>
+        <v>630</v>
       </c>
       <c r="N647" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O647" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P647" t="n">
-        <v>10741</v>
+        <v>7722</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>440</v>
+        <v>900</v>
       </c>
       <c r="N648" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O648" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P648" t="n">
-        <v>13000</v>
+        <v>9211</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>650</v>
+        <v>461</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N649" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O649" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P649" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>860</v>
+        <v>1160</v>
       </c>
       <c r="N650" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O650" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P650" t="n">
-        <v>15523</v>
+        <v>10741</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>776</v>
+        <v>537</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>1430</v>
+        <v>440</v>
       </c>
       <c r="N651" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O651" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P651" t="n">
-        <v>16524</v>
+        <v>13000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>826</v>
+        <v>650</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52524,16 +52524,16 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N652" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O652" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P652" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="N653" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O653" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P653" t="n">
-        <v>25000</v>
+        <v>15523</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1250</v>
+        <v>776</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,25 +52675,25 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>400</v>
+        <v>1430</v>
       </c>
       <c r="N654" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O654" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P654" t="n">
-        <v>21450</v>
+        <v>16524</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>1072</v>
+        <v>826</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="N655" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P655" t="n">
-        <v>9571</v>
+        <v>24000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>479</v>
+        <v>1200</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N656" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O656" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P656" t="n">
-        <v>10393</v>
+        <v>25000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>520</v>
+        <v>1250</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N657" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O657" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P657" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N658" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="N659" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O659" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>8295</v>
+        <v>10393</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>900</v>
+        <v>620</v>
       </c>
       <c r="N660" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O660" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P660" t="n">
-        <v>9278</v>
+        <v>13548</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>464</v>
+        <v>677</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="N661" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O661" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="P661" t="n">
-        <v>11306</v>
+        <v>14458</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>565</v>
+        <v>723</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>1180</v>
+        <v>440</v>
       </c>
       <c r="N662" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O662" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P662" t="n">
-        <v>12153</v>
+        <v>8295</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>608</v>
+        <v>415</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="N663" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O663" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P663" t="n">
-        <v>7412</v>
+        <v>9278</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="N664" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O664" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P664" t="n">
-        <v>10455</v>
+        <v>11306</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>1040</v>
+        <v>1180</v>
       </c>
       <c r="N665" t="n">
         <v>11000</v>
       </c>
       <c r="O665" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P665" t="n">
-        <v>11462</v>
+        <v>12153</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N666" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O666" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P666" t="n">
-        <v>13562</v>
+        <v>7412</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>678</v>
+        <v>371</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53715,25 +53715,25 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>450</v>
+        <v>880</v>
       </c>
       <c r="N667" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O667" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P667" t="n">
-        <v>19444</v>
+        <v>10455</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>680</v>
+        <v>1040</v>
       </c>
       <c r="N668" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O668" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P668" t="n">
-        <v>18000</v>
+        <v>11462</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>900</v>
+        <v>573</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="N669" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O669" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P669" t="n">
-        <v>19000</v>
+        <v>13562</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>950</v>
+        <v>678</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N670" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O670" t="n">
         <v>20000</v>
       </c>
       <c r="P670" t="n">
-        <v>20000</v>
+        <v>19444</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N671" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O671" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P671" t="n">
-        <v>14589</v>
+        <v>18000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="N672" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O672" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P672" t="n">
-        <v>16520</v>
+        <v>19000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>826</v>
+        <v>950</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="N673" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O673" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P673" t="n">
-        <v>12510</v>
+        <v>20000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>626</v>
+        <v>1000</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N674" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O674" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P674" t="n">
-        <v>12667</v>
+        <v>14589</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>1240</v>
+        <v>2000</v>
       </c>
       <c r="N675" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O675" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P675" t="n">
-        <v>14677</v>
+        <v>16520</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="N676" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O676" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P676" t="n">
-        <v>19636</v>
+        <v>12510</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>982</v>
+        <v>626</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N677" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O677" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P677" t="n">
-        <v>7773</v>
+        <v>12667</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>389</v>
+        <v>633</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>960</v>
+        <v>1240</v>
       </c>
       <c r="N678" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O678" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P678" t="n">
-        <v>8792</v>
+        <v>14677</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>440</v>
+        <v>734</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>1420</v>
+        <v>220</v>
       </c>
       <c r="N679" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O679" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P679" t="n">
-        <v>9620</v>
+        <v>19636</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>481</v>
+        <v>982</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N680" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O680" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P680" t="n">
-        <v>11600</v>
+        <v>7773</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>580</v>
+        <v>389</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N681" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O681" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P681" t="n">
-        <v>12550</v>
+        <v>8792</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>628</v>
+        <v>440</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54927,13 +54927,13 @@
         <v>1420</v>
       </c>
       <c r="N682" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O682" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P682" t="n">
-        <v>13599</v>
+        <v>9620</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>680</v>
+        <v>481</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N683" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O683" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>17571</v>
+        <v>11600</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>879</v>
+        <v>580</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N684" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O684" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>20474</v>
+        <v>12550</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1024</v>
+        <v>628</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55164,16 +55164,16 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="N685" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O685" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P685" t="n">
-        <v>21562</v>
+        <v>13599</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1078</v>
+        <v>680</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="N686" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O686" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P686" t="n">
-        <v>19000</v>
+        <v>17571</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>950</v>
+        <v>879</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N687" t="n">
         <v>20000</v>
       </c>
       <c r="O687" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P687" t="n">
-        <v>20000</v>
+        <v>20474</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="N688" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O688" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P688" t="n">
-        <v>23000</v>
+        <v>21562</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1150</v>
+        <v>1078</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N689" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O689" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="P689" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N690" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O690" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P690" t="n">
-        <v>11545</v>
+        <v>20000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>577</v>
+        <v>1000</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="N691" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="O691" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P691" t="n">
-        <v>11731</v>
+        <v>23000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>587</v>
+        <v>1150</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1480</v>
+        <v>480</v>
       </c>
       <c r="N692" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="O692" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P692" t="n">
-        <v>12838</v>
+        <v>24000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>642</v>
+        <v>1200</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="N693" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O693" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P693" t="n">
-        <v>25000</v>
+        <v>11545</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1250</v>
+        <v>577</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N694" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O694" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P694" t="n">
-        <v>20000</v>
+        <v>11731</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>1000</v>
+        <v>587</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>350</v>
+        <v>1480</v>
       </c>
       <c r="N695" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O695" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P695" t="n">
-        <v>21000</v>
+        <v>12838</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>1050</v>
+        <v>642</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N696" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O696" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="P696" t="n">
-        <v>9273</v>
+        <v>25000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="N697" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O697" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P697" t="n">
-        <v>9581</v>
+        <v>20000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N698" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O698" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="P698" t="n">
-        <v>11260</v>
+        <v>21000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>563</v>
+        <v>1050</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>1340</v>
+        <v>440</v>
       </c>
       <c r="N699" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O699" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P699" t="n">
-        <v>11515</v>
+        <v>9273</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56355,25 +56355,25 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="N700" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O700" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P700" t="n">
-        <v>18429</v>
+        <v>9581</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>921</v>
+        <v>479</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56444,16 +56444,16 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N701" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O701" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="P701" t="n">
-        <v>18475</v>
+        <v>11260</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>924</v>
+        <v>563</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56524,16 +56524,16 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>880</v>
+        <v>1340</v>
       </c>
       <c r="N702" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O702" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P702" t="n">
-        <v>20455</v>
+        <v>11515</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>1023</v>
+        <v>576</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N703" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O703" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P703" t="n">
-        <v>17000</v>
+        <v>18429</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N704" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O704" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P704" t="n">
-        <v>9459</v>
+        <v>18475</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="N705" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O705" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P705" t="n">
-        <v>11548</v>
+        <v>20455</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>577</v>
+        <v>1023</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>1440</v>
+        <v>80</v>
       </c>
       <c r="N706" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O706" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P706" t="n">
-        <v>14701</v>
+        <v>17000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56924,7 +56924,7 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>1680</v>
+        <v>370</v>
       </c>
       <c r="N707" t="n">
         <v>9000</v>
@@ -56933,7 +56933,7 @@
         <v>10000</v>
       </c>
       <c r="P707" t="n">
-        <v>9500</v>
+        <v>9459</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="N708" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O708" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P708" t="n">
-        <v>10500</v>
+        <v>11548</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>340</v>
+        <v>1440</v>
       </c>
       <c r="N709" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O709" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P709" t="n">
-        <v>8294</v>
+        <v>14701</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>415</v>
+        <v>735</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57164,7 +57164,7 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N710" t="n">
         <v>9000</v>
@@ -57173,7 +57173,7 @@
         <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="N711" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O711" t="n">
         <v>11000</v>
       </c>
-      <c r="O711" t="n">
-        <v>12000</v>
-      </c>
       <c r="P711" t="n">
-        <v>11423</v>
+        <v>10500</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1470</v>
+        <v>340</v>
       </c>
       <c r="N712" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O712" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P712" t="n">
-        <v>12466</v>
+        <v>8294</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>623</v>
+        <v>415</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N713" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O713" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P713" t="n">
-        <v>20000</v>
+        <v>9450</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>1000</v>
+        <v>472</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,11 +57480,11 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N714" t="n">
         <v>11000</v>
@@ -57493,7 +57493,7 @@
         <v>12000</v>
       </c>
       <c r="P714" t="n">
-        <v>11550</v>
+        <v>11423</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>760</v>
+        <v>1470</v>
       </c>
       <c r="N715" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O715" t="n">
         <v>13000</v>
       </c>
-      <c r="O715" t="n">
-        <v>14000</v>
-      </c>
       <c r="P715" t="n">
-        <v>13632</v>
+        <v>12466</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N716" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O716" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P716" t="n">
-        <v>9417</v>
+        <v>20000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>471</v>
+        <v>1000</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,11 +57720,11 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N717" t="n">
         <v>11000</v>
@@ -57733,7 +57733,7 @@
         <v>12000</v>
       </c>
       <c r="P717" t="n">
-        <v>11440</v>
+        <v>11550</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>1420</v>
+        <v>760</v>
       </c>
       <c r="N718" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O718" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P718" t="n">
-        <v>12535</v>
+        <v>13632</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="N719" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O719" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P719" t="n">
-        <v>7385</v>
+        <v>9417</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="N720" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O720" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P720" t="n">
-        <v>9588</v>
+        <v>11440</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>479</v>
+        <v>572</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>540</v>
+        <v>1420</v>
       </c>
       <c r="N721" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O721" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P721" t="n">
-        <v>11481</v>
+        <v>12535</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>1690</v>
+        <v>650</v>
       </c>
       <c r="N722" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O722" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P722" t="n">
-        <v>13423</v>
+        <v>7385</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>671</v>
+        <v>369</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,25 +58195,25 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="N723" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O723" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P723" t="n">
-        <v>22650</v>
+        <v>9588</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1132</v>
+        <v>479</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,11 +58280,11 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>370</v>
+        <v>540</v>
       </c>
       <c r="N724" t="n">
         <v>11000</v>
@@ -58293,7 +58293,7 @@
         <v>12000</v>
       </c>
       <c r="P724" t="n">
-        <v>11459</v>
+        <v>11481</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>260</v>
+        <v>1690</v>
       </c>
       <c r="N725" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O725" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P725" t="n">
-        <v>12538</v>
+        <v>13423</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="N726" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O726" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P726" t="n">
-        <v>14463</v>
+        <v>22650</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>723</v>
+        <v>1132</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="N727" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O727" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P727" t="n">
-        <v>15509</v>
+        <v>11459</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="N728" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O728" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P728" t="n">
-        <v>19500</v>
+        <v>12538</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>975</v>
+        <v>627</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="N729" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O729" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P729" t="n">
-        <v>9000</v>
+        <v>14463</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>450</v>
+        <v>723</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58764,16 +58764,16 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>1520</v>
+        <v>1140</v>
       </c>
       <c r="N730" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O730" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P730" t="n">
-        <v>10368</v>
+        <v>15509</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N731" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O731" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P731" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N732" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O732" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P732" t="n">
-        <v>8342</v>
+        <v>9000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="N733" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O733" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P733" t="n">
-        <v>9571</v>
+        <v>10368</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="N734" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O734" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P734" t="n">
-        <v>10744</v>
+        <v>16000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>537</v>
+        <v>800</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>1790</v>
+        <v>380</v>
       </c>
       <c r="N735" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O735" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P735" t="n">
-        <v>11620</v>
+        <v>8342</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N736" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O736" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P736" t="n">
-        <v>8780</v>
+        <v>9571</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N737" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O737" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P737" t="n">
-        <v>9763</v>
+        <v>10744</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>500</v>
+        <v>1790</v>
       </c>
       <c r="N738" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O738" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P738" t="n">
-        <v>10780</v>
+        <v>11620</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59480,20 +59480,20 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>1460</v>
+        <v>500</v>
       </c>
       <c r="N739" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O739" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P739" t="n">
-        <v>12548</v>
+        <v>8780</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N740" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O740" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P740" t="n">
-        <v>19000</v>
+        <v>9763</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>950</v>
+        <v>488</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N741" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O741" t="n">
         <v>11000</v>
       </c>
-      <c r="O741" t="n">
-        <v>12000</v>
-      </c>
       <c r="P741" t="n">
-        <v>11548</v>
+        <v>10780</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,11 +59720,11 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>680</v>
+        <v>1460</v>
       </c>
       <c r="N742" t="n">
         <v>12000</v>
@@ -59733,7 +59733,7 @@
         <v>13000</v>
       </c>
       <c r="P742" t="n">
-        <v>12412</v>
+        <v>12548</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N743" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O743" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P743" t="n">
-        <v>13631</v>
+        <v>19000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59884,16 +59884,16 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N744" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O744" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P744" t="n">
-        <v>9591</v>
+        <v>11548</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59964,16 +59964,16 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N745" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O745" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P745" t="n">
-        <v>11538</v>
+        <v>12412</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60044,16 +60044,16 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>1040</v>
+        <v>1680</v>
       </c>
       <c r="N746" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O746" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P746" t="n">
-        <v>12538</v>
+        <v>13631</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60124,16 +60124,16 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N747" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O747" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P747" t="n">
-        <v>8500</v>
+        <v>9591</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>1680</v>
+        <v>1040</v>
       </c>
       <c r="N748" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O748" t="n">
         <v>12000</v>
       </c>
       <c r="P748" t="n">
-        <v>11000</v>
+        <v>11538</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N749" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O749" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P749" t="n">
-        <v>16000</v>
+        <v>12538</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="N750" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O750" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P750" t="n">
-        <v>12571</v>
+        <v>8500</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>629</v>
+        <v>425</v>
       </c>
       <c r="T750" t="n">
         <v>20</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N751" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O751" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P751" t="n">
-        <v>13725</v>
+        <v>11000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>686</v>
+        <v>550</v>
       </c>
       <c r="T751" t="n">
         <v>20</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N752" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O752" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P752" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T752" t="n">
         <v>20</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N753" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O753" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P753" t="n">
-        <v>25000</v>
+        <v>12571</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1250</v>
+        <v>629</v>
       </c>
       <c r="T753" t="n">
         <v>20</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60687,28 +60687,268 @@
         <v>400</v>
       </c>
       <c r="N754" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O754" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P754" t="n">
+        <v>13725</v>
+      </c>
+      <c r="Q754" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S754" t="n">
+        <v>686</v>
+      </c>
+      <c r="T754" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>9</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D755" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E755" t="n">
+        <v>13</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I755" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M755" t="n">
+        <v>300</v>
+      </c>
+      <c r="N755" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O755" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P755" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q755" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S755" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T755" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>9</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E756" t="n">
+        <v>13</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I756" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M756" t="n">
+        <v>380</v>
+      </c>
+      <c r="N756" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O756" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P756" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q756" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S756" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T756" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>9</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E757" t="n">
+        <v>13</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I757" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M757" t="n">
+        <v>400</v>
+      </c>
+      <c r="N757" t="n">
         <v>26000</v>
       </c>
-      <c r="O754" t="n">
+      <c r="O757" t="n">
         <v>26000</v>
       </c>
-      <c r="P754" t="n">
+      <c r="P757" t="n">
         <v>26000</v>
       </c>
-      <c r="Q754" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R754" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S754" t="n">
+      <c r="Q757" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S757" t="n">
         <v>1300</v>
       </c>
-      <c r="T754" t="n">
+      <c r="T757" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T757"/>
+  <dimension ref="A1:T760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N726" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O726" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P726" t="n">
-        <v>22650</v>
+        <v>16000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1132</v>
+        <v>800</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="N727" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O727" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P727" t="n">
-        <v>11459</v>
+        <v>17000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>573</v>
+        <v>850</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="N728" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O728" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P728" t="n">
-        <v>12538</v>
+        <v>18000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>627</v>
+        <v>900</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="N729" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O729" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P729" t="n">
-        <v>14463</v>
+        <v>22650</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>723</v>
+        <v>1132</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="N730" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O730" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P730" t="n">
-        <v>15509</v>
+        <v>11459</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="N731" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O731" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P731" t="n">
-        <v>19500</v>
+        <v>12538</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>975</v>
+        <v>627</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58924,16 +58924,16 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="N732" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O732" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P732" t="n">
-        <v>9000</v>
+        <v>14463</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>450</v>
+        <v>723</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59004,16 +59004,16 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>1520</v>
+        <v>1140</v>
       </c>
       <c r="N733" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O733" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P733" t="n">
-        <v>10368</v>
+        <v>15509</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59084,16 +59084,16 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N734" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O734" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P734" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N735" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O735" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P735" t="n">
-        <v>8342</v>
+        <v>9000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="N736" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O736" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P736" t="n">
-        <v>9571</v>
+        <v>10368</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="N737" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O737" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P737" t="n">
-        <v>10744</v>
+        <v>16000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>537</v>
+        <v>800</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>1790</v>
+        <v>380</v>
       </c>
       <c r="N738" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O738" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P738" t="n">
-        <v>11620</v>
+        <v>8342</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59480,20 +59480,20 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N739" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O739" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P739" t="n">
-        <v>8780</v>
+        <v>9571</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59560,20 +59560,20 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N740" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O740" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P740" t="n">
-        <v>9763</v>
+        <v>10744</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>500</v>
+        <v>1790</v>
       </c>
       <c r="N741" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O741" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P741" t="n">
-        <v>10780</v>
+        <v>11620</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>1460</v>
+        <v>500</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O742" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P742" t="n">
-        <v>12548</v>
+        <v>8780</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N743" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O743" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P743" t="n">
-        <v>19000</v>
+        <v>9763</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>950</v>
+        <v>488</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N744" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O744" t="n">
         <v>11000</v>
       </c>
-      <c r="O744" t="n">
-        <v>12000</v>
-      </c>
       <c r="P744" t="n">
-        <v>11548</v>
+        <v>10780</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,11 +59960,11 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>680</v>
+        <v>1460</v>
       </c>
       <c r="N745" t="n">
         <v>12000</v>
@@ -59973,7 +59973,7 @@
         <v>13000</v>
       </c>
       <c r="P745" t="n">
-        <v>12412</v>
+        <v>12548</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N746" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O746" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P746" t="n">
-        <v>13631</v>
+        <v>19000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60124,16 +60124,16 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N747" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O747" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P747" t="n">
-        <v>9591</v>
+        <v>11548</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N748" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O748" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P748" t="n">
-        <v>11538</v>
+        <v>12412</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>1040</v>
+        <v>1680</v>
       </c>
       <c r="N749" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O749" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P749" t="n">
-        <v>12538</v>
+        <v>13631</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60364,16 +60364,16 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N750" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O750" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P750" t="n">
-        <v>8500</v>
+        <v>9591</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="T750" t="n">
         <v>20</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>1680</v>
+        <v>1040</v>
       </c>
       <c r="N751" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O751" t="n">
         <v>12000</v>
       </c>
       <c r="P751" t="n">
-        <v>11000</v>
+        <v>11538</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="T751" t="n">
         <v>20</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N752" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O752" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P752" t="n">
-        <v>16000</v>
+        <v>12538</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="T752" t="n">
         <v>20</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O753" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P753" t="n">
-        <v>12571</v>
+        <v>8500</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>629</v>
+        <v>425</v>
       </c>
       <c r="T753" t="n">
         <v>20</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60684,16 +60684,16 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N754" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O754" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P754" t="n">
-        <v>13725</v>
+        <v>11000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>686</v>
+        <v>550</v>
       </c>
       <c r="T754" t="n">
         <v>20</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N755" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O755" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P755" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T755" t="n">
         <v>20</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N756" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O756" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P756" t="n">
-        <v>25000</v>
+        <v>12571</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1250</v>
+        <v>629</v>
       </c>
       <c r="T756" t="n">
         <v>20</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60927,28 +60927,268 @@
         <v>400</v>
       </c>
       <c r="N757" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O757" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P757" t="n">
+        <v>13725</v>
+      </c>
+      <c r="Q757" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S757" t="n">
+        <v>686</v>
+      </c>
+      <c r="T757" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>9</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D758" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E758" t="n">
+        <v>13</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G758" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I758" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M758" t="n">
+        <v>300</v>
+      </c>
+      <c r="N758" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O758" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P758" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q758" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R758" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S758" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T758" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>9</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D759" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E759" t="n">
+        <v>13</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G759" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I759" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M759" t="n">
+        <v>380</v>
+      </c>
+      <c r="N759" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O759" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P759" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q759" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R759" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S759" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T759" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>9</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D760" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E760" t="n">
+        <v>13</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I760" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M760" t="n">
+        <v>400</v>
+      </c>
+      <c r="N760" t="n">
         <v>26000</v>
       </c>
-      <c r="O757" t="n">
+      <c r="O760" t="n">
         <v>26000</v>
       </c>
-      <c r="P757" t="n">
+      <c r="P760" t="n">
         <v>26000</v>
       </c>
-      <c r="Q757" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R757" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S757" t="n">
+      <c r="Q760" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S760" t="n">
         <v>1300</v>
       </c>
-      <c r="T757" t="n">
+      <c r="T760" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T760"/>
+  <dimension ref="A1:T763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="N530" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O530" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P530" t="n">
-        <v>17565</v>
+        <v>15000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>878</v>
+        <v>750</v>
       </c>
       <c r="T530" t="n">
         <v>20</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>320</v>
+        <v>850</v>
       </c>
       <c r="N531" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P531" t="n">
-        <v>9781</v>
+        <v>16000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>489</v>
+        <v>800</v>
       </c>
       <c r="T531" t="n">
         <v>20</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42920,20 +42920,20 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>580</v>
+        <v>1200</v>
       </c>
       <c r="N532" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="O532" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P532" t="n">
-        <v>9828</v>
+        <v>17000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>491</v>
+        <v>850</v>
       </c>
       <c r="T532" t="n">
         <v>20</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>880</v>
+        <v>460</v>
       </c>
       <c r="N533" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O533" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P533" t="n">
-        <v>10545</v>
+        <v>17565</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>527</v>
+        <v>878</v>
       </c>
       <c r="T533" t="n">
         <v>20</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>1340</v>
+        <v>320</v>
       </c>
       <c r="N534" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O534" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>13627</v>
+        <v>9781</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>681</v>
+        <v>489</v>
       </c>
       <c r="T534" t="n">
         <v>20</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>324</v>
+        <v>580</v>
       </c>
       <c r="N535" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O535" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P535" t="n">
-        <v>14500</v>
+        <v>9828</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>725</v>
+        <v>491</v>
       </c>
       <c r="T535" t="n">
         <v>20</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>1360</v>
+        <v>880</v>
       </c>
       <c r="N536" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O536" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P536" t="n">
-        <v>12706</v>
+        <v>10545</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>635</v>
+        <v>527</v>
       </c>
       <c r="T536" t="n">
         <v>20</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>2000</v>
+        <v>1340</v>
       </c>
       <c r="N537" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O537" t="n">
         <v>14000</v>
       </c>
-      <c r="O537" t="n">
-        <v>15000</v>
-      </c>
       <c r="P537" t="n">
-        <v>14500</v>
+        <v>13627</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="T537" t="n">
         <v>20</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="N538" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O538" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P538" t="n">
-        <v>19455</v>
+        <v>14500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>973</v>
+        <v>725</v>
       </c>
       <c r="T538" t="n">
         <v>20</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="N539" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P539" t="n">
-        <v>5206</v>
+        <v>12706</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>260</v>
+        <v>635</v>
       </c>
       <c r="T539" t="n">
         <v>20</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>580</v>
+        <v>2000</v>
       </c>
       <c r="N540" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O540" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="P540" t="n">
-        <v>5328</v>
+        <v>14500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>266</v>
+        <v>725</v>
       </c>
       <c r="T540" t="n">
         <v>20</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>1080</v>
+        <v>220</v>
       </c>
       <c r="N541" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P541" t="n">
-        <v>9778</v>
+        <v>19455</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>489</v>
+        <v>973</v>
       </c>
       <c r="T541" t="n">
         <v>20</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>960</v>
+        <v>680</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O542" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P542" t="n">
-        <v>10583</v>
+        <v>5206</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="T542" t="n">
         <v>20</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="N543" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P543" t="n">
-        <v>9812</v>
+        <v>5328</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>491</v>
+        <v>266</v>
       </c>
       <c r="T543" t="n">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>11509</v>
+        <v>9778</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="T544" t="n">
         <v>20</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>1640</v>
+        <v>960</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O545" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P545" t="n">
-        <v>12671</v>
+        <v>10583</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="T545" t="n">
         <v>20</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>1030</v>
+        <v>480</v>
       </c>
       <c r="N546" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O546" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>18466</v>
+        <v>9812</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>923</v>
+        <v>491</v>
       </c>
       <c r="T546" t="n">
         <v>20</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>1000</v>
+        <v>1140</v>
       </c>
       <c r="N547" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O547" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P547" t="n">
-        <v>19550</v>
+        <v>11509</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>978</v>
+        <v>575</v>
       </c>
       <c r="T547" t="n">
         <v>20</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44466</v>
+        <v>44316</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>220</v>
+        <v>1640</v>
       </c>
       <c r="N548" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O548" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P548" t="n">
-        <v>11636</v>
+        <v>12671</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="T548" t="n">
         <v>20</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>640</v>
+        <v>1030</v>
       </c>
       <c r="N549" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O549" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P549" t="n">
-        <v>14562</v>
+        <v>18466</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>728</v>
+        <v>923</v>
       </c>
       <c r="T549" t="n">
         <v>20</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>840</v>
+        <v>1000</v>
       </c>
       <c r="N550" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O550" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P550" t="n">
-        <v>15524</v>
+        <v>19550</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>776</v>
+        <v>978</v>
       </c>
       <c r="T550" t="n">
         <v>20</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N551" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O551" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P551" t="n">
-        <v>16000</v>
+        <v>11636</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>800</v>
+        <v>582</v>
       </c>
       <c r="T551" t="n">
         <v>20</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="N552" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O552" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P552" t="n">
-        <v>8519</v>
+        <v>14562</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>426</v>
+        <v>728</v>
       </c>
       <c r="T552" t="n">
         <v>20</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>580</v>
+        <v>840</v>
       </c>
       <c r="N553" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O553" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P553" t="n">
-        <v>11517</v>
+        <v>15524</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>576</v>
+        <v>776</v>
       </c>
       <c r="T553" t="n">
         <v>20</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44351</v>
+        <v>44466</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N554" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="O554" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P554" t="n">
-        <v>8824</v>
+        <v>16000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="T554" t="n">
         <v>20</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="N555" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O555" t="n">
         <v>9000</v>
       </c>
-      <c r="O555" t="n">
-        <v>10000</v>
-      </c>
       <c r="P555" t="n">
-        <v>9609</v>
+        <v>8519</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="T555" t="n">
         <v>20</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="N556" t="n">
         <v>11000</v>
       </c>
       <c r="O556" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="P556" t="n">
-        <v>11256</v>
+        <v>11517</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="T556" t="n">
         <v>20</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>1370</v>
+        <v>340</v>
       </c>
       <c r="N557" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O557" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P557" t="n">
-        <v>11423</v>
+        <v>8824</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>571</v>
+        <v>441</v>
       </c>
       <c r="T557" t="n">
         <v>20</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="N558" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O558" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P558" t="n">
-        <v>13000</v>
+        <v>9609</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="T558" t="n">
         <v>20</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>630</v>
+        <v>780</v>
       </c>
       <c r="N559" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O559" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P559" t="n">
-        <v>10556</v>
+        <v>11256</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="T559" t="n">
         <v>20</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45160,11 +45160,11 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>520</v>
+        <v>1370</v>
       </c>
       <c r="N560" t="n">
         <v>11000</v>
@@ -45173,7 +45173,7 @@
         <v>12000</v>
       </c>
       <c r="P560" t="n">
-        <v>11577</v>
+        <v>11423</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="T560" t="n">
         <v>20</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45240,20 +45240,20 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N561" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O561" t="n">
         <v>13000</v>
       </c>
       <c r="P561" t="n">
-        <v>12738</v>
+        <v>13000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="T561" t="n">
         <v>20</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1640</v>
+        <v>630</v>
       </c>
       <c r="N562" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O562" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P562" t="n">
-        <v>13634</v>
+        <v>10556</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>682</v>
+        <v>528</v>
       </c>
       <c r="T562" t="n">
         <v>20</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45404,7 +45404,7 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="N563" t="n">
         <v>11000</v>
@@ -45413,7 +45413,7 @@
         <v>12000</v>
       </c>
       <c r="P563" t="n">
-        <v>11583</v>
+        <v>11577</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N564" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O564" t="n">
         <v>13000</v>
       </c>
-      <c r="O564" t="n">
-        <v>13500</v>
-      </c>
       <c r="P564" t="n">
-        <v>13273</v>
+        <v>12738</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="T564" t="n">
         <v>20</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45564,7 +45564,7 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>1860</v>
+        <v>1640</v>
       </c>
       <c r="N565" t="n">
         <v>13000</v>
@@ -45573,7 +45573,7 @@
         <v>14000</v>
       </c>
       <c r="P565" t="n">
-        <v>13672</v>
+        <v>13634</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="T565" t="n">
         <v>20</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="N566" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O566" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P566" t="n">
-        <v>20857</v>
+        <v>11583</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1043</v>
+        <v>579</v>
       </c>
       <c r="T566" t="n">
         <v>20</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="N567" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P567" t="n">
-        <v>9737</v>
+        <v>13273</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>487</v>
+        <v>664</v>
       </c>
       <c r="T567" t="n">
         <v>20</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>640</v>
+        <v>1860</v>
       </c>
       <c r="N568" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O568" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P568" t="n">
-        <v>10406</v>
+        <v>13672</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>520</v>
+        <v>684</v>
       </c>
       <c r="T568" t="n">
         <v>20</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="N569" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O569" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P569" t="n">
-        <v>19000</v>
+        <v>20857</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>950</v>
+        <v>1043</v>
       </c>
       <c r="T569" t="n">
         <v>20</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="N570" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O570" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>14300</v>
+        <v>9737</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>715</v>
+        <v>487</v>
       </c>
       <c r="T570" t="n">
         <v>20</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1650</v>
+        <v>640</v>
       </c>
       <c r="N571" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O571" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P571" t="n">
-        <v>15273</v>
+        <v>10406</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>764</v>
+        <v>520</v>
       </c>
       <c r="T571" t="n">
         <v>20</v>
@@ -46115,25 +46115,25 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N572" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O572" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P572" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="T572" t="n">
         <v>20</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46200,20 +46200,20 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="N573" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O573" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P573" t="n">
-        <v>19000</v>
+        <v>14300</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>950</v>
+        <v>715</v>
       </c>
       <c r="T573" t="n">
         <v>20</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46280,20 +46280,20 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>300</v>
+        <v>1650</v>
       </c>
       <c r="N574" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O574" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P574" t="n">
-        <v>20000</v>
+        <v>15273</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1000</v>
+        <v>764</v>
       </c>
       <c r="T574" t="n">
         <v>20</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N575" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O575" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P575" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="T575" t="n">
         <v>20</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44201</v>
+        <v>44476</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="N576" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O576" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P576" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T576" t="n">
         <v>20</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44201</v>
+        <v>44476</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>820</v>
+        <v>300</v>
       </c>
       <c r="N577" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O577" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P577" t="n">
-        <v>14512</v>
+        <v>20000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>726</v>
+        <v>1000</v>
       </c>
       <c r="T577" t="n">
         <v>20</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44201</v>
+        <v>44476</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="N578" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O578" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P578" t="n">
-        <v>16328</v>
+        <v>21000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>816</v>
+        <v>1050</v>
       </c>
       <c r="T578" t="n">
         <v>20</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="N579" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O579" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P579" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T579" t="n">
         <v>20</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46760,20 +46760,20 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>410</v>
+        <v>820</v>
       </c>
       <c r="N580" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O580" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P580" t="n">
-        <v>20000</v>
+        <v>14512</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1000</v>
+        <v>726</v>
       </c>
       <c r="T580" t="n">
         <v>20</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44293</v>
+        <v>44201</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>460</v>
+        <v>1800</v>
       </c>
       <c r="N581" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O581" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P581" t="n">
-        <v>7565</v>
+        <v>16328</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>378</v>
+        <v>816</v>
       </c>
       <c r="T581" t="n">
         <v>20</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="N582" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O582" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P582" t="n">
-        <v>11562</v>
+        <v>19000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>578</v>
+        <v>950</v>
       </c>
       <c r="T582" t="n">
         <v>20</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>1560</v>
+        <v>410</v>
       </c>
       <c r="N583" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O583" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P583" t="n">
-        <v>12654</v>
+        <v>20000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>633</v>
+        <v>1000</v>
       </c>
       <c r="T583" t="n">
         <v>20</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="N584" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P584" t="n">
-        <v>13545</v>
+        <v>7565</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>677</v>
+        <v>378</v>
       </c>
       <c r="T584" t="n">
         <v>20</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>440</v>
+        <v>640</v>
       </c>
       <c r="N585" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O585" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P585" t="n">
-        <v>10205</v>
+        <v>11562</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="T585" t="n">
         <v>20</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>520</v>
+        <v>1560</v>
       </c>
       <c r="N586" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P586" t="n">
-        <v>11462</v>
+        <v>12654</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>573</v>
+        <v>633</v>
       </c>
       <c r="T586" t="n">
         <v>20</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,11 +47320,11 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>1340</v>
+        <v>550</v>
       </c>
       <c r="N587" t="n">
         <v>13000</v>
@@ -47333,7 +47333,7 @@
         <v>14000</v>
       </c>
       <c r="P587" t="n">
-        <v>13701</v>
+        <v>13545</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="T587" t="n">
         <v>20</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="N588" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O588" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="P588" t="n">
-        <v>19000</v>
+        <v>10205</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>950</v>
+        <v>510</v>
       </c>
       <c r="T588" t="n">
         <v>20</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>1180</v>
+        <v>520</v>
       </c>
       <c r="N589" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O589" t="n">
         <v>12000</v>
       </c>
-      <c r="O589" t="n">
-        <v>13000</v>
-      </c>
       <c r="P589" t="n">
-        <v>12619</v>
+        <v>11462</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>631</v>
+        <v>573</v>
       </c>
       <c r="T589" t="n">
         <v>20</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>180</v>
+        <v>1340</v>
       </c>
       <c r="N590" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O590" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P590" t="n">
-        <v>15000</v>
+        <v>13701</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>750</v>
+        <v>685</v>
       </c>
       <c r="T590" t="n">
         <v>20</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="N591" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O591" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="P591" t="n">
-        <v>8291</v>
+        <v>19000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>415</v>
+        <v>950</v>
       </c>
       <c r="T591" t="n">
         <v>20</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>580</v>
+        <v>1180</v>
       </c>
       <c r="N592" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O592" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P592" t="n">
-        <v>9259</v>
+        <v>12619</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>463</v>
+        <v>631</v>
       </c>
       <c r="T592" t="n">
         <v>20</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>1420</v>
+        <v>180</v>
       </c>
       <c r="N593" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O593" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P593" t="n">
-        <v>11430</v>
+        <v>15000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>572</v>
+        <v>750</v>
       </c>
       <c r="T593" t="n">
         <v>20</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>1340</v>
+        <v>430</v>
       </c>
       <c r="N594" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O594" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P594" t="n">
-        <v>13627</v>
+        <v>8291</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>681</v>
+        <v>415</v>
       </c>
       <c r="T594" t="n">
         <v>20</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47960,20 +47960,20 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N595" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O595" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P595" t="n">
-        <v>12533</v>
+        <v>9259</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>627</v>
+        <v>463</v>
       </c>
       <c r="T595" t="n">
         <v>20</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>580</v>
+        <v>1420</v>
       </c>
       <c r="N596" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O596" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P596" t="n">
-        <v>13655</v>
+        <v>11430</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>683</v>
+        <v>572</v>
       </c>
       <c r="T596" t="n">
         <v>20</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48124,16 +48124,16 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>660</v>
+        <v>1340</v>
       </c>
       <c r="N597" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O597" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P597" t="n">
-        <v>16576</v>
+        <v>13627</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>829</v>
+        <v>681</v>
       </c>
       <c r="T597" t="n">
         <v>20</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="N598" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O598" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P598" t="n">
-        <v>14500</v>
+        <v>12533</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>725</v>
+        <v>627</v>
       </c>
       <c r="T598" t="n">
         <v>20</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>960</v>
+        <v>580</v>
       </c>
       <c r="N599" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O599" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P599" t="n">
-        <v>16500</v>
+        <v>13655</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>825</v>
+        <v>683</v>
       </c>
       <c r="T599" t="n">
         <v>20</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>2320</v>
+        <v>660</v>
       </c>
       <c r="N600" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O600" t="n">
         <v>17000</v>
       </c>
-      <c r="O600" t="n">
-        <v>18000</v>
-      </c>
       <c r="P600" t="n">
-        <v>17500</v>
+        <v>16576</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>875</v>
+        <v>829</v>
       </c>
       <c r="T600" t="n">
         <v>20</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,25 +48435,25 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>850</v>
+        <v>216</v>
       </c>
       <c r="N601" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O601" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P601" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>950</v>
+        <v>725</v>
       </c>
       <c r="T601" t="n">
         <v>20</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48520,20 +48520,20 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="N602" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O602" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P602" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="T602" t="n">
         <v>20</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>120</v>
+        <v>2320</v>
       </c>
       <c r="N603" t="n">
         <v>17000</v>
       </c>
       <c r="O603" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P603" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>680</v>
+        <v>850</v>
       </c>
       <c r="N604" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O604" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P604" t="n">
-        <v>7412</v>
+        <v>19000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>371</v>
+        <v>950</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="N605" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O605" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P605" t="n">
-        <v>11679</v>
+        <v>20000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>584</v>
+        <v>1000</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48835,25 +48835,25 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>960</v>
+        <v>120</v>
       </c>
       <c r="N606" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O606" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P606" t="n">
-        <v>12583</v>
+        <v>17000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>629</v>
+        <v>850</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="N607" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O607" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P607" t="n">
-        <v>13471</v>
+        <v>7412</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>674</v>
+        <v>371</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="N608" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O608" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P608" t="n">
-        <v>16000</v>
+        <v>11679</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>800</v>
+        <v>584</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>670</v>
+        <v>960</v>
       </c>
       <c r="N609" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O609" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P609" t="n">
-        <v>18000</v>
+        <v>12583</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>900</v>
+        <v>629</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="N610" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O610" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P610" t="n">
-        <v>19000</v>
+        <v>13471</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>950</v>
+        <v>674</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,25 +49235,25 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N611" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O611" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P611" t="n">
-        <v>19400</v>
+        <v>16000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>400</v>
+        <v>670</v>
       </c>
       <c r="N612" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O612" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P612" t="n">
-        <v>8800</v>
+        <v>18000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>440</v>
+        <v>900</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N613" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="O613" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P613" t="n">
-        <v>9775</v>
+        <v>19000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>489</v>
+        <v>950</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49475,25 +49475,25 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="N614" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O614" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P614" t="n">
-        <v>11633</v>
+        <v>19400</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>582</v>
+        <v>970</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N615" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O615" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P615" t="n">
-        <v>12333</v>
+        <v>8800</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>617</v>
+        <v>440</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N616" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O616" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>8500</v>
+        <v>9775</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>1120</v>
+        <v>900</v>
       </c>
       <c r="N617" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O617" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P617" t="n">
-        <v>9750</v>
+        <v>11633</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>220</v>
+        <v>960</v>
       </c>
       <c r="N618" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O618" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P618" t="n">
-        <v>14455</v>
+        <v>12333</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>723</v>
+        <v>617</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49884,16 +49884,16 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>185</v>
+        <v>800</v>
       </c>
       <c r="N619" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O619" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P619" t="n">
-        <v>10541</v>
+        <v>8500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N620" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O620" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P620" t="n">
-        <v>14533</v>
+        <v>9750</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>727</v>
+        <v>488</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50035,25 +50035,25 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="N621" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O621" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P621" t="n">
-        <v>16588</v>
+        <v>14455</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>829</v>
+        <v>723</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,25 +50115,25 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="N622" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O622" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P622" t="n">
-        <v>18571</v>
+        <v>10541</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>929</v>
+        <v>527</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O623" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P623" t="n">
-        <v>8294</v>
+        <v>14533</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>415</v>
+        <v>727</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50280,20 +50280,20 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N624" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O624" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P624" t="n">
-        <v>9591</v>
+        <v>16588</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>480</v>
+        <v>829</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>860</v>
+        <v>140</v>
       </c>
       <c r="N625" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O625" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P625" t="n">
-        <v>10558</v>
+        <v>18571</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>528</v>
+        <v>929</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>820</v>
+        <v>340</v>
       </c>
       <c r="N626" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O626" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P626" t="n">
-        <v>12512</v>
+        <v>8294</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>626</v>
+        <v>415</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P627" t="n">
-        <v>14000</v>
+        <v>9591</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>550</v>
+        <v>860</v>
       </c>
       <c r="N628" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O628" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P628" t="n">
-        <v>9455</v>
+        <v>10558</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>530</v>
+        <v>820</v>
       </c>
       <c r="N629" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O629" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P629" t="n">
-        <v>10472</v>
+        <v>12512</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>524</v>
+        <v>626</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N630" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O630" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P630" t="n">
-        <v>12517</v>
+        <v>14000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="N631" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P631" t="n">
-        <v>13481</v>
+        <v>9455</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>674</v>
+        <v>473</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="N632" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O632" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P632" t="n">
-        <v>14571</v>
+        <v>10472</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>729</v>
+        <v>524</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="N633" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O633" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P633" t="n">
-        <v>9556</v>
+        <v>12517</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>1530</v>
+        <v>790</v>
       </c>
       <c r="N634" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O634" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P634" t="n">
-        <v>11686</v>
+        <v>13481</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O635" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P635" t="n">
-        <v>12613</v>
+        <v>14571</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="N636" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O636" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P636" t="n">
-        <v>12576</v>
+        <v>9556</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>629</v>
+        <v>478</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51324,16 +51324,16 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>680</v>
+        <v>1530</v>
       </c>
       <c r="N637" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O637" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P637" t="n">
-        <v>14588</v>
+        <v>11686</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>729</v>
+        <v>584</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1710</v>
+        <v>1500</v>
       </c>
       <c r="N638" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O638" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P638" t="n">
-        <v>15591</v>
+        <v>12613</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>780</v>
+        <v>631</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>40</v>
+        <v>660</v>
       </c>
       <c r="N639" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O639" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P639" t="n">
-        <v>16000</v>
+        <v>12576</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>800</v>
+        <v>629</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N640" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O640" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P640" t="n">
-        <v>10591</v>
+        <v>14588</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>530</v>
+        <v>729</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1040</v>
+        <v>1710</v>
       </c>
       <c r="N641" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O641" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P641" t="n">
-        <v>12538</v>
+        <v>15591</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>627</v>
+        <v>780</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="N642" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O642" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P642" t="n">
-        <v>13600</v>
+        <v>16000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="N643" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O643" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P643" t="n">
-        <v>14483</v>
+        <v>10591</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>724</v>
+        <v>530</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>790</v>
+        <v>1040</v>
       </c>
       <c r="N644" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O644" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P644" t="n">
-        <v>15443</v>
+        <v>12538</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>772</v>
+        <v>627</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1120</v>
+        <v>500</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P645" t="n">
-        <v>9500</v>
+        <v>13600</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>880</v>
+        <v>580</v>
       </c>
       <c r="N646" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O646" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P646" t="n">
-        <v>11455</v>
+        <v>14483</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>573</v>
+        <v>724</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="N647" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O647" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P647" t="n">
-        <v>7722</v>
+        <v>15443</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,17 +52204,17 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>900</v>
+        <v>1120</v>
       </c>
       <c r="N648" t="n">
         <v>9000</v>
       </c>
       <c r="O648" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P648" t="n">
         <v>9500</v>
       </c>
-      <c r="P648" t="n">
-        <v>9211</v>
-      </c>
       <c r="Q648" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>60</v>
+        <v>880</v>
       </c>
       <c r="N649" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O649" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P649" t="n">
-        <v>15000</v>
+        <v>11455</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>750</v>
+        <v>573</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>1160</v>
+        <v>630</v>
       </c>
       <c r="N650" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O650" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P650" t="n">
-        <v>10741</v>
+        <v>7722</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>440</v>
+        <v>900</v>
       </c>
       <c r="N651" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O651" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P651" t="n">
-        <v>13000</v>
+        <v>9211</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>650</v>
+        <v>461</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N652" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O652" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P652" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>860</v>
+        <v>1160</v>
       </c>
       <c r="N653" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O653" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P653" t="n">
-        <v>15523</v>
+        <v>10741</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>776</v>
+        <v>537</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>1430</v>
+        <v>440</v>
       </c>
       <c r="N654" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O654" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P654" t="n">
-        <v>16524</v>
+        <v>13000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>826</v>
+        <v>650</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52764,16 +52764,16 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N655" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O655" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P655" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="N656" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O656" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P656" t="n">
-        <v>25000</v>
+        <v>15523</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1250</v>
+        <v>776</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>400</v>
+        <v>1430</v>
       </c>
       <c r="N657" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O657" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P657" t="n">
-        <v>21450</v>
+        <v>16524</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1072</v>
+        <v>826</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="N658" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P658" t="n">
-        <v>9571</v>
+        <v>24000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>479</v>
+        <v>1200</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N659" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O659" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P659" t="n">
-        <v>10393</v>
+        <v>25000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>520</v>
+        <v>1250</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N660" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O660" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P660" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N661" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O661" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P661" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O662" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P662" t="n">
-        <v>8295</v>
+        <v>10393</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>900</v>
+        <v>620</v>
       </c>
       <c r="N663" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O663" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P663" t="n">
-        <v>9278</v>
+        <v>13548</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>464</v>
+        <v>677</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="N664" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O664" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="P664" t="n">
-        <v>11306</v>
+        <v>14458</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>565</v>
+        <v>723</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>1180</v>
+        <v>440</v>
       </c>
       <c r="N665" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O665" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P665" t="n">
-        <v>12153</v>
+        <v>8295</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>608</v>
+        <v>415</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="N666" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O666" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P666" t="n">
-        <v>7412</v>
+        <v>9278</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="N667" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O667" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P667" t="n">
-        <v>10455</v>
+        <v>11306</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>1040</v>
+        <v>1180</v>
       </c>
       <c r="N668" t="n">
         <v>11000</v>
       </c>
       <c r="O668" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P668" t="n">
-        <v>11462</v>
+        <v>12153</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N669" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O669" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P669" t="n">
-        <v>13562</v>
+        <v>7412</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>678</v>
+        <v>371</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,25 +53955,25 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>450</v>
+        <v>880</v>
       </c>
       <c r="N670" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O670" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P670" t="n">
-        <v>19444</v>
+        <v>10455</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>680</v>
+        <v>1040</v>
       </c>
       <c r="N671" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O671" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P671" t="n">
-        <v>18000</v>
+        <v>11462</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>900</v>
+        <v>573</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="N672" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O672" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P672" t="n">
-        <v>19000</v>
+        <v>13562</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>950</v>
+        <v>678</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N673" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O673" t="n">
         <v>20000</v>
       </c>
       <c r="P673" t="n">
-        <v>20000</v>
+        <v>19444</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N674" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O674" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P674" t="n">
-        <v>14589</v>
+        <v>18000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="N675" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O675" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P675" t="n">
-        <v>16520</v>
+        <v>19000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>826</v>
+        <v>950</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="N676" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O676" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P676" t="n">
-        <v>12510</v>
+        <v>20000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>626</v>
+        <v>1000</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N677" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O677" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P677" t="n">
-        <v>12667</v>
+        <v>14589</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54604,16 +54604,16 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>1240</v>
+        <v>2000</v>
       </c>
       <c r="N678" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O678" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P678" t="n">
-        <v>14677</v>
+        <v>16520</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54675,25 +54675,25 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="N679" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O679" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P679" t="n">
-        <v>19636</v>
+        <v>12510</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>982</v>
+        <v>626</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N680" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O680" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P680" t="n">
-        <v>7773</v>
+        <v>12667</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>389</v>
+        <v>633</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>960</v>
+        <v>1240</v>
       </c>
       <c r="N681" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O681" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P681" t="n">
-        <v>8792</v>
+        <v>14677</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>440</v>
+        <v>734</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>1420</v>
+        <v>220</v>
       </c>
       <c r="N682" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O682" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P682" t="n">
-        <v>9620</v>
+        <v>19636</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>481</v>
+        <v>982</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N683" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O683" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P683" t="n">
-        <v>11600</v>
+        <v>7773</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>580</v>
+        <v>389</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N684" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O684" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P684" t="n">
-        <v>12550</v>
+        <v>8792</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>628</v>
+        <v>440</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55167,13 +55167,13 @@
         <v>1420</v>
       </c>
       <c r="N685" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O685" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P685" t="n">
-        <v>13599</v>
+        <v>9620</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>680</v>
+        <v>481</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N686" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O686" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P686" t="n">
-        <v>17571</v>
+        <v>11600</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>879</v>
+        <v>580</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N687" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O687" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P687" t="n">
-        <v>20474</v>
+        <v>12550</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>1024</v>
+        <v>628</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="N688" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O688" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P688" t="n">
-        <v>21562</v>
+        <v>13599</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1078</v>
+        <v>680</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="N689" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O689" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P689" t="n">
-        <v>19000</v>
+        <v>17571</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>950</v>
+        <v>879</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N690" t="n">
         <v>20000</v>
       </c>
       <c r="O690" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P690" t="n">
-        <v>20000</v>
+        <v>20474</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="N691" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O691" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P691" t="n">
-        <v>23000</v>
+        <v>21562</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1150</v>
+        <v>1078</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N692" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O692" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="P692" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N693" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O693" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P693" t="n">
-        <v>11545</v>
+        <v>20000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>577</v>
+        <v>1000</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="N694" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="O694" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P694" t="n">
-        <v>11731</v>
+        <v>23000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>587</v>
+        <v>1150</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>1480</v>
+        <v>480</v>
       </c>
       <c r="N695" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="O695" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P695" t="n">
-        <v>12838</v>
+        <v>24000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>642</v>
+        <v>1200</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56035,25 +56035,25 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="N696" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O696" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P696" t="n">
-        <v>25000</v>
+        <v>11545</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>1250</v>
+        <v>577</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N697" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O697" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P697" t="n">
-        <v>20000</v>
+        <v>11731</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>1000</v>
+        <v>587</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>350</v>
+        <v>1480</v>
       </c>
       <c r="N698" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O698" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P698" t="n">
-        <v>21000</v>
+        <v>12838</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>1050</v>
+        <v>642</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N699" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O699" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="P699" t="n">
-        <v>9273</v>
+        <v>25000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="N700" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O700" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P700" t="n">
-        <v>9581</v>
+        <v>20000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N701" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O701" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="P701" t="n">
-        <v>11260</v>
+        <v>21000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>563</v>
+        <v>1050</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>1340</v>
+        <v>440</v>
       </c>
       <c r="N702" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O702" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P702" t="n">
-        <v>11515</v>
+        <v>9273</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="N703" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O703" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P703" t="n">
-        <v>18429</v>
+        <v>9581</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>921</v>
+        <v>479</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N704" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O704" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="P704" t="n">
-        <v>18475</v>
+        <v>11260</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>924</v>
+        <v>563</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56764,16 +56764,16 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>880</v>
+        <v>1340</v>
       </c>
       <c r="N705" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O705" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P705" t="n">
-        <v>20455</v>
+        <v>11515</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>1023</v>
+        <v>576</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N706" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O706" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P706" t="n">
-        <v>17000</v>
+        <v>18429</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N707" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O707" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P707" t="n">
-        <v>9459</v>
+        <v>18475</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="N708" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O708" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P708" t="n">
-        <v>11548</v>
+        <v>20455</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>577</v>
+        <v>1023</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>1440</v>
+        <v>80</v>
       </c>
       <c r="N709" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O709" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P709" t="n">
-        <v>14701</v>
+        <v>17000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57164,7 +57164,7 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>1680</v>
+        <v>370</v>
       </c>
       <c r="N710" t="n">
         <v>9000</v>
@@ -57173,7 +57173,7 @@
         <v>10000</v>
       </c>
       <c r="P710" t="n">
-        <v>9500</v>
+        <v>9459</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="N711" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O711" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P711" t="n">
-        <v>10500</v>
+        <v>11548</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>340</v>
+        <v>1440</v>
       </c>
       <c r="N712" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O712" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P712" t="n">
-        <v>8294</v>
+        <v>14701</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>415</v>
+        <v>735</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57404,7 +57404,7 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N713" t="n">
         <v>9000</v>
@@ -57413,7 +57413,7 @@
         <v>10000</v>
       </c>
       <c r="P713" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="N714" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O714" t="n">
         <v>11000</v>
       </c>
-      <c r="O714" t="n">
-        <v>12000</v>
-      </c>
       <c r="P714" t="n">
-        <v>11423</v>
+        <v>10500</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>1470</v>
+        <v>340</v>
       </c>
       <c r="N715" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O715" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P715" t="n">
-        <v>12466</v>
+        <v>8294</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>623</v>
+        <v>415</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N716" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O716" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P716" t="n">
-        <v>20000</v>
+        <v>9450</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1000</v>
+        <v>472</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,11 +57720,11 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N717" t="n">
         <v>11000</v>
@@ -57733,7 +57733,7 @@
         <v>12000</v>
       </c>
       <c r="P717" t="n">
-        <v>11550</v>
+        <v>11423</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>760</v>
+        <v>1470</v>
       </c>
       <c r="N718" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O718" t="n">
         <v>13000</v>
       </c>
-      <c r="O718" t="n">
-        <v>14000</v>
-      </c>
       <c r="P718" t="n">
-        <v>13632</v>
+        <v>12466</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N719" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O719" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P719" t="n">
-        <v>9417</v>
+        <v>20000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>471</v>
+        <v>1000</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,11 +57960,11 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N720" t="n">
         <v>11000</v>
@@ -57973,7 +57973,7 @@
         <v>12000</v>
       </c>
       <c r="P720" t="n">
-        <v>11440</v>
+        <v>11550</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58044,16 +58044,16 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>1420</v>
+        <v>760</v>
       </c>
       <c r="N721" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O721" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P721" t="n">
-        <v>12535</v>
+        <v>13632</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="N722" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O722" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P722" t="n">
-        <v>7385</v>
+        <v>9417</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="N723" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O723" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P723" t="n">
-        <v>9588</v>
+        <v>11440</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>479</v>
+        <v>572</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>540</v>
+        <v>1420</v>
       </c>
       <c r="N724" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O724" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P724" t="n">
-        <v>11481</v>
+        <v>12535</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>1690</v>
+        <v>650</v>
       </c>
       <c r="N725" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O725" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P725" t="n">
-        <v>13423</v>
+        <v>7385</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>671</v>
+        <v>369</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="N726" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O726" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P726" t="n">
-        <v>16000</v>
+        <v>9588</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>800</v>
+        <v>479</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>980</v>
+        <v>540</v>
       </c>
       <c r="N727" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O727" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P727" t="n">
-        <v>17000</v>
+        <v>11481</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>850</v>
+        <v>574</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>1200</v>
+        <v>1690</v>
       </c>
       <c r="N728" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O728" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P728" t="n">
-        <v>18000</v>
+        <v>13423</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>900</v>
+        <v>671</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N729" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O729" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P729" t="n">
-        <v>22650</v>
+        <v>16000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>1132</v>
+        <v>800</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="N730" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O730" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P730" t="n">
-        <v>11459</v>
+        <v>17000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>573</v>
+        <v>850</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="N731" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O731" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P731" t="n">
-        <v>12538</v>
+        <v>18000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>627</v>
+        <v>900</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="N732" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O732" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P732" t="n">
-        <v>14463</v>
+        <v>22650</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>723</v>
+        <v>1132</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="N733" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O733" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P733" t="n">
-        <v>15509</v>
+        <v>11459</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="N734" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O734" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P734" t="n">
-        <v>19500</v>
+        <v>12538</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>975</v>
+        <v>627</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -59164,16 +59164,16 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="N735" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O735" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P735" t="n">
-        <v>9000</v>
+        <v>14463</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>450</v>
+        <v>723</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59244,16 +59244,16 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1520</v>
+        <v>1140</v>
       </c>
       <c r="N736" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O736" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P736" t="n">
-        <v>10368</v>
+        <v>15509</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59324,16 +59324,16 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N737" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O737" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P737" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N738" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O738" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P738" t="n">
-        <v>8342</v>
+        <v>9000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59480,20 +59480,20 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="N739" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O739" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P739" t="n">
-        <v>9571</v>
+        <v>10368</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="N740" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O740" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P740" t="n">
-        <v>10744</v>
+        <v>16000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>537</v>
+        <v>800</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>1790</v>
+        <v>380</v>
       </c>
       <c r="N741" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O741" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P741" t="n">
-        <v>11620</v>
+        <v>8342</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N742" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O742" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P742" t="n">
-        <v>8780</v>
+        <v>9571</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59800,20 +59800,20 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N743" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O743" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P743" t="n">
-        <v>9763</v>
+        <v>10744</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>500</v>
+        <v>1790</v>
       </c>
       <c r="N744" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O744" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P744" t="n">
-        <v>10780</v>
+        <v>11620</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>1460</v>
+        <v>500</v>
       </c>
       <c r="N745" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O745" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P745" t="n">
-        <v>12548</v>
+        <v>8780</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N746" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O746" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P746" t="n">
-        <v>19000</v>
+        <v>9763</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>950</v>
+        <v>488</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N747" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O747" t="n">
         <v>11000</v>
       </c>
-      <c r="O747" t="n">
-        <v>12000</v>
-      </c>
       <c r="P747" t="n">
-        <v>11548</v>
+        <v>10780</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,11 +60200,11 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>680</v>
+        <v>1460</v>
       </c>
       <c r="N748" t="n">
         <v>12000</v>
@@ -60213,7 +60213,7 @@
         <v>13000</v>
       </c>
       <c r="P748" t="n">
-        <v>12412</v>
+        <v>12548</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N749" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O749" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P749" t="n">
-        <v>13631</v>
+        <v>19000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60364,16 +60364,16 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N750" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O750" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P750" t="n">
-        <v>9591</v>
+        <v>11548</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="T750" t="n">
         <v>20</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N751" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O751" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P751" t="n">
-        <v>11538</v>
+        <v>12412</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="T751" t="n">
         <v>20</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60524,16 +60524,16 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>1040</v>
+        <v>1680</v>
       </c>
       <c r="N752" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O752" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P752" t="n">
-        <v>12538</v>
+        <v>13631</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T752" t="n">
         <v>20</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N753" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O753" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P753" t="n">
-        <v>8500</v>
+        <v>9591</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="T753" t="n">
         <v>20</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>1680</v>
+        <v>1040</v>
       </c>
       <c r="N754" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O754" t="n">
         <v>12000</v>
       </c>
       <c r="P754" t="n">
-        <v>11000</v>
+        <v>11538</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="T754" t="n">
         <v>20</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N755" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O755" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P755" t="n">
-        <v>16000</v>
+        <v>12538</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="T755" t="n">
         <v>20</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="N756" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O756" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P756" t="n">
-        <v>12571</v>
+        <v>8500</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>629</v>
+        <v>425</v>
       </c>
       <c r="T756" t="n">
         <v>20</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60924,16 +60924,16 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N757" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O757" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P757" t="n">
-        <v>13725</v>
+        <v>11000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>686</v>
+        <v>550</v>
       </c>
       <c r="T757" t="n">
         <v>20</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,25 +60995,25 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N758" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O758" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P758" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T758" t="n">
         <v>20</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N759" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O759" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P759" t="n">
-        <v>25000</v>
+        <v>12571</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>1250</v>
+        <v>629</v>
       </c>
       <c r="T759" t="n">
         <v>20</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61167,28 +61167,268 @@
         <v>400</v>
       </c>
       <c r="N760" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O760" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P760" t="n">
+        <v>13725</v>
+      </c>
+      <c r="Q760" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S760" t="n">
+        <v>686</v>
+      </c>
+      <c r="T760" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>9</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E761" t="n">
+        <v>13</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M761" t="n">
+        <v>300</v>
+      </c>
+      <c r="N761" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O761" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P761" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q761" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S761" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T761" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>9</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E762" t="n">
+        <v>13</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M762" t="n">
+        <v>380</v>
+      </c>
+      <c r="N762" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O762" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P762" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q762" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S762" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T762" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>9</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E763" t="n">
+        <v>13</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G763" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M763" t="n">
+        <v>400</v>
+      </c>
+      <c r="N763" t="n">
         <v>26000</v>
       </c>
-      <c r="O760" t="n">
+      <c r="O763" t="n">
         <v>26000</v>
       </c>
-      <c r="P760" t="n">
+      <c r="P763" t="n">
         <v>26000</v>
       </c>
-      <c r="Q760" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R760" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S760" t="n">
+      <c r="Q763" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S763" t="n">
         <v>1300</v>
       </c>
-      <c r="T760" t="n">
+      <c r="T763" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T763"/>
+  <dimension ref="A1:T766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="N625" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O625" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P625" t="n">
-        <v>18571</v>
+        <v>14000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>929</v>
+        <v>700</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>340</v>
+        <v>870</v>
       </c>
       <c r="N626" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O626" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P626" t="n">
-        <v>8294</v>
+        <v>15000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>415</v>
+        <v>750</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>440</v>
+        <v>950</v>
       </c>
       <c r="N627" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O627" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P627" t="n">
-        <v>9591</v>
+        <v>16000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>860</v>
+        <v>140</v>
       </c>
       <c r="N628" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O628" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P628" t="n">
-        <v>10558</v>
+        <v>18571</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>528</v>
+        <v>929</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>820</v>
+        <v>340</v>
       </c>
       <c r="N629" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O629" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P629" t="n">
-        <v>12512</v>
+        <v>8294</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>626</v>
+        <v>415</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N630" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O630" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P630" t="n">
-        <v>14000</v>
+        <v>9591</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>700</v>
+        <v>480</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>550</v>
+        <v>860</v>
       </c>
       <c r="N631" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O631" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P631" t="n">
-        <v>9455</v>
+        <v>10558</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>530</v>
+        <v>820</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O632" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P632" t="n">
-        <v>10472</v>
+        <v>12512</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>524</v>
+        <v>626</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N633" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O633" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P633" t="n">
-        <v>12517</v>
+        <v>14000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="N634" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P634" t="n">
-        <v>13481</v>
+        <v>9455</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>674</v>
+        <v>473</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,25 +51155,25 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="N635" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P635" t="n">
-        <v>14571</v>
+        <v>10472</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>729</v>
+        <v>524</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P636" t="n">
-        <v>9556</v>
+        <v>12517</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1530</v>
+        <v>790</v>
       </c>
       <c r="N637" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O637" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P637" t="n">
-        <v>11686</v>
+        <v>13481</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="N638" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O638" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P638" t="n">
-        <v>12613</v>
+        <v>14571</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>631</v>
+        <v>729</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="N639" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O639" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P639" t="n">
-        <v>12576</v>
+        <v>9556</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>629</v>
+        <v>478</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51564,16 +51564,16 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>680</v>
+        <v>1530</v>
       </c>
       <c r="N640" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O640" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P640" t="n">
-        <v>14588</v>
+        <v>11686</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>729</v>
+        <v>584</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>1710</v>
+        <v>1500</v>
       </c>
       <c r="N641" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P641" t="n">
-        <v>15591</v>
+        <v>12613</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>780</v>
+        <v>631</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51715,25 +51715,25 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>40</v>
+        <v>660</v>
       </c>
       <c r="N642" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O642" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P642" t="n">
-        <v>16000</v>
+        <v>12576</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>800</v>
+        <v>629</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N643" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P643" t="n">
-        <v>10591</v>
+        <v>14588</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>530</v>
+        <v>729</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>1040</v>
+        <v>1710</v>
       </c>
       <c r="N644" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O644" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P644" t="n">
-        <v>12538</v>
+        <v>15591</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>627</v>
+        <v>780</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,25 +51955,25 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="N645" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O645" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P645" t="n">
-        <v>13600</v>
+        <v>16000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="N646" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O646" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P646" t="n">
-        <v>14483</v>
+        <v>10591</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>724</v>
+        <v>530</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>790</v>
+        <v>1040</v>
       </c>
       <c r="N647" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O647" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P647" t="n">
-        <v>15443</v>
+        <v>12538</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>772</v>
+        <v>627</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>1120</v>
+        <v>500</v>
       </c>
       <c r="N648" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O648" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P648" t="n">
-        <v>9500</v>
+        <v>13600</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>880</v>
+        <v>580</v>
       </c>
       <c r="N649" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O649" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P649" t="n">
-        <v>11455</v>
+        <v>14483</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>573</v>
+        <v>724</v>
       </c>
       <c r="T649" t="n">
         <v>20</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="N650" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O650" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P650" t="n">
-        <v>7722</v>
+        <v>15443</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52444,17 +52444,17 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>900</v>
+        <v>1120</v>
       </c>
       <c r="N651" t="n">
         <v>9000</v>
       </c>
       <c r="O651" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P651" t="n">
         <v>9500</v>
       </c>
-      <c r="P651" t="n">
-        <v>9211</v>
-      </c>
       <c r="Q651" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>60</v>
+        <v>880</v>
       </c>
       <c r="N652" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O652" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P652" t="n">
-        <v>15000</v>
+        <v>11455</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>750</v>
+        <v>573</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>1160</v>
+        <v>630</v>
       </c>
       <c r="N653" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O653" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>10741</v>
+        <v>7722</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>440</v>
+        <v>900</v>
       </c>
       <c r="N654" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O654" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P654" t="n">
-        <v>13000</v>
+        <v>9211</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>650</v>
+        <v>461</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N655" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O655" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P655" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>860</v>
+        <v>1160</v>
       </c>
       <c r="N656" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O656" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P656" t="n">
-        <v>15523</v>
+        <v>10741</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>776</v>
+        <v>537</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>1430</v>
+        <v>440</v>
       </c>
       <c r="N657" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O657" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P657" t="n">
-        <v>16524</v>
+        <v>13000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>826</v>
+        <v>650</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N658" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O658" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P658" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>400</v>
+        <v>860</v>
       </c>
       <c r="N659" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O659" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P659" t="n">
-        <v>25000</v>
+        <v>15523</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1250</v>
+        <v>776</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>400</v>
+        <v>1430</v>
       </c>
       <c r="N660" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O660" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P660" t="n">
-        <v>21450</v>
+        <v>16524</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1072</v>
+        <v>826</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="N661" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O661" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P661" t="n">
-        <v>9571</v>
+        <v>24000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>479</v>
+        <v>1200</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N662" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O662" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P662" t="n">
-        <v>10393</v>
+        <v>25000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>520</v>
+        <v>1250</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N663" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O663" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P663" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N664" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O664" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P664" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="N665" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O665" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P665" t="n">
-        <v>8295</v>
+        <v>10393</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>900</v>
+        <v>620</v>
       </c>
       <c r="N666" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O666" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P666" t="n">
-        <v>9278</v>
+        <v>13548</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>464</v>
+        <v>677</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="N667" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O667" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="P667" t="n">
-        <v>11306</v>
+        <v>14458</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>565</v>
+        <v>723</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>1180</v>
+        <v>440</v>
       </c>
       <c r="N668" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O668" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P668" t="n">
-        <v>12153</v>
+        <v>8295</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>608</v>
+        <v>415</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="N669" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O669" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P669" t="n">
-        <v>7412</v>
+        <v>9278</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="N670" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O670" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P670" t="n">
-        <v>10455</v>
+        <v>11306</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="T670" t="n">
         <v>20</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1040</v>
+        <v>1180</v>
       </c>
       <c r="N671" t="n">
         <v>11000</v>
       </c>
       <c r="O671" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P671" t="n">
-        <v>11462</v>
+        <v>12153</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="N672" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O672" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P672" t="n">
-        <v>13562</v>
+        <v>7412</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>678</v>
+        <v>371</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,25 +54195,25 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>450</v>
+        <v>880</v>
       </c>
       <c r="N673" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O673" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P673" t="n">
-        <v>19444</v>
+        <v>10455</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>972</v>
+        <v>523</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>680</v>
+        <v>1040</v>
       </c>
       <c r="N674" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O674" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P674" t="n">
-        <v>18000</v>
+        <v>11462</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>900</v>
+        <v>573</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="N675" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O675" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P675" t="n">
-        <v>19000</v>
+        <v>13562</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>950</v>
+        <v>678</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N676" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O676" t="n">
         <v>20000</v>
       </c>
       <c r="P676" t="n">
-        <v>20000</v>
+        <v>19444</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>1120</v>
+        <v>680</v>
       </c>
       <c r="N677" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O677" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P677" t="n">
-        <v>14589</v>
+        <v>18000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="N678" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O678" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P678" t="n">
-        <v>16520</v>
+        <v>19000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>826</v>
+        <v>950</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="N679" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O679" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P679" t="n">
-        <v>12510</v>
+        <v>20000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>626</v>
+        <v>1000</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>600</v>
+        <v>1120</v>
       </c>
       <c r="N680" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O680" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P680" t="n">
-        <v>12667</v>
+        <v>14589</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>1240</v>
+        <v>2000</v>
       </c>
       <c r="N681" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O681" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P681" t="n">
-        <v>14677</v>
+        <v>16520</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="N682" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O682" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P682" t="n">
-        <v>19636</v>
+        <v>12510</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>982</v>
+        <v>626</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N683" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O683" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P683" t="n">
-        <v>7773</v>
+        <v>12667</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>389</v>
+        <v>633</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>960</v>
+        <v>1240</v>
       </c>
       <c r="N684" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O684" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P684" t="n">
-        <v>8792</v>
+        <v>14677</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>440</v>
+        <v>734</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>1420</v>
+        <v>220</v>
       </c>
       <c r="N685" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O685" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P685" t="n">
-        <v>9620</v>
+        <v>19636</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>481</v>
+        <v>982</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O686" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P686" t="n">
-        <v>11600</v>
+        <v>7773</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>580</v>
+        <v>389</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N687" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O687" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P687" t="n">
-        <v>12550</v>
+        <v>8792</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>628</v>
+        <v>440</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55407,13 +55407,13 @@
         <v>1420</v>
       </c>
       <c r="N688" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O688" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P688" t="n">
-        <v>13599</v>
+        <v>9620</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>680</v>
+        <v>481</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="N689" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O689" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P689" t="n">
-        <v>17571</v>
+        <v>11600</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>879</v>
+        <v>580</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N690" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O690" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P690" t="n">
-        <v>20474</v>
+        <v>12550</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1024</v>
+        <v>628</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55644,16 +55644,16 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="N691" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O691" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P691" t="n">
-        <v>21562</v>
+        <v>13599</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1078</v>
+        <v>680</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="N692" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O692" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P692" t="n">
-        <v>19000</v>
+        <v>17571</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>950</v>
+        <v>879</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N693" t="n">
         <v>20000</v>
       </c>
       <c r="O693" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P693" t="n">
-        <v>20000</v>
+        <v>20474</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="N694" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O694" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P694" t="n">
-        <v>23000</v>
+        <v>21562</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>1150</v>
+        <v>1078</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N695" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O695" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="P695" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="N696" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O696" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P696" t="n">
-        <v>11545</v>
+        <v>20000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>577</v>
+        <v>1000</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>1040</v>
+        <v>300</v>
       </c>
       <c r="N697" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="O697" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P697" t="n">
-        <v>11731</v>
+        <v>23000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>587</v>
+        <v>1150</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>1480</v>
+        <v>480</v>
       </c>
       <c r="N698" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="O698" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P698" t="n">
-        <v>12838</v>
+        <v>24000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>642</v>
+        <v>1200</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="N699" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O699" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P699" t="n">
-        <v>25000</v>
+        <v>11545</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>1250</v>
+        <v>577</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N700" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O700" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P700" t="n">
-        <v>20000</v>
+        <v>11731</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1000</v>
+        <v>587</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -56444,16 +56444,16 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>350</v>
+        <v>1480</v>
       </c>
       <c r="N701" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O701" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P701" t="n">
-        <v>21000</v>
+        <v>12838</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>1050</v>
+        <v>642</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,25 +56515,25 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N702" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O702" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="P702" t="n">
-        <v>9273</v>
+        <v>25000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>464</v>
+        <v>1250</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="N703" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O703" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P703" t="n">
-        <v>9581</v>
+        <v>20000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N704" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O704" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="P704" t="n">
-        <v>11260</v>
+        <v>21000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>563</v>
+        <v>1050</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>1340</v>
+        <v>440</v>
       </c>
       <c r="N705" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O705" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P705" t="n">
-        <v>11515</v>
+        <v>9273</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>576</v>
+        <v>464</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="N706" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O706" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P706" t="n">
-        <v>18429</v>
+        <v>9581</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>921</v>
+        <v>479</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N707" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O707" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="P707" t="n">
-        <v>18475</v>
+        <v>11260</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>924</v>
+        <v>563</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>880</v>
+        <v>1340</v>
       </c>
       <c r="N708" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O708" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P708" t="n">
-        <v>20455</v>
+        <v>11515</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1023</v>
+        <v>576</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N709" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O709" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P709" t="n">
-        <v>17000</v>
+        <v>18429</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="N710" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O710" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P710" t="n">
-        <v>9459</v>
+        <v>18475</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="N711" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O711" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P711" t="n">
-        <v>11548</v>
+        <v>20455</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>577</v>
+        <v>1023</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1440</v>
+        <v>80</v>
       </c>
       <c r="N712" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O712" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P712" t="n">
-        <v>14701</v>
+        <v>17000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>735</v>
+        <v>850</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57404,7 +57404,7 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>1680</v>
+        <v>370</v>
       </c>
       <c r="N713" t="n">
         <v>9000</v>
@@ -57413,7 +57413,7 @@
         <v>10000</v>
       </c>
       <c r="P713" t="n">
-        <v>9500</v>
+        <v>9459</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>1200</v>
+        <v>620</v>
       </c>
       <c r="N714" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O714" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P714" t="n">
-        <v>10500</v>
+        <v>11548</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>340</v>
+        <v>1440</v>
       </c>
       <c r="N715" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O715" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P715" t="n">
-        <v>8294</v>
+        <v>14701</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>415</v>
+        <v>735</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57644,7 +57644,7 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N716" t="n">
         <v>9000</v>
@@ -57653,7 +57653,7 @@
         <v>10000</v>
       </c>
       <c r="P716" t="n">
-        <v>9450</v>
+        <v>9500</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="N717" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O717" t="n">
         <v>11000</v>
       </c>
-      <c r="O717" t="n">
-        <v>12000</v>
-      </c>
       <c r="P717" t="n">
-        <v>11423</v>
+        <v>10500</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>1470</v>
+        <v>340</v>
       </c>
       <c r="N718" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O718" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P718" t="n">
-        <v>12466</v>
+        <v>8294</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>623</v>
+        <v>415</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N719" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O719" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P719" t="n">
-        <v>20000</v>
+        <v>9450</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>1000</v>
+        <v>472</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,11 +57960,11 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="N720" t="n">
         <v>11000</v>
@@ -57973,7 +57973,7 @@
         <v>12000</v>
       </c>
       <c r="P720" t="n">
-        <v>11550</v>
+        <v>11423</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58044,16 +58044,16 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>760</v>
+        <v>1470</v>
       </c>
       <c r="N721" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O721" t="n">
         <v>13000</v>
       </c>
-      <c r="O721" t="n">
-        <v>14000</v>
-      </c>
       <c r="P721" t="n">
-        <v>13632</v>
+        <v>12466</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,25 +58115,25 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>480</v>
+        <v>50</v>
       </c>
       <c r="N722" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O722" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P722" t="n">
-        <v>9417</v>
+        <v>20000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>471</v>
+        <v>1000</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,11 +58200,11 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N723" t="n">
         <v>11000</v>
@@ -58213,7 +58213,7 @@
         <v>12000</v>
       </c>
       <c r="P723" t="n">
-        <v>11440</v>
+        <v>11550</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -58284,16 +58284,16 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>1420</v>
+        <v>760</v>
       </c>
       <c r="N724" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O724" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P724" t="n">
-        <v>12535</v>
+        <v>13632</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="N725" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O725" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P725" t="n">
-        <v>7385</v>
+        <v>9417</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="N726" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O726" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P726" t="n">
-        <v>9588</v>
+        <v>11440</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>479</v>
+        <v>572</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>540</v>
+        <v>1420</v>
       </c>
       <c r="N727" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O727" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P727" t="n">
-        <v>11481</v>
+        <v>12535</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>1690</v>
+        <v>650</v>
       </c>
       <c r="N728" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O728" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P728" t="n">
-        <v>13423</v>
+        <v>7385</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>671</v>
+        <v>369</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="N729" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O729" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>16000</v>
+        <v>9588</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>800</v>
+        <v>479</v>
       </c>
       <c r="T729" t="n">
         <v>20</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58764,16 +58764,16 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>980</v>
+        <v>540</v>
       </c>
       <c r="N730" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O730" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P730" t="n">
-        <v>17000</v>
+        <v>11481</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>850</v>
+        <v>574</v>
       </c>
       <c r="T730" t="n">
         <v>20</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>1200</v>
+        <v>1690</v>
       </c>
       <c r="N731" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O731" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P731" t="n">
-        <v>18000</v>
+        <v>13423</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>900</v>
+        <v>671</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N732" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O732" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P732" t="n">
-        <v>22650</v>
+        <v>16000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>1132</v>
+        <v>800</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="N733" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O733" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P733" t="n">
-        <v>11459</v>
+        <v>17000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>573</v>
+        <v>850</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="N734" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O734" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P734" t="n">
-        <v>12538</v>
+        <v>18000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>627</v>
+        <v>900</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="N735" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P735" t="n">
-        <v>14463</v>
+        <v>22650</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>723</v>
+        <v>1132</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="N736" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O736" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P736" t="n">
-        <v>15509</v>
+        <v>11459</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="N737" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O737" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P737" t="n">
-        <v>19500</v>
+        <v>12538</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>975</v>
+        <v>627</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="N738" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O738" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P738" t="n">
-        <v>9000</v>
+        <v>14463</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>450</v>
+        <v>723</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>1520</v>
+        <v>1140</v>
       </c>
       <c r="N739" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O739" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P739" t="n">
-        <v>10368</v>
+        <v>15509</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>518</v>
+        <v>775</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N740" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O740" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P740" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>800</v>
+        <v>975</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N741" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O741" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P741" t="n">
-        <v>8342</v>
+        <v>9000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="N742" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O742" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P742" t="n">
-        <v>9571</v>
+        <v>10368</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="N743" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O743" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P743" t="n">
-        <v>10744</v>
+        <v>16000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>537</v>
+        <v>800</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>1790</v>
+        <v>380</v>
       </c>
       <c r="N744" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O744" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P744" t="n">
-        <v>11620</v>
+        <v>8342</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N745" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O745" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P745" t="n">
-        <v>8780</v>
+        <v>9571</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="N746" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O746" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P746" t="n">
-        <v>9763</v>
+        <v>10744</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>500</v>
+        <v>1790</v>
       </c>
       <c r="N747" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O747" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P747" t="n">
-        <v>10780</v>
+        <v>11620</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>1460</v>
+        <v>500</v>
       </c>
       <c r="N748" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O748" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P748" t="n">
-        <v>12548</v>
+        <v>8780</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N749" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O749" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P749" t="n">
-        <v>19000</v>
+        <v>9763</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>950</v>
+        <v>488</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N750" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O750" t="n">
         <v>11000</v>
       </c>
-      <c r="O750" t="n">
-        <v>12000</v>
-      </c>
       <c r="P750" t="n">
-        <v>11548</v>
+        <v>10780</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="T750" t="n">
         <v>20</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60440,11 +60440,11 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>680</v>
+        <v>1460</v>
       </c>
       <c r="N751" t="n">
         <v>12000</v>
@@ -60453,7 +60453,7 @@
         <v>13000</v>
       </c>
       <c r="P751" t="n">
-        <v>12412</v>
+        <v>12548</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="T751" t="n">
         <v>20</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="N752" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O752" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P752" t="n">
-        <v>13631</v>
+        <v>19000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="T752" t="n">
         <v>20</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N753" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O753" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P753" t="n">
-        <v>9591</v>
+        <v>11548</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="T753" t="n">
         <v>20</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60684,16 +60684,16 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>1040</v>
+        <v>680</v>
       </c>
       <c r="N754" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P754" t="n">
-        <v>11538</v>
+        <v>12412</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="T754" t="n">
         <v>20</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60764,16 +60764,16 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>1040</v>
+        <v>1680</v>
       </c>
       <c r="N755" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O755" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P755" t="n">
-        <v>12538</v>
+        <v>13631</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="T755" t="n">
         <v>20</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N756" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O756" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P756" t="n">
-        <v>8500</v>
+        <v>9591</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="T756" t="n">
         <v>20</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60920,20 +60920,20 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>1680</v>
+        <v>1040</v>
       </c>
       <c r="N757" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O757" t="n">
         <v>12000</v>
       </c>
       <c r="P757" t="n">
-        <v>11000</v>
+        <v>11538</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="T757" t="n">
         <v>20</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,25 +60995,25 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>60</v>
+        <v>1040</v>
       </c>
       <c r="N758" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O758" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P758" t="n">
-        <v>16000</v>
+        <v>12538</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="T758" t="n">
         <v>20</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="N759" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O759" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P759" t="n">
-        <v>12571</v>
+        <v>8500</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>629</v>
+        <v>425</v>
       </c>
       <c r="T759" t="n">
         <v>20</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61164,16 +61164,16 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>400</v>
+        <v>1680</v>
       </c>
       <c r="N760" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O760" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P760" t="n">
-        <v>13725</v>
+        <v>11000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>686</v>
+        <v>550</v>
       </c>
       <c r="T760" t="n">
         <v>20</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,25 +61235,25 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N761" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O761" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P761" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T761" t="n">
         <v>20</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N762" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O762" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P762" t="n">
-        <v>25000</v>
+        <v>12571</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1250</v>
+        <v>629</v>
       </c>
       <c r="T762" t="n">
         <v>20</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61407,28 +61407,268 @@
         <v>400</v>
       </c>
       <c r="N763" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O763" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P763" t="n">
+        <v>13725</v>
+      </c>
+      <c r="Q763" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S763" t="n">
+        <v>686</v>
+      </c>
+      <c r="T763" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>9</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M764" t="n">
+        <v>300</v>
+      </c>
+      <c r="N764" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O764" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P764" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q764" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S764" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T764" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>9</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D765" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E765" t="n">
+        <v>13</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I765" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>Primera Maduro</t>
+        </is>
+      </c>
+      <c r="M765" t="n">
+        <v>380</v>
+      </c>
+      <c r="N765" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O765" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P765" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q765" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R765" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S765" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T765" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>9</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D766" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E766" t="n">
+        <v>13</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G766" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I766" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M766" t="n">
+        <v>400</v>
+      </c>
+      <c r="N766" t="n">
         <v>26000</v>
       </c>
-      <c r="O763" t="n">
+      <c r="O766" t="n">
         <v>26000</v>
       </c>
-      <c r="P763" t="n">
+      <c r="P766" t="n">
         <v>26000</v>
       </c>
-      <c r="Q763" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R763" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S763" t="n">
+      <c r="Q766" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R766" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S766" t="n">
         <v>1300</v>
       </c>
-      <c r="T763" t="n">
+      <c r="T766" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T780"/>
+  <dimension ref="A1:T782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="N672" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O672" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P672" t="n">
-        <v>7722</v>
+        <v>20000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>386</v>
+        <v>1000</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="N673" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O673" t="n">
-        <v>9500</v>
+        <v>21000</v>
       </c>
       <c r="P673" t="n">
-        <v>9211</v>
+        <v>21000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>461</v>
+        <v>1050</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>60</v>
+        <v>630</v>
       </c>
       <c r="N674" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O674" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P674" t="n">
-        <v>15000</v>
+        <v>7722</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>750</v>
+        <v>386</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>1160</v>
+        <v>900</v>
       </c>
       <c r="N675" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O675" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="P675" t="n">
-        <v>10741</v>
+        <v>9211</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N676" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O676" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P676" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>380</v>
+        <v>1160</v>
       </c>
       <c r="N677" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="O677" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P677" t="n">
-        <v>25000</v>
+        <v>10741</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1250</v>
+        <v>537</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N678" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O678" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P678" t="n">
-        <v>10591</v>
+        <v>24000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>530</v>
+        <v>1200</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="N679" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O679" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P679" t="n">
-        <v>12562</v>
+        <v>25000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>628</v>
+        <v>1250</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>940</v>
+        <v>440</v>
       </c>
       <c r="N680" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O680" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P680" t="n">
-        <v>13383</v>
+        <v>10591</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>669</v>
+        <v>530</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54835,25 +54835,25 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>115</v>
+        <v>640</v>
       </c>
       <c r="N681" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O681" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P681" t="n">
-        <v>19609</v>
+        <v>12562</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>980</v>
+        <v>628</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54924,7 +54924,7 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>700</v>
+        <v>940</v>
       </c>
       <c r="N682" t="n">
         <v>13000</v>
@@ -54933,7 +54933,7 @@
         <v>14000</v>
       </c>
       <c r="P682" t="n">
-        <v>13571</v>
+        <v>13383</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54995,25 +54995,25 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="N683" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O683" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P683" t="n">
-        <v>14000</v>
+        <v>19609</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>216</v>
+        <v>700</v>
       </c>
       <c r="N684" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O684" t="n">
         <v>14000</v>
       </c>
-      <c r="O684" t="n">
-        <v>15000</v>
-      </c>
       <c r="P684" t="n">
-        <v>14500</v>
+        <v>13571</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>725</v>
+        <v>679</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="N685" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O685" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P685" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>825</v>
+        <v>700</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>2320</v>
+        <v>216</v>
       </c>
       <c r="N686" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O686" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P686" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>875</v>
+        <v>725</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="N687" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O687" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P687" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>960</v>
+        <v>2320</v>
       </c>
       <c r="N688" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O688" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P688" t="n">
-        <v>11583</v>
+        <v>17500</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>579</v>
+        <v>875</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55475,25 +55475,25 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>880</v>
+        <v>60</v>
       </c>
       <c r="N689" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O689" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P689" t="n">
-        <v>12455</v>
+        <v>15000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>623</v>
+        <v>750</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="N690" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O690" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P690" t="n">
-        <v>13592</v>
+        <v>11583</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>680</v>
+        <v>579</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>750</v>
+        <v>880</v>
       </c>
       <c r="N691" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O691" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P691" t="n">
-        <v>20467</v>
+        <v>12455</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1023</v>
+        <v>623</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>1070</v>
+        <v>980</v>
       </c>
       <c r="N692" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O692" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P692" t="n">
-        <v>22486</v>
+        <v>13592</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>1124</v>
+        <v>680</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N693" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O693" t="n">
         <v>21000</v>
       </c>
-      <c r="O693" t="n">
-        <v>22000</v>
-      </c>
       <c r="P693" t="n">
-        <v>21450</v>
+        <v>20467</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1072</v>
+        <v>1023</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>420</v>
+        <v>1070</v>
       </c>
       <c r="N694" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O694" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P694" t="n">
-        <v>9571</v>
+        <v>22486</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>479</v>
+        <v>1124</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55955,25 +55955,25 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N695" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O695" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P695" t="n">
-        <v>10393</v>
+        <v>21450</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>520</v>
+        <v>1072</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="N696" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O696" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P696" t="n">
-        <v>13548</v>
+        <v>9571</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>677</v>
+        <v>479</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>830</v>
+        <v>560</v>
       </c>
       <c r="N697" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O697" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P697" t="n">
-        <v>14458</v>
+        <v>10393</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>205</v>
+        <v>620</v>
       </c>
       <c r="N698" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O698" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P698" t="n">
-        <v>8707</v>
+        <v>13548</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>435</v>
+        <v>677</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="N699" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O699" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P699" t="n">
-        <v>9775</v>
+        <v>14458</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>489</v>
+        <v>723</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>780</v>
+        <v>205</v>
       </c>
       <c r="N700" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O700" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P700" t="n">
-        <v>11513</v>
+        <v>8707</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>1560</v>
+        <v>400</v>
       </c>
       <c r="N701" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O701" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P701" t="n">
-        <v>12468</v>
+        <v>9775</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>623</v>
+        <v>489</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56515,25 +56515,25 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>280</v>
+        <v>780</v>
       </c>
       <c r="N702" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O702" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P702" t="n">
-        <v>21571</v>
+        <v>11513</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>1079</v>
+        <v>576</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="N703" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O703" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P703" t="n">
-        <v>8583</v>
+        <v>12468</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>429</v>
+        <v>623</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>780</v>
+        <v>280</v>
       </c>
       <c r="N704" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O704" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P704" t="n">
-        <v>10487</v>
+        <v>21571</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>524</v>
+        <v>1079</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="N705" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O705" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P705" t="n">
-        <v>11667</v>
+        <v>8583</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>583</v>
+        <v>429</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="N706" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O706" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P706" t="n">
-        <v>13560</v>
+        <v>10487</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>678</v>
+        <v>524</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>220</v>
+        <v>1440</v>
       </c>
       <c r="N707" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O707" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P707" t="n">
-        <v>15455</v>
+        <v>11667</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>773</v>
+        <v>583</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N708" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O708" t="n">
         <v>14000</v>
       </c>
-      <c r="O708" t="n">
-        <v>15000</v>
-      </c>
       <c r="P708" t="n">
-        <v>14556</v>
+        <v>13560</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>728</v>
+        <v>678</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57075,25 +57075,25 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>1190</v>
+        <v>220</v>
       </c>
       <c r="N709" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O709" t="n">
         <v>16000</v>
       </c>
-      <c r="O709" t="n">
-        <v>17000</v>
-      </c>
       <c r="P709" t="n">
-        <v>16445</v>
+        <v>15455</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>822</v>
+        <v>773</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="N710" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O710" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P710" t="n">
-        <v>17000</v>
+        <v>14556</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>850</v>
+        <v>728</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>980</v>
+        <v>1190</v>
       </c>
       <c r="N711" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O711" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P711" t="n">
-        <v>18000</v>
+        <v>16445</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>900</v>
+        <v>822</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="N712" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O712" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P712" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T712" t="n">
         <v>20</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>648</v>
+        <v>980</v>
       </c>
       <c r="N713" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O713" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P713" t="n">
-        <v>13167</v>
+        <v>18000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>658</v>
+        <v>900</v>
       </c>
       <c r="T713" t="n">
         <v>20</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M714" t="n">
         <v>1200</v>
       </c>
       <c r="N714" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O714" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P714" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>625</v>
+        <v>950</v>
       </c>
       <c r="T714" t="n">
         <v>20</v>
@@ -57555,25 +57555,25 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>2000</v>
+        <v>648</v>
       </c>
       <c r="N715" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O715" t="n">
         <v>14000</v>
       </c>
-      <c r="O715" t="n">
-        <v>15000</v>
-      </c>
       <c r="P715" t="n">
-        <v>14580</v>
+        <v>13167</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>729</v>
+        <v>658</v>
       </c>
       <c r="T715" t="n">
         <v>20</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -57644,16 +57644,16 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>380</v>
+        <v>1200</v>
       </c>
       <c r="N716" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O716" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P716" t="n">
-        <v>9474</v>
+        <v>12500</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>474</v>
+        <v>625</v>
       </c>
       <c r="T716" t="n">
         <v>20</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="N717" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O717" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P717" t="n">
-        <v>11664</v>
+        <v>14580</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>583</v>
+        <v>729</v>
       </c>
       <c r="T717" t="n">
         <v>20</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>1580</v>
+        <v>380</v>
       </c>
       <c r="N718" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O718" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P718" t="n">
-        <v>14627</v>
+        <v>9474</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>731</v>
+        <v>474</v>
       </c>
       <c r="T718" t="n">
         <v>20</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="N719" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O719" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P719" t="n">
-        <v>15000</v>
+        <v>11664</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="T719" t="n">
         <v>20</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>850</v>
+        <v>1580</v>
       </c>
       <c r="N720" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O720" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P720" t="n">
-        <v>16000</v>
+        <v>14627</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="T720" t="n">
         <v>20</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="N721" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O721" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P721" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="T721" t="n">
         <v>20</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>1080</v>
+        <v>850</v>
       </c>
       <c r="N722" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O722" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P722" t="n">
-        <v>14556</v>
+        <v>16000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>728</v>
+        <v>800</v>
       </c>
       <c r="T722" t="n">
         <v>20</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="N723" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O723" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P723" t="n">
-        <v>15487</v>
+        <v>17000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>774</v>
+        <v>850</v>
       </c>
       <c r="T723" t="n">
         <v>20</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>1990</v>
+        <v>1080</v>
       </c>
       <c r="N724" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O724" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P724" t="n">
-        <v>16573</v>
+        <v>14556</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>829</v>
+        <v>728</v>
       </c>
       <c r="T724" t="n">
         <v>20</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="N725" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O725" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P725" t="n">
-        <v>11000</v>
+        <v>15487</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>550</v>
+        <v>774</v>
       </c>
       <c r="T725" t="n">
         <v>20</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>500</v>
+        <v>1990</v>
       </c>
       <c r="N726" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O726" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P726" t="n">
-        <v>12000</v>
+        <v>16573</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>600</v>
+        <v>829</v>
       </c>
       <c r="T726" t="n">
         <v>20</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N727" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O727" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P727" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T727" t="n">
         <v>20</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N728" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O728" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P728" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T728" t="n">
         <v>20</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58680,11 +58680,11 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N729" t="n">
         <v>13000</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58760,11 +58760,11 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="N730" t="n">
         <v>14000</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="N731" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O731" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P731" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T731" t="n">
         <v>20</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="N732" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O732" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P732" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T732" t="n">
         <v>20</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>240</v>
+        <v>750</v>
       </c>
       <c r="N733" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O733" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P733" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="T733" t="n">
         <v>20</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N734" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O734" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P734" t="n">
-        <v>10591</v>
+        <v>8000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="T734" t="n">
         <v>20</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>780</v>
+        <v>240</v>
       </c>
       <c r="N735" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O735" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P735" t="n">
-        <v>11385</v>
+        <v>9000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>569</v>
+        <v>450</v>
       </c>
       <c r="T735" t="n">
         <v>20</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="N736" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O736" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P736" t="n">
-        <v>12500</v>
+        <v>10591</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>625</v>
+        <v>530</v>
       </c>
       <c r="T736" t="n">
         <v>20</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,25 +59315,25 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>140</v>
+        <v>780</v>
       </c>
       <c r="N737" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O737" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P737" t="n">
-        <v>20857</v>
+        <v>11385</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>1043</v>
+        <v>569</v>
       </c>
       <c r="T737" t="n">
         <v>20</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>380</v>
+        <v>1200</v>
       </c>
       <c r="N738" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O738" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>9737</v>
+        <v>12500</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>487</v>
+        <v>625</v>
       </c>
       <c r="T738" t="n">
         <v>20</v>
@@ -59475,25 +59475,25 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>640</v>
+        <v>140</v>
       </c>
       <c r="N739" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O739" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P739" t="n">
-        <v>10406</v>
+        <v>20857</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>520</v>
+        <v>1043</v>
       </c>
       <c r="T739" t="n">
         <v>20</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -59560,20 +59560,20 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="N740" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="O740" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P740" t="n">
-        <v>7708</v>
+        <v>9737</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>385</v>
+        <v>487</v>
       </c>
       <c r="T740" t="n">
         <v>20</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="N741" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O741" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P741" t="n">
-        <v>9196</v>
+        <v>10406</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="T741" t="n">
         <v>20</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="N742" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O742" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P742" t="n">
-        <v>11576</v>
+        <v>7708</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="T742" t="n">
         <v>20</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="N743" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O743" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="P743" t="n">
-        <v>23091</v>
+        <v>9196</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1155</v>
+        <v>460</v>
       </c>
       <c r="T743" t="n">
         <v>20</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="N744" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O744" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P744" t="n">
-        <v>9571</v>
+        <v>11576</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>479</v>
+        <v>579</v>
       </c>
       <c r="T744" t="n">
         <v>20</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="N745" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O745" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P745" t="n">
-        <v>11571</v>
+        <v>23091</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>579</v>
+        <v>1155</v>
       </c>
       <c r="T745" t="n">
         <v>20</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="N746" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O746" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P746" t="n">
-        <v>12588</v>
+        <v>9571</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="T746" t="n">
         <v>20</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N747" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O747" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P747" t="n">
-        <v>13000</v>
+        <v>11571</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>650</v>
+        <v>579</v>
       </c>
       <c r="T747" t="n">
         <v>20</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="N748" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O748" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P748" t="n">
-        <v>14000</v>
+        <v>12588</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>700</v>
+        <v>629</v>
       </c>
       <c r="T748" t="n">
         <v>20</v>
@@ -60280,20 +60280,20 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>890</v>
+        <v>410</v>
       </c>
       <c r="N749" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O749" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P749" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T749" t="n">
         <v>20</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="N750" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O750" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P750" t="n">
-        <v>8294</v>
+        <v>14000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>415</v>
+        <v>700</v>
       </c>
       <c r="T750" t="n">
         <v>20</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>400</v>
+        <v>890</v>
       </c>
       <c r="N751" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O751" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P751" t="n">
-        <v>9450</v>
+        <v>15000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>472</v>
+        <v>750</v>
       </c>
       <c r="T751" t="n">
         <v>20</v>
@@ -60520,20 +60520,20 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>780</v>
+        <v>340</v>
       </c>
       <c r="N752" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O752" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P752" t="n">
-        <v>11423</v>
+        <v>8294</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>571</v>
+        <v>415</v>
       </c>
       <c r="T752" t="n">
         <v>20</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>1470</v>
+        <v>400</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O753" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P753" t="n">
-        <v>12466</v>
+        <v>9450</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>623</v>
+        <v>472</v>
       </c>
       <c r="T753" t="n">
         <v>20</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>620</v>
+        <v>780</v>
       </c>
       <c r="N754" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O754" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P754" t="n">
-        <v>8452</v>
+        <v>11423</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>423</v>
+        <v>571</v>
       </c>
       <c r="T754" t="n">
         <v>20</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>540</v>
+        <v>1470</v>
       </c>
       <c r="N755" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O755" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P755" t="n">
-        <v>9556</v>
+        <v>12466</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="T755" t="n">
         <v>20</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="N756" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O756" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P756" t="n">
-        <v>11562</v>
+        <v>8452</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>578</v>
+        <v>423</v>
       </c>
       <c r="T756" t="n">
         <v>20</v>
@@ -60920,20 +60920,20 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>980</v>
+        <v>540</v>
       </c>
       <c r="N757" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O757" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P757" t="n">
-        <v>12592</v>
+        <v>9556</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>630</v>
+        <v>478</v>
       </c>
       <c r="T757" t="n">
         <v>20</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -61000,11 +61000,11 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="N758" t="n">
         <v>11000</v>
@@ -61013,7 +61013,7 @@
         <v>12000</v>
       </c>
       <c r="P758" t="n">
-        <v>11545</v>
+        <v>11562</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="T758" t="n">
         <v>20</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>1040</v>
+        <v>980</v>
       </c>
       <c r="N759" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O759" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P759" t="n">
-        <v>11731</v>
+        <v>12592</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="T759" t="n">
         <v>20</v>
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>1480</v>
+        <v>880</v>
       </c>
       <c r="N760" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O760" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P760" t="n">
-        <v>12838</v>
+        <v>11545</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="T760" t="n">
         <v>20</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61240,20 +61240,20 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>300</v>
+        <v>1040</v>
       </c>
       <c r="N761" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O761" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P761" t="n">
-        <v>10600</v>
+        <v>11731</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="T761" t="n">
         <v>20</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>400</v>
+        <v>1480</v>
       </c>
       <c r="N762" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O762" t="n">
         <v>13000</v>
       </c>
       <c r="P762" t="n">
-        <v>12550</v>
+        <v>12838</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="T762" t="n">
         <v>20</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>1320</v>
+        <v>300</v>
       </c>
       <c r="N763" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O763" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P763" t="n">
-        <v>14439</v>
+        <v>10600</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>722</v>
+        <v>530</v>
       </c>
       <c r="T763" t="n">
         <v>20</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61480,11 +61480,11 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N764" t="n">
         <v>12000</v>
@@ -61493,7 +61493,7 @@
         <v>13000</v>
       </c>
       <c r="P764" t="n">
-        <v>12675</v>
+        <v>12550</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="T764" t="n">
         <v>20</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61564,16 +61564,16 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>1740</v>
+        <v>1320</v>
       </c>
       <c r="N765" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O765" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P765" t="n">
-        <v>13667</v>
+        <v>14439</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="T765" t="n">
         <v>20</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N766" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O766" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P766" t="n">
-        <v>8780</v>
+        <v>12675</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>439</v>
+        <v>634</v>
       </c>
       <c r="T766" t="n">
         <v>20</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61720,20 +61720,20 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>380</v>
+        <v>1740</v>
       </c>
       <c r="N767" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O767" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P767" t="n">
-        <v>9763</v>
+        <v>13667</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>488</v>
+        <v>683</v>
       </c>
       <c r="T767" t="n">
         <v>20</v>
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M768" t="n">
         <v>500</v>
       </c>
       <c r="N768" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="O768" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P768" t="n">
-        <v>10780</v>
+        <v>8780</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>539</v>
+        <v>439</v>
       </c>
       <c r="T768" t="n">
         <v>20</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>1460</v>
+        <v>380</v>
       </c>
       <c r="N769" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O769" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P769" t="n">
-        <v>12548</v>
+        <v>9763</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>627</v>
+        <v>488</v>
       </c>
       <c r="T769" t="n">
         <v>20</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N770" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O770" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P770" t="n">
-        <v>19000</v>
+        <v>10780</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>950</v>
+        <v>539</v>
       </c>
       <c r="T770" t="n">
         <v>20</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62044,16 +62044,16 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>400</v>
+        <v>1460</v>
       </c>
       <c r="N771" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O771" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P771" t="n">
-        <v>20000</v>
+        <v>12548</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1000</v>
+        <v>627</v>
       </c>
       <c r="T771" t="n">
         <v>20</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="N772" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O772" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P772" t="n">
-        <v>9591</v>
+        <v>19000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>480</v>
+        <v>950</v>
       </c>
       <c r="T772" t="n">
         <v>20</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N773" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O773" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P773" t="n">
-        <v>11533</v>
+        <v>20000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>577</v>
+        <v>1000</v>
       </c>
       <c r="T773" t="n">
         <v>20</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>1528</v>
+        <v>440</v>
       </c>
       <c r="N774" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O774" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P774" t="n">
-        <v>12615</v>
+        <v>9591</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>631</v>
+        <v>480</v>
       </c>
       <c r="T774" t="n">
         <v>20</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N775" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O775" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P775" t="n">
-        <v>16000</v>
+        <v>11533</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>800</v>
+        <v>577</v>
       </c>
       <c r="T775" t="n">
         <v>20</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>670</v>
+        <v>1528</v>
       </c>
       <c r="N776" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O776" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P776" t="n">
-        <v>18000</v>
+        <v>12615</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>900</v>
+        <v>631</v>
       </c>
       <c r="T776" t="n">
         <v>20</v>
@@ -62520,33 +62520,33 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M777" t="n">
+        <v>550</v>
+      </c>
+      <c r="N777" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O777" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P777" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S777" t="n">
         <v>800</v>
-      </c>
-      <c r="N777" t="n">
-        <v>19000</v>
-      </c>
-      <c r="O777" t="n">
-        <v>19000</v>
-      </c>
-      <c r="P777" t="n">
-        <v>19000</v>
-      </c>
-      <c r="Q777" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R777" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S777" t="n">
-        <v>950</v>
       </c>
       <c r="T777" t="n">
         <v>20</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,25 +62595,25 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>25</v>
+        <v>670</v>
       </c>
       <c r="N778" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O778" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P778" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T778" t="n">
         <v>20</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="N779" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O779" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P779" t="n">
-        <v>14512</v>
+        <v>19000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>726</v>
+        <v>950</v>
       </c>
       <c r="T779" t="n">
         <v>20</v>
@@ -62755,40 +62755,200 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>1800</v>
+        <v>25</v>
       </c>
       <c r="N780" t="n">
         <v>16000</v>
       </c>
       <c r="O780" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P780" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q780" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R780" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S780" t="n">
+        <v>800</v>
+      </c>
+      <c r="T780" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>9</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D781" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E781" t="n">
+        <v>13</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G781" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I781" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>Pintón</t>
+        </is>
+      </c>
+      <c r="M781" t="n">
+        <v>820</v>
+      </c>
+      <c r="N781" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O781" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P781" t="n">
+        <v>14512</v>
+      </c>
+      <c r="Q781" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S781" t="n">
+        <v>726</v>
+      </c>
+      <c r="T781" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>9</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E782" t="n">
+        <v>13</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>100108006</v>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>Plátano</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>Primera Pintón</t>
+        </is>
+      </c>
+      <c r="M782" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N782" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O782" t="n">
         <v>17000</v>
       </c>
-      <c r="P780" t="n">
+      <c r="P782" t="n">
         <v>16328</v>
       </c>
-      <c r="Q780" t="inlineStr">
-        <is>
-          <t>$/caja 20 kilos</t>
-        </is>
-      </c>
-      <c r="R780" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="S780" t="n">
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S782" t="n">
         <v>816</v>
       </c>
-      <c r="T780" t="n">
+      <c r="T782" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Plátano.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T791"/>
+  <dimension ref="A1:T794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,25 +48595,25 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="N603" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O603" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P603" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="T603" t="n">
         <v>20</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>500</v>
+        <v>910</v>
       </c>
       <c r="N604" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O604" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P604" t="n">
-        <v>14560</v>
+        <v>23000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>728</v>
+        <v>1150</v>
       </c>
       <c r="T604" t="n">
         <v>20</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>960</v>
+        <v>850</v>
       </c>
       <c r="N605" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O605" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="P605" t="n">
-        <v>16604</v>
+        <v>24000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>830</v>
+        <v>1200</v>
       </c>
       <c r="T605" t="n">
         <v>20</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="N606" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O606" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P606" t="n">
-        <v>22650</v>
+        <v>17000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1132</v>
+        <v>850</v>
       </c>
       <c r="T606" t="n">
         <v>20</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,20 +48920,20 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="N607" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O607" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P607" t="n">
-        <v>11459</v>
+        <v>14560</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48946,7 +48946,7 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>573</v>
+        <v>728</v>
       </c>
       <c r="T607" t="n">
         <v>20</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>260</v>
+        <v>960</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O608" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P608" t="n">
-        <v>12538</v>
+        <v>16604</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>627</v>
+        <v>830</v>
       </c>
       <c r="T608" t="n">
         <v>20</v>
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>820</v>
+        <v>400</v>
       </c>
       <c r="N609" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O609" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P609" t="n">
-        <v>14463</v>
+        <v>22650</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>723</v>
+        <v>1132</v>
       </c>
       <c r="T609" t="n">
         <v>20</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="N610" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O610" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>15509</v>
+        <v>11459</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>775</v>
+        <v>573</v>
       </c>
       <c r="T610" t="n">
         <v>20</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="N611" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O611" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P611" t="n">
-        <v>8519</v>
+        <v>12538</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49266,7 +49266,7 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>426</v>
+        <v>627</v>
       </c>
       <c r="T611" t="n">
         <v>20</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49320,20 +49320,20 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>580</v>
+        <v>820</v>
       </c>
       <c r="N612" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O612" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P612" t="n">
-        <v>11517</v>
+        <v>14463</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>576</v>
+        <v>723</v>
       </c>
       <c r="T612" t="n">
         <v>20</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49395,25 +49395,25 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>560</v>
+        <v>1140</v>
       </c>
       <c r="N613" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O613" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P613" t="n">
-        <v>19464</v>
+        <v>15509</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>973</v>
+        <v>775</v>
       </c>
       <c r="T613" t="n">
         <v>20</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="N614" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O614" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P614" t="n">
-        <v>10509</v>
+        <v>8519</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49506,7 +49506,7 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>525</v>
+        <v>426</v>
       </c>
       <c r="T614" t="n">
         <v>20</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>1020</v>
+        <v>580</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O615" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P615" t="n">
-        <v>11196</v>
+        <v>11517</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="T615" t="n">
         <v>20</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="N616" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O616" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P616" t="n">
-        <v>13478</v>
+        <v>19464</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>674</v>
+        <v>973</v>
       </c>
       <c r="T616" t="n">
         <v>20</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>216</v>
+        <v>550</v>
       </c>
       <c r="N617" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O617" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P617" t="n">
-        <v>13500</v>
+        <v>10509</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="T617" t="n">
         <v>20</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>400</v>
+        <v>1020</v>
       </c>
       <c r="N618" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O618" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P618" t="n">
-        <v>7500</v>
+        <v>11196</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>375</v>
+        <v>560</v>
       </c>
       <c r="T618" t="n">
         <v>20</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>1440</v>
+        <v>920</v>
       </c>
       <c r="N619" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O619" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P619" t="n">
-        <v>8722</v>
+        <v>13478</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49906,7 +49906,7 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>436</v>
+        <v>674</v>
       </c>
       <c r="T619" t="n">
         <v>20</v>
@@ -49955,25 +49955,25 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>1120</v>
+        <v>216</v>
       </c>
       <c r="N620" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O620" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P620" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="T620" t="n">
         <v>20</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="N621" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O621" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P621" t="n">
-        <v>13583</v>
+        <v>7500</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>679</v>
+        <v>375</v>
       </c>
       <c r="T621" t="n">
         <v>20</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>2040</v>
+        <v>1440</v>
       </c>
       <c r="N622" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O622" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P622" t="n">
-        <v>14667</v>
+        <v>8722</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>733</v>
+        <v>436</v>
       </c>
       <c r="T622" t="n">
         <v>20</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>500</v>
+        <v>1120</v>
       </c>
       <c r="N623" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O623" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P623" t="n">
-        <v>9560</v>
+        <v>10500</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="T623" t="n">
         <v>20</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44426</v>
+        <v>44222</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="N624" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O624" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P624" t="n">
-        <v>10560</v>
+        <v>13583</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>528</v>
+        <v>679</v>
       </c>
       <c r="T624" t="n">
         <v>20</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44426</v>
+        <v>44222</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>580</v>
+        <v>2040</v>
       </c>
       <c r="N625" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O625" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P625" t="n">
-        <v>13483</v>
+        <v>14667</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>674</v>
+        <v>733</v>
       </c>
       <c r="T625" t="n">
         <v>20</v>
@@ -50440,20 +50440,20 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1620</v>
+        <v>500</v>
       </c>
       <c r="N626" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P626" t="n">
-        <v>14451</v>
+        <v>9560</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>723</v>
+        <v>478</v>
       </c>
       <c r="T626" t="n">
         <v>20</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,20 +50520,20 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="N627" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P627" t="n">
-        <v>20429</v>
+        <v>10560</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>1021</v>
+        <v>528</v>
       </c>
       <c r="T627" t="n">
         <v>20</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50600,20 +50600,20 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="N628" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O628" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P628" t="n">
-        <v>21450</v>
+        <v>13483</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50626,7 +50626,7 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1072</v>
+        <v>674</v>
       </c>
       <c r="T628" t="n">
         <v>20</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44362</v>
+        <v>44426</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>320</v>
+        <v>1620</v>
       </c>
       <c r="N629" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O629" t="n">
         <v>15000</v>
       </c>
       <c r="P629" t="n">
-        <v>15000</v>
+        <v>14451</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="T629" t="n">
         <v>20</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>1120</v>
+        <v>1050</v>
       </c>
       <c r="N630" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O630" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P630" t="n">
-        <v>16500</v>
+        <v>20429</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>825</v>
+        <v>1021</v>
       </c>
       <c r="T630" t="n">
         <v>20</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="N631" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O631" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P631" t="n">
-        <v>8526</v>
+        <v>21450</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>426</v>
+        <v>1072</v>
       </c>
       <c r="T631" t="n">
         <v>20</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50924,16 +50924,16 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>880</v>
+        <v>320</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O632" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P632" t="n">
-        <v>10545</v>
+        <v>15000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>527</v>
+        <v>750</v>
       </c>
       <c r="T632" t="n">
         <v>20</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="N633" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O633" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P633" t="n">
-        <v>13556</v>
+        <v>16500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>678</v>
+        <v>825</v>
       </c>
       <c r="T633" t="n">
         <v>20</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="N634" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P634" t="n">
-        <v>13571</v>
+        <v>8526</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>679</v>
+        <v>426</v>
       </c>
       <c r="T634" t="n">
         <v>20</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>1260</v>
+        <v>880</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P635" t="n">
-        <v>12460</v>
+        <v>10545</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>623</v>
+        <v>527</v>
       </c>
       <c r="T635" t="n">
         <v>20</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="N636" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O636" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P636" t="n">
-        <v>12167</v>
+        <v>13556</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="T636" t="n">
         <v>20</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>1640</v>
+        <v>420</v>
       </c>
       <c r="N637" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O637" t="n">
         <v>14000</v>
       </c>
-      <c r="O637" t="n">
-        <v>15000</v>
-      </c>
       <c r="P637" t="n">
-        <v>14707</v>
+        <v>13571</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>735</v>
+        <v>679</v>
       </c>
       <c r="T637" t="n">
         <v>20</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>1680</v>
+        <v>1260</v>
       </c>
       <c r="N638" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O638" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P638" t="n">
-        <v>9500</v>
+        <v>12460</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>475</v>
+        <v>623</v>
       </c>
       <c r="T638" t="n">
         <v>20</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N639" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O639" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P639" t="n">
-        <v>10500</v>
+        <v>12167</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>525</v>
+        <v>608</v>
       </c>
       <c r="T639" t="n">
         <v>20</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44407</v>
+        <v>44176</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>660</v>
+        <v>1640</v>
       </c>
       <c r="N640" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O640" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P640" t="n">
-        <v>12576</v>
+        <v>14707</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>629</v>
+        <v>735</v>
       </c>
       <c r="T640" t="n">
         <v>20</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>680</v>
+        <v>1680</v>
       </c>
       <c r="N641" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O641" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P641" t="n">
-        <v>14588</v>
+        <v>9500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>729</v>
+        <v>475</v>
       </c>
       <c r="T641" t="n">
         <v>20</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>1710</v>
+        <v>1200</v>
       </c>
       <c r="N642" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O642" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P642" t="n">
-        <v>15591</v>
+        <v>10500</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>780</v>
+        <v>525</v>
       </c>
       <c r="T642" t="n">
         <v>20</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -51795,25 +51795,25 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>40</v>
+        <v>660</v>
       </c>
       <c r="N643" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O643" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P643" t="n">
-        <v>20000</v>
+        <v>12576</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1000</v>
+        <v>629</v>
       </c>
       <c r="T643" t="n">
         <v>20</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="N644" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O644" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P644" t="n">
-        <v>8452</v>
+        <v>14588</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>423</v>
+        <v>729</v>
       </c>
       <c r="T644" t="n">
         <v>20</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>1040</v>
+        <v>1710</v>
       </c>
       <c r="N645" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O645" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P645" t="n">
-        <v>13538</v>
+        <v>15591</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>677</v>
+        <v>780</v>
       </c>
       <c r="T645" t="n">
         <v>20</v>
@@ -52035,25 +52035,25 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N646" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O646" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P646" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T646" t="n">
         <v>20</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="N647" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O647" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P647" t="n">
-        <v>12000</v>
+        <v>8452</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>600</v>
+        <v>423</v>
       </c>
       <c r="T647" t="n">
         <v>20</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>950</v>
+        <v>1040</v>
       </c>
       <c r="N648" t="n">
         <v>13000</v>
       </c>
       <c r="O648" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P648" t="n">
-        <v>13000</v>
+        <v>13538</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="T648" t="n">
         <v>20</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52280,11 +52280,11 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N649" t="n">
         <v>14000</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N650" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O650" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P650" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T650" t="n">
         <v>20</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>630</v>
+        <v>950</v>
       </c>
       <c r="N651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O651" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P651" t="n">
-        <v>10556</v>
+        <v>13000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="T651" t="n">
         <v>20</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>520</v>
+        <v>1200</v>
       </c>
       <c r="N652" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O652" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P652" t="n">
-        <v>11577</v>
+        <v>14000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52546,7 +52546,7 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>579</v>
+        <v>700</v>
       </c>
       <c r="T652" t="n">
         <v>20</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N653" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O653" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P653" t="n">
-        <v>12738</v>
+        <v>15000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>637</v>
+        <v>750</v>
       </c>
       <c r="T653" t="n">
         <v>20</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>1640</v>
+        <v>630</v>
       </c>
       <c r="N654" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O654" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P654" t="n">
-        <v>13634</v>
+        <v>10556</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52706,7 +52706,7 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>682</v>
+        <v>528</v>
       </c>
       <c r="T654" t="n">
         <v>20</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="N655" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O655" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P655" t="n">
-        <v>9763</v>
+        <v>11577</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="T655" t="n">
         <v>20</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="N656" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="O656" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P656" t="n">
-        <v>9808</v>
+        <v>12738</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>490</v>
+        <v>637</v>
       </c>
       <c r="T656" t="n">
         <v>20</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>880</v>
+        <v>1640</v>
       </c>
       <c r="N657" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P657" t="n">
-        <v>11455</v>
+        <v>13634</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>573</v>
+        <v>682</v>
       </c>
       <c r="T657" t="n">
         <v>20</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>1040</v>
+        <v>380</v>
       </c>
       <c r="N658" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O658" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P658" t="n">
-        <v>11538</v>
+        <v>9763</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="T658" t="n">
         <v>20</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="N659" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O659" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P659" t="n">
-        <v>13600</v>
+        <v>9808</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>680</v>
+        <v>490</v>
       </c>
       <c r="T659" t="n">
         <v>20</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -53164,16 +53164,16 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>580</v>
+        <v>880</v>
       </c>
       <c r="N660" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O660" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>14483</v>
+        <v>11455</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>724</v>
+        <v>573</v>
       </c>
       <c r="T660" t="n">
         <v>20</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53244,16 +53244,16 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>790</v>
+        <v>1040</v>
       </c>
       <c r="N661" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O661" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P661" t="n">
-        <v>15443</v>
+        <v>11538</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>772</v>
+        <v>577</v>
       </c>
       <c r="T661" t="n">
         <v>20</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N662" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O662" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P662" t="n">
-        <v>21667</v>
+        <v>13600</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1083</v>
+        <v>680</v>
       </c>
       <c r="T662" t="n">
         <v>20</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="N663" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O663" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P663" t="n">
-        <v>8283</v>
+        <v>14483</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>414</v>
+        <v>724</v>
       </c>
       <c r="T663" t="n">
         <v>20</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="N664" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O664" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P664" t="n">
-        <v>9560</v>
+        <v>15443</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>478</v>
+        <v>772</v>
       </c>
       <c r="T664" t="n">
         <v>20</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>950</v>
+        <v>360</v>
       </c>
       <c r="N665" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O665" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P665" t="n">
-        <v>10526</v>
+        <v>21667</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>526</v>
+        <v>1083</v>
       </c>
       <c r="T665" t="n">
         <v>20</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>1080</v>
+        <v>460</v>
       </c>
       <c r="N666" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O666" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P666" t="n">
-        <v>11556</v>
+        <v>8283</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>578</v>
+        <v>414</v>
       </c>
       <c r="T666" t="n">
         <v>20</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N667" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O667" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P667" t="n">
-        <v>14000</v>
+        <v>9560</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>700</v>
+        <v>478</v>
       </c>
       <c r="T667" t="n">
         <v>20</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>440</v>
+        <v>950</v>
       </c>
       <c r="N668" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O668" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P668" t="n">
-        <v>9364</v>
+        <v>10526</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="T668" t="n">
         <v>20</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -53887,13 +53887,13 @@
         <v>1080</v>
       </c>
       <c r="N669" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O669" t="n">
         <v>12000</v>
       </c>
-      <c r="O669" t="n">
-        <v>13000</v>
-      </c>
       <c r="P669" t="n">
-        <v>12546</v>
+        <v>11556</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="T669" t="n">
         <v>20</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53964,7 +53964,7 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N670" t="n">
         <v>14000</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -54035,25 +54035,25 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>1080</v>
+        <v>440</v>
       </c>
       <c r="N671" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O671" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P671" t="n">
-        <v>19000</v>
+        <v>9364</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>950</v>
+        <v>468</v>
       </c>
       <c r="T671" t="n">
         <v>20</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>1520</v>
+        <v>1080</v>
       </c>
       <c r="N672" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O672" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P672" t="n">
-        <v>10500</v>
+        <v>12546</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>525</v>
+        <v>627</v>
       </c>
       <c r="T672" t="n">
         <v>20</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44384</v>
+        <v>44312</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>1120</v>
+        <v>200</v>
       </c>
       <c r="N673" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O673" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P673" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="T673" t="n">
         <v>20</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,25 +54275,25 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="N674" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O674" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P674" t="n">
-        <v>11455</v>
+        <v>19000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>573</v>
+        <v>950</v>
       </c>
       <c r="T674" t="n">
         <v>20</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>460</v>
+        <v>1520</v>
       </c>
       <c r="N675" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O675" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P675" t="n">
-        <v>17565</v>
+        <v>10500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>878</v>
+        <v>525</v>
       </c>
       <c r="T675" t="n">
         <v>20</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>320</v>
+        <v>1120</v>
       </c>
       <c r="N676" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="O676" t="n">
         <v>10000</v>
       </c>
       <c r="P676" t="n">
-        <v>9781</v>
+        <v>9500</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="T676" t="n">
         <v>20</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>580</v>
+        <v>880</v>
       </c>
       <c r="N677" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O677" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P677" t="n">
-        <v>9828</v>
+        <v>11455</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="T677" t="n">
         <v>20</v>
@@ -54595,25 +54595,25 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>880</v>
+        <v>460</v>
       </c>
       <c r="N678" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O678" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P678" t="n">
-        <v>10545</v>
+        <v>17565</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>527</v>
+        <v>878</v>
       </c>
       <c r="T678" t="n">
         <v>20</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>1340</v>
+        <v>320</v>
       </c>
       <c r="N679" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O679" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P679" t="n">
-        <v>13627</v>
+        <v>9781</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>681</v>
+        <v>489</v>
       </c>
       <c r="T679" t="n">
         <v>20</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N680" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O680" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P680" t="n">
-        <v>20000</v>
+        <v>9828</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1000</v>
+        <v>491</v>
       </c>
       <c r="T680" t="n">
         <v>20</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>450</v>
+        <v>880</v>
       </c>
       <c r="N681" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O681" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P681" t="n">
-        <v>21000</v>
+        <v>10545</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1050</v>
+        <v>527</v>
       </c>
       <c r="T681" t="n">
         <v>20</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>630</v>
+        <v>1340</v>
       </c>
       <c r="N682" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O682" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P682" t="n">
-        <v>7722</v>
+        <v>13627</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>386</v>
+        <v>681</v>
       </c>
       <c r="T682" t="n">
         <v>20</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N683" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O683" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="P683" t="n">
-        <v>9211</v>
+        <v>20000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>461</v>
+        <v>1000</v>
       </c>
       <c r="T683" t="n">
         <v>20</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="N684" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O684" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P684" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="T684" t="n">
         <v>20</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>1160</v>
+        <v>630</v>
       </c>
       <c r="N685" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O685" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P685" t="n">
-        <v>10741</v>
+        <v>7722</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>537</v>
+        <v>386</v>
       </c>
       <c r="T685" t="n">
         <v>20</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -55244,16 +55244,16 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N686" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O686" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="P686" t="n">
-        <v>24000</v>
+        <v>9211</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1200</v>
+        <v>461</v>
       </c>
       <c r="T686" t="n">
         <v>20</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="N687" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O687" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P687" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T687" t="n">
         <v>20</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>400</v>
+        <v>1160</v>
       </c>
       <c r="N688" t="n">
-        <v>26000</v>
+        <v>10500</v>
       </c>
       <c r="O688" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P688" t="n">
-        <v>26000</v>
+        <v>10741</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1300</v>
+        <v>537</v>
       </c>
       <c r="T688" t="n">
         <v>20</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N689" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O689" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P689" t="n">
-        <v>10591</v>
+        <v>24000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>530</v>
+        <v>1200</v>
       </c>
       <c r="T689" t="n">
         <v>20</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="N690" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O690" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P690" t="n">
-        <v>12562</v>
+        <v>25000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>628</v>
+        <v>1250</v>
       </c>
       <c r="T690" t="n">
         <v>20</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55644,16 +55644,16 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>940</v>
+        <v>400</v>
       </c>
       <c r="N691" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="O691" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P691" t="n">
-        <v>13383</v>
+        <v>26000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>669</v>
+        <v>1300</v>
       </c>
       <c r="T691" t="n">
         <v>20</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,25 +55715,25 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>115</v>
+        <v>440</v>
       </c>
       <c r="N692" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O692" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P692" t="n">
-        <v>19609</v>
+        <v>10591</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>980</v>
+        <v>530</v>
       </c>
       <c r="T692" t="n">
         <v>20</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="N693" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O693" t="n">
         <v>13000</v>
       </c>
-      <c r="O693" t="n">
-        <v>14000</v>
-      </c>
       <c r="P693" t="n">
-        <v>13571</v>
+        <v>12562</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="T693" t="n">
         <v>20</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Primera Verde</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>200</v>
+        <v>940</v>
       </c>
       <c r="N694" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O694" t="n">
         <v>14000</v>
       </c>
       <c r="P694" t="n">
-        <v>14000</v>
+        <v>13383</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="T694" t="n">
         <v>20</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="N695" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O695" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P695" t="n">
-        <v>14500</v>
+        <v>19609</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>725</v>
+        <v>980</v>
       </c>
       <c r="T695" t="n">
         <v>20</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -56040,20 +56040,20 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>960</v>
+        <v>700</v>
       </c>
       <c r="N696" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O696" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P696" t="n">
-        <v>16500</v>
+        <v>13571</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>825</v>
+        <v>679</v>
       </c>
       <c r="T696" t="n">
         <v>20</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56120,20 +56120,20 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera Verde</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>2320</v>
+        <v>200</v>
       </c>
       <c r="N697" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O697" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P697" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56146,7 +56146,7 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="T697" t="n">
         <v>20</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N698" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O698" t="n">
         <v>15000</v>
       </c>
       <c r="P698" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="T698" t="n">
         <v>20</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M699" t="n">
         <v>960</v>
       </c>
       <c r="N699" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O699" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P699" t="n">
-        <v>11583</v>
+        <v>16500</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>579</v>
+        <v>825</v>
       </c>
       <c r="T699" t="n">
         <v>20</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>880</v>
+        <v>2320</v>
       </c>
       <c r="N700" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O700" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P700" t="n">
-        <v>12455</v>
+        <v>17500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>623</v>
+        <v>875</v>
       </c>
       <c r="T700" t="n">
         <v>20</v>
@@ -56435,25 +56435,25 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="N701" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O701" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P701" t="n">
-        <v>13592</v>
+        <v>15000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="T701" t="n">
         <v>20</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>750</v>
+        <v>960</v>
       </c>
       <c r="N702" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O702" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P702" t="n">
-        <v>20467</v>
+        <v>11583</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>1023</v>
+        <v>579</v>
       </c>
       <c r="T702" t="n">
         <v>20</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>1070</v>
+        <v>880</v>
       </c>
       <c r="N703" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O703" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P703" t="n">
-        <v>22486</v>
+        <v>12455</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>1124</v>
+        <v>623</v>
       </c>
       <c r="T703" t="n">
         <v>20</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Barraganete</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>400</v>
+        <v>980</v>
       </c>
       <c r="N704" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O704" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P704" t="n">
-        <v>21450</v>
+        <v>13592</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1072</v>
+        <v>680</v>
       </c>
       <c r="T704" t="n">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="N705" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O705" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P705" t="n">
-        <v>9571</v>
+        <v>20467</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>479</v>
+        <v>1023</v>
       </c>
       <c r="T705" t="n">
         <v>20</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>560</v>
+        <v>1070</v>
       </c>
       <c r="N706" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O706" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P706" t="n">
-        <v>10393</v>
+        <v>22486</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>520</v>
+        <v>1124</v>
       </c>
       <c r="T706" t="n">
         <v>20</v>
@@ -56915,25 +56915,25 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Barraganete</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="N707" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O707" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P707" t="n">
-        <v>13548</v>
+        <v>21450</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>677</v>
+        <v>1072</v>
       </c>
       <c r="T707" t="n">
         <v>20</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>830</v>
+        <v>420</v>
       </c>
       <c r="N708" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O708" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P708" t="n">
-        <v>14458</v>
+        <v>9571</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>723</v>
+        <v>479</v>
       </c>
       <c r="T708" t="n">
         <v>20</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Maduro</t>
+          <t>Pintón</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>205</v>
+        <v>560</v>
       </c>
       <c r="N709" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O709" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P709" t="n">
-        <v>8707</v>
+        <v>10393</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>435</v>
+        <v>520</v>
       </c>
       <c r="T709" t="n">
         <v>20</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Pintón</t>
+          <t>Primera Maduro</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="N710" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O710" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P710" t="n">
-        <v>9775</v>
+        <v>13548</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>489</v>
+        <v>677</v>
       </c>
       <c r="T710" t="n">
         <v>20</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Primera Maduro</t>
+          <t>Primera Pintón</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="N711" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O711" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P711" t="n">
-        <v>11513</v>
+        <v>14458</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>576</v>
+        <v>723</v>
       </c>
       <c r="T711" t="n">
         <v>20</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera Pintón</t>
+          <t>Maduro</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>1560</v>
+        <v>205</v>
       </c>
       <c r="N7